--- a/Stochastic_engine/Gas_prices/NG.xlsx
+++ b/Stochastic_engine/Gas_prices/NG.xlsx
@@ -12,26 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
-  <si>
-    <t>SCE</t>
-  </si>
-  <si>
-    <t>SDGE</t>
-  </si>
-  <si>
-    <t>PGE_valley</t>
-  </si>
-  <si>
-    <t>PGE_bay</t>
-  </si>
-  <si>
-    <t>PNW</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -386,24 +366,34 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>SCE</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>SDGE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>PGE_valley</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PGE_bay</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>PNW</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -423,7 +413,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
@@ -443,7 +433,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
@@ -463,7 +453,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
@@ -483,7 +473,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
@@ -503,7 +493,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
@@ -523,7 +513,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
@@ -543,7 +533,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
@@ -563,7 +553,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
@@ -583,7 +573,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
@@ -603,7 +593,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
@@ -623,7 +613,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
@@ -643,7 +633,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
@@ -663,7 +653,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
@@ -683,7 +673,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
@@ -703,7 +693,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
@@ -723,7 +713,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
@@ -743,7 +733,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
@@ -763,7 +753,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
@@ -783,7 +773,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
@@ -803,7 +793,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
@@ -823,7 +813,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
@@ -843,7 +833,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
@@ -863,7 +853,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
@@ -883,7 +873,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
@@ -903,7 +893,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
@@ -923,7 +913,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
@@ -943,7 +933,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
@@ -963,7 +953,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
@@ -983,7 +973,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
@@ -1003,7 +993,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
@@ -1023,7 +1013,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
@@ -1043,7 +1033,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
@@ -1063,7 +1053,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
@@ -1083,7 +1073,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
@@ -1103,7 +1093,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
@@ -1123,7 +1113,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
@@ -1143,7 +1133,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
@@ -1163,7 +1153,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
@@ -1183,7 +1173,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
@@ -1203,7 +1193,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
@@ -1223,7 +1213,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
@@ -1243,7 +1233,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
@@ -1263,7 +1253,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
@@ -1283,7 +1273,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
@@ -1303,7 +1293,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
@@ -1323,7 +1313,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
@@ -1343,7 +1333,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
@@ -1363,7 +1353,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
@@ -1383,7 +1373,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
@@ -1403,7 +1393,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
@@ -1423,7 +1413,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
@@ -1443,7 +1433,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
@@ -1463,7 +1453,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
@@ -1483,7 +1473,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
@@ -1503,7 +1493,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
@@ -1523,7 +1513,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
@@ -1543,7 +1533,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
@@ -1563,7 +1553,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
@@ -1583,7 +1573,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
@@ -1603,7 +1593,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
@@ -1623,7 +1613,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
@@ -1643,7 +1633,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
@@ -1663,7 +1653,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
@@ -1683,7 +1673,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
@@ -1703,7 +1693,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
@@ -1723,7 +1713,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
@@ -1743,7 +1733,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
@@ -1763,7 +1753,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
@@ -1783,7 +1773,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
@@ -1803,7 +1793,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
@@ -1823,7 +1813,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
@@ -1843,7 +1833,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
@@ -1863,7 +1853,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
@@ -1883,7 +1873,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
@@ -1903,7 +1893,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
@@ -1923,7 +1913,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
@@ -1943,7 +1933,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
@@ -1963,7 +1953,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
@@ -1983,7 +1973,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
@@ -2003,7 +1993,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
@@ -2023,7 +2013,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
@@ -2043,7 +2033,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
@@ -2063,7 +2053,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
@@ -2083,7 +2073,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
@@ -2103,7 +2093,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
@@ -2123,7 +2113,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
@@ -2143,7 +2133,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
@@ -2163,7 +2153,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
@@ -2183,7 +2173,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
@@ -2203,7 +2193,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
@@ -2223,7 +2213,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
@@ -2243,7 +2233,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
@@ -2263,7 +2253,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
@@ -2283,7 +2273,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
@@ -2303,7 +2293,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
@@ -2323,7 +2313,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
@@ -2343,7 +2333,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
@@ -2363,7 +2353,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
@@ -2383,7 +2373,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
@@ -2403,7 +2393,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
@@ -2423,7 +2413,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
@@ -2443,7 +2433,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
@@ -2463,7 +2453,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
@@ -2483,7 +2473,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
@@ -2503,7 +2493,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
@@ -2523,7 +2513,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
@@ -2543,7 +2533,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
@@ -2563,7 +2553,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
@@ -2583,7 +2573,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
@@ -2603,7 +2593,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
@@ -2623,7 +2613,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
@@ -2643,7 +2633,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
@@ -2663,7 +2653,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
@@ -2683,7 +2673,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
@@ -2703,7 +2693,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
@@ -2723,7 +2713,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
@@ -2743,7 +2733,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
@@ -2763,7 +2753,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
@@ -2783,7 +2773,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
@@ -2803,7 +2793,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
@@ -2823,7 +2813,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
@@ -2843,7 +2833,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
@@ -2863,7 +2853,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
@@ -2883,7 +2873,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
@@ -2903,7 +2893,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
@@ -2923,7 +2913,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
@@ -2943,7 +2933,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
@@ -2963,7 +2953,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
@@ -2983,7 +2973,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
@@ -3003,7 +2993,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
@@ -3023,7 +3013,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
@@ -3043,7 +3033,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
@@ -3063,7 +3053,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
@@ -3083,7 +3073,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
@@ -3103,7 +3093,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
@@ -3123,7 +3113,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
@@ -3143,7 +3133,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
@@ -3163,7 +3153,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
@@ -3183,7 +3173,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
@@ -3203,7 +3193,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
@@ -3223,7 +3213,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
@@ -3243,7 +3233,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
@@ -3263,7 +3253,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
@@ -3283,7 +3273,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
@@ -3303,7 +3293,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
@@ -3323,7 +3313,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
@@ -3343,7 +3333,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
@@ -3363,7 +3353,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
@@ -3383,7 +3373,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
@@ -3403,7 +3393,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
@@ -3423,7 +3413,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
@@ -3443,7 +3433,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
@@ -3463,7 +3453,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
@@ -3483,7 +3473,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
@@ -3503,7 +3493,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
@@ -3523,7 +3513,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
@@ -3543,7 +3533,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
@@ -3563,7 +3553,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
@@ -3583,7 +3573,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
@@ -3603,7 +3593,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
@@ -3623,7 +3613,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
@@ -3643,7 +3633,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
@@ -3663,7 +3653,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
@@ -3683,7 +3673,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
@@ -3703,7 +3693,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
@@ -3723,7 +3713,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
@@ -3743,7 +3733,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
@@ -3763,7 +3753,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
@@ -3783,7 +3773,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
@@ -3803,7 +3793,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
@@ -3823,7 +3813,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
@@ -3843,7 +3833,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
@@ -3863,7 +3853,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
@@ -3883,7 +3873,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
@@ -3903,7 +3893,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
@@ -3923,7 +3913,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
@@ -3943,7 +3933,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
@@ -3963,7 +3953,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
@@ -3983,7 +3973,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
@@ -4003,7 +3993,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
@@ -4023,7 +4013,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
@@ -4043,7 +4033,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
@@ -4063,7 +4053,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
@@ -4083,7 +4073,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
@@ -4103,7 +4093,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
@@ -4123,7 +4113,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
@@ -4143,7 +4133,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
@@ -4163,7 +4153,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
@@ -4183,7 +4173,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
@@ -4203,7 +4193,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
@@ -4223,7 +4213,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
@@ -4243,7 +4233,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
@@ -4263,7 +4253,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
@@ -4283,7 +4273,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
@@ -4303,7 +4293,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
@@ -4323,7 +4313,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
@@ -4343,7 +4333,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
@@ -4363,7 +4353,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
@@ -4383,7 +4373,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
@@ -4403,7 +4393,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
@@ -4423,7 +4413,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
@@ -4443,7 +4433,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
@@ -4463,7 +4453,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
@@ -4483,7 +4473,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
@@ -4503,7 +4493,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
@@ -4523,7 +4513,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
@@ -4543,7 +4533,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
@@ -4563,7 +4553,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
@@ -4583,7 +4573,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
@@ -4603,7 +4593,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
@@ -4623,7 +4613,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
@@ -4643,7 +4633,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
@@ -4663,7 +4653,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
@@ -4683,7 +4673,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216">
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
@@ -4703,7 +4693,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217">
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
@@ -4723,7 +4713,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218">
       <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
@@ -4743,7 +4733,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219">
       <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
@@ -4763,7 +4753,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220">
       <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
@@ -4783,7 +4773,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221">
       <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
@@ -4803,7 +4793,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222">
       <c r="A222" s="1" t="n">
         <v>220</v>
       </c>
@@ -4823,7 +4813,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223">
       <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
@@ -4843,7 +4833,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224">
       <c r="A224" s="1" t="n">
         <v>222</v>
       </c>
@@ -4863,7 +4853,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225">
       <c r="A225" s="1" t="n">
         <v>223</v>
       </c>
@@ -4883,7 +4873,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226">
       <c r="A226" s="1" t="n">
         <v>224</v>
       </c>
@@ -4903,7 +4893,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227">
       <c r="A227" s="1" t="n">
         <v>225</v>
       </c>
@@ -4923,7 +4913,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228">
       <c r="A228" s="1" t="n">
         <v>226</v>
       </c>
@@ -4943,7 +4933,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229">
       <c r="A229" s="1" t="n">
         <v>227</v>
       </c>
@@ -4963,7 +4953,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230">
       <c r="A230" s="1" t="n">
         <v>228</v>
       </c>
@@ -4983,7 +4973,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231">
       <c r="A231" s="1" t="n">
         <v>229</v>
       </c>
@@ -5003,7 +4993,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232">
       <c r="A232" s="1" t="n">
         <v>230</v>
       </c>
@@ -5023,7 +5013,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233">
       <c r="A233" s="1" t="n">
         <v>231</v>
       </c>
@@ -5043,7 +5033,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234">
       <c r="A234" s="1" t="n">
         <v>232</v>
       </c>
@@ -5063,7 +5053,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235">
       <c r="A235" s="1" t="n">
         <v>233</v>
       </c>
@@ -5083,7 +5073,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236">
       <c r="A236" s="1" t="n">
         <v>234</v>
       </c>
@@ -5103,7 +5093,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237">
       <c r="A237" s="1" t="n">
         <v>235</v>
       </c>
@@ -5123,7 +5113,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238">
       <c r="A238" s="1" t="n">
         <v>236</v>
       </c>
@@ -5143,7 +5133,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239">
       <c r="A239" s="1" t="n">
         <v>237</v>
       </c>
@@ -5163,7 +5153,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240">
       <c r="A240" s="1" t="n">
         <v>238</v>
       </c>
@@ -5183,7 +5173,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241">
       <c r="A241" s="1" t="n">
         <v>239</v>
       </c>
@@ -5203,7 +5193,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242">
       <c r="A242" s="1" t="n">
         <v>240</v>
       </c>
@@ -5223,7 +5213,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243">
       <c r="A243" s="1" t="n">
         <v>241</v>
       </c>
@@ -5243,7 +5233,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244">
       <c r="A244" s="1" t="n">
         <v>242</v>
       </c>
@@ -5263,7 +5253,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245">
       <c r="A245" s="1" t="n">
         <v>243</v>
       </c>
@@ -5283,7 +5273,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="246" spans="1:6">
+    <row r="246">
       <c r="A246" s="1" t="n">
         <v>244</v>
       </c>
@@ -5303,7 +5293,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247">
       <c r="A247" s="1" t="n">
         <v>245</v>
       </c>
@@ -5323,7 +5313,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248">
       <c r="A248" s="1" t="n">
         <v>246</v>
       </c>
@@ -5343,7 +5333,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="249" spans="1:6">
+    <row r="249">
       <c r="A249" s="1" t="n">
         <v>247</v>
       </c>
@@ -5363,7 +5353,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="250" spans="1:6">
+    <row r="250">
       <c r="A250" s="1" t="n">
         <v>248</v>
       </c>
@@ -5383,7 +5373,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="251" spans="1:6">
+    <row r="251">
       <c r="A251" s="1" t="n">
         <v>249</v>
       </c>
@@ -5403,7 +5393,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252">
       <c r="A252" s="1" t="n">
         <v>250</v>
       </c>
@@ -5423,7 +5413,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253">
       <c r="A253" s="1" t="n">
         <v>251</v>
       </c>
@@ -5443,7 +5433,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254">
       <c r="A254" s="1" t="n">
         <v>252</v>
       </c>
@@ -5463,7 +5453,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255">
       <c r="A255" s="1" t="n">
         <v>253</v>
       </c>
@@ -5483,7 +5473,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="256" spans="1:6">
+    <row r="256">
       <c r="A256" s="1" t="n">
         <v>254</v>
       </c>
@@ -5503,7 +5493,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257">
       <c r="A257" s="1" t="n">
         <v>255</v>
       </c>
@@ -5523,7 +5513,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="258" spans="1:6">
+    <row r="258">
       <c r="A258" s="1" t="n">
         <v>256</v>
       </c>
@@ -5543,7 +5533,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259">
       <c r="A259" s="1" t="n">
         <v>257</v>
       </c>
@@ -5563,7 +5553,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260">
       <c r="A260" s="1" t="n">
         <v>258</v>
       </c>
@@ -5583,7 +5573,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261">
       <c r="A261" s="1" t="n">
         <v>259</v>
       </c>
@@ -5603,7 +5593,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262">
       <c r="A262" s="1" t="n">
         <v>260</v>
       </c>
@@ -5623,7 +5613,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="263" spans="1:6">
+    <row r="263">
       <c r="A263" s="1" t="n">
         <v>261</v>
       </c>
@@ -5643,7 +5633,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264">
       <c r="A264" s="1" t="n">
         <v>262</v>
       </c>
@@ -5663,7 +5653,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265">
       <c r="A265" s="1" t="n">
         <v>263</v>
       </c>
@@ -5683,7 +5673,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266">
       <c r="A266" s="1" t="n">
         <v>264</v>
       </c>
@@ -5703,7 +5693,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267">
       <c r="A267" s="1" t="n">
         <v>265</v>
       </c>
@@ -5723,7 +5713,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="268" spans="1:6">
+    <row r="268">
       <c r="A268" s="1" t="n">
         <v>266</v>
       </c>
@@ -5743,7 +5733,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269">
       <c r="A269" s="1" t="n">
         <v>267</v>
       </c>
@@ -5763,7 +5753,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270">
       <c r="A270" s="1" t="n">
         <v>268</v>
       </c>
@@ -5783,7 +5773,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271">
       <c r="A271" s="1" t="n">
         <v>269</v>
       </c>
@@ -5803,7 +5793,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="272" spans="1:6">
+    <row r="272">
       <c r="A272" s="1" t="n">
         <v>270</v>
       </c>
@@ -5823,7 +5813,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="273" spans="1:6">
+    <row r="273">
       <c r="A273" s="1" t="n">
         <v>271</v>
       </c>
@@ -5843,7 +5833,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="274" spans="1:6">
+    <row r="274">
       <c r="A274" s="1" t="n">
         <v>272</v>
       </c>
@@ -5863,7 +5853,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="275" spans="1:6">
+    <row r="275">
       <c r="A275" s="1" t="n">
         <v>273</v>
       </c>
@@ -5883,7 +5873,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="276" spans="1:6">
+    <row r="276">
       <c r="A276" s="1" t="n">
         <v>274</v>
       </c>
@@ -5903,7 +5893,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="277" spans="1:6">
+    <row r="277">
       <c r="A277" s="1" t="n">
         <v>275</v>
       </c>
@@ -5923,7 +5913,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="278" spans="1:6">
+    <row r="278">
       <c r="A278" s="1" t="n">
         <v>276</v>
       </c>
@@ -5943,7 +5933,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="279" spans="1:6">
+    <row r="279">
       <c r="A279" s="1" t="n">
         <v>277</v>
       </c>
@@ -5963,7 +5953,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="280" spans="1:6">
+    <row r="280">
       <c r="A280" s="1" t="n">
         <v>278</v>
       </c>
@@ -5983,7 +5973,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="281" spans="1:6">
+    <row r="281">
       <c r="A281" s="1" t="n">
         <v>279</v>
       </c>
@@ -6003,7 +5993,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="282" spans="1:6">
+    <row r="282">
       <c r="A282" s="1" t="n">
         <v>280</v>
       </c>
@@ -6023,7 +6013,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="283" spans="1:6">
+    <row r="283">
       <c r="A283" s="1" t="n">
         <v>281</v>
       </c>
@@ -6043,7 +6033,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="284" spans="1:6">
+    <row r="284">
       <c r="A284" s="1" t="n">
         <v>282</v>
       </c>
@@ -6063,7 +6053,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="285" spans="1:6">
+    <row r="285">
       <c r="A285" s="1" t="n">
         <v>283</v>
       </c>
@@ -6083,7 +6073,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="286" spans="1:6">
+    <row r="286">
       <c r="A286" s="1" t="n">
         <v>284</v>
       </c>
@@ -6103,7 +6093,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="287" spans="1:6">
+    <row r="287">
       <c r="A287" s="1" t="n">
         <v>285</v>
       </c>
@@ -6123,7 +6113,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="288" spans="1:6">
+    <row r="288">
       <c r="A288" s="1" t="n">
         <v>286</v>
       </c>
@@ -6143,7 +6133,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="289" spans="1:6">
+    <row r="289">
       <c r="A289" s="1" t="n">
         <v>287</v>
       </c>
@@ -6163,7 +6153,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="290" spans="1:6">
+    <row r="290">
       <c r="A290" s="1" t="n">
         <v>288</v>
       </c>
@@ -6183,7 +6173,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="291" spans="1:6">
+    <row r="291">
       <c r="A291" s="1" t="n">
         <v>289</v>
       </c>
@@ -6203,7 +6193,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="292" spans="1:6">
+    <row r="292">
       <c r="A292" s="1" t="n">
         <v>290</v>
       </c>
@@ -6223,7 +6213,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="293" spans="1:6">
+    <row r="293">
       <c r="A293" s="1" t="n">
         <v>291</v>
       </c>
@@ -6243,7 +6233,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="294" spans="1:6">
+    <row r="294">
       <c r="A294" s="1" t="n">
         <v>292</v>
       </c>
@@ -6263,7 +6253,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="295" spans="1:6">
+    <row r="295">
       <c r="A295" s="1" t="n">
         <v>293</v>
       </c>
@@ -6283,7 +6273,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="296" spans="1:6">
+    <row r="296">
       <c r="A296" s="1" t="n">
         <v>294</v>
       </c>
@@ -6303,7 +6293,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="297" spans="1:6">
+    <row r="297">
       <c r="A297" s="1" t="n">
         <v>295</v>
       </c>
@@ -6323,7 +6313,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="298" spans="1:6">
+    <row r="298">
       <c r="A298" s="1" t="n">
         <v>296</v>
       </c>
@@ -6343,7 +6333,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="299" spans="1:6">
+    <row r="299">
       <c r="A299" s="1" t="n">
         <v>297</v>
       </c>
@@ -6363,7 +6353,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="300" spans="1:6">
+    <row r="300">
       <c r="A300" s="1" t="n">
         <v>298</v>
       </c>
@@ -6383,7 +6373,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="301" spans="1:6">
+    <row r="301">
       <c r="A301" s="1" t="n">
         <v>299</v>
       </c>
@@ -6403,7 +6393,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="302" spans="1:6">
+    <row r="302">
       <c r="A302" s="1" t="n">
         <v>300</v>
       </c>
@@ -6423,7 +6413,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="303" spans="1:6">
+    <row r="303">
       <c r="A303" s="1" t="n">
         <v>301</v>
       </c>
@@ -6443,7 +6433,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="304" spans="1:6">
+    <row r="304">
       <c r="A304" s="1" t="n">
         <v>302</v>
       </c>
@@ -6463,7 +6453,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="305" spans="1:6">
+    <row r="305">
       <c r="A305" s="1" t="n">
         <v>303</v>
       </c>
@@ -6483,7 +6473,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="306" spans="1:6">
+    <row r="306">
       <c r="A306" s="1" t="n">
         <v>304</v>
       </c>
@@ -6503,7 +6493,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="307" spans="1:6">
+    <row r="307">
       <c r="A307" s="1" t="n">
         <v>305</v>
       </c>
@@ -6523,7 +6513,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="308" spans="1:6">
+    <row r="308">
       <c r="A308" s="1" t="n">
         <v>306</v>
       </c>
@@ -6543,7 +6533,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="309" spans="1:6">
+    <row r="309">
       <c r="A309" s="1" t="n">
         <v>307</v>
       </c>
@@ -6563,7 +6553,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="310" spans="1:6">
+    <row r="310">
       <c r="A310" s="1" t="n">
         <v>308</v>
       </c>
@@ -6583,7 +6573,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="311" spans="1:6">
+    <row r="311">
       <c r="A311" s="1" t="n">
         <v>309</v>
       </c>
@@ -6603,7 +6593,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="312" spans="1:6">
+    <row r="312">
       <c r="A312" s="1" t="n">
         <v>310</v>
       </c>
@@ -6623,7 +6613,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="313" spans="1:6">
+    <row r="313">
       <c r="A313" s="1" t="n">
         <v>311</v>
       </c>
@@ -6643,7 +6633,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="314" spans="1:6">
+    <row r="314">
       <c r="A314" s="1" t="n">
         <v>312</v>
       </c>
@@ -6663,7 +6653,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="315" spans="1:6">
+    <row r="315">
       <c r="A315" s="1" t="n">
         <v>313</v>
       </c>
@@ -6683,7 +6673,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="316" spans="1:6">
+    <row r="316">
       <c r="A316" s="1" t="n">
         <v>314</v>
       </c>
@@ -6703,7 +6693,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="317" spans="1:6">
+    <row r="317">
       <c r="A317" s="1" t="n">
         <v>315</v>
       </c>
@@ -6723,7 +6713,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="318" spans="1:6">
+    <row r="318">
       <c r="A318" s="1" t="n">
         <v>316</v>
       </c>
@@ -6743,7 +6733,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="319" spans="1:6">
+    <row r="319">
       <c r="A319" s="1" t="n">
         <v>317</v>
       </c>
@@ -6763,7 +6753,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="320" spans="1:6">
+    <row r="320">
       <c r="A320" s="1" t="n">
         <v>318</v>
       </c>
@@ -6783,7 +6773,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="321" spans="1:6">
+    <row r="321">
       <c r="A321" s="1" t="n">
         <v>319</v>
       </c>
@@ -6803,7 +6793,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="322" spans="1:6">
+    <row r="322">
       <c r="A322" s="1" t="n">
         <v>320</v>
       </c>
@@ -6823,7 +6813,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="323" spans="1:6">
+    <row r="323">
       <c r="A323" s="1" t="n">
         <v>321</v>
       </c>
@@ -6843,7 +6833,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="324" spans="1:6">
+    <row r="324">
       <c r="A324" s="1" t="n">
         <v>322</v>
       </c>
@@ -6863,7 +6853,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="325" spans="1:6">
+    <row r="325">
       <c r="A325" s="1" t="n">
         <v>323</v>
       </c>
@@ -6883,7 +6873,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="326" spans="1:6">
+    <row r="326">
       <c r="A326" s="1" t="n">
         <v>324</v>
       </c>
@@ -6903,7 +6893,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="327" spans="1:6">
+    <row r="327">
       <c r="A327" s="1" t="n">
         <v>325</v>
       </c>
@@ -6923,7 +6913,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="328" spans="1:6">
+    <row r="328">
       <c r="A328" s="1" t="n">
         <v>326</v>
       </c>
@@ -6943,7 +6933,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="329" spans="1:6">
+    <row r="329">
       <c r="A329" s="1" t="n">
         <v>327</v>
       </c>
@@ -6963,7 +6953,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="330" spans="1:6">
+    <row r="330">
       <c r="A330" s="1" t="n">
         <v>328</v>
       </c>
@@ -6983,7 +6973,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="331" spans="1:6">
+    <row r="331">
       <c r="A331" s="1" t="n">
         <v>329</v>
       </c>
@@ -7003,7 +6993,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="332" spans="1:6">
+    <row r="332">
       <c r="A332" s="1" t="n">
         <v>330</v>
       </c>
@@ -7023,7 +7013,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="333" spans="1:6">
+    <row r="333">
       <c r="A333" s="1" t="n">
         <v>331</v>
       </c>
@@ -7043,7 +7033,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="334" spans="1:6">
+    <row r="334">
       <c r="A334" s="1" t="n">
         <v>332</v>
       </c>
@@ -7063,7 +7053,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="335" spans="1:6">
+    <row r="335">
       <c r="A335" s="1" t="n">
         <v>333</v>
       </c>
@@ -7083,7 +7073,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="336" spans="1:6">
+    <row r="336">
       <c r="A336" s="1" t="n">
         <v>334</v>
       </c>
@@ -7103,7 +7093,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="337" spans="1:6">
+    <row r="337">
       <c r="A337" s="1" t="n">
         <v>335</v>
       </c>
@@ -7123,7 +7113,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="338" spans="1:6">
+    <row r="338">
       <c r="A338" s="1" t="n">
         <v>336</v>
       </c>
@@ -7143,7 +7133,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="339" spans="1:6">
+    <row r="339">
       <c r="A339" s="1" t="n">
         <v>337</v>
       </c>
@@ -7163,7 +7153,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="340" spans="1:6">
+    <row r="340">
       <c r="A340" s="1" t="n">
         <v>338</v>
       </c>
@@ -7183,7 +7173,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="341" spans="1:6">
+    <row r="341">
       <c r="A341" s="1" t="n">
         <v>339</v>
       </c>
@@ -7203,7 +7193,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="342" spans="1:6">
+    <row r="342">
       <c r="A342" s="1" t="n">
         <v>340</v>
       </c>
@@ -7223,7 +7213,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="343" spans="1:6">
+    <row r="343">
       <c r="A343" s="1" t="n">
         <v>341</v>
       </c>
@@ -7243,7 +7233,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="344" spans="1:6">
+    <row r="344">
       <c r="A344" s="1" t="n">
         <v>342</v>
       </c>
@@ -7263,7 +7253,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="345" spans="1:6">
+    <row r="345">
       <c r="A345" s="1" t="n">
         <v>343</v>
       </c>
@@ -7283,7 +7273,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="346" spans="1:6">
+    <row r="346">
       <c r="A346" s="1" t="n">
         <v>344</v>
       </c>
@@ -7303,7 +7293,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="347" spans="1:6">
+    <row r="347">
       <c r="A347" s="1" t="n">
         <v>345</v>
       </c>
@@ -7323,7 +7313,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="348" spans="1:6">
+    <row r="348">
       <c r="A348" s="1" t="n">
         <v>346</v>
       </c>
@@ -7343,7 +7333,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="349" spans="1:6">
+    <row r="349">
       <c r="A349" s="1" t="n">
         <v>347</v>
       </c>
@@ -7363,7 +7353,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="350" spans="1:6">
+    <row r="350">
       <c r="A350" s="1" t="n">
         <v>348</v>
       </c>
@@ -7383,7 +7373,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="351" spans="1:6">
+    <row r="351">
       <c r="A351" s="1" t="n">
         <v>349</v>
       </c>
@@ -7403,7 +7393,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="352" spans="1:6">
+    <row r="352">
       <c r="A352" s="1" t="n">
         <v>350</v>
       </c>
@@ -7423,7 +7413,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="353" spans="1:6">
+    <row r="353">
       <c r="A353" s="1" t="n">
         <v>351</v>
       </c>
@@ -7443,7 +7433,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="354" spans="1:6">
+    <row r="354">
       <c r="A354" s="1" t="n">
         <v>352</v>
       </c>
@@ -7463,7 +7453,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="355" spans="1:6">
+    <row r="355">
       <c r="A355" s="1" t="n">
         <v>353</v>
       </c>
@@ -7483,7 +7473,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="356" spans="1:6">
+    <row r="356">
       <c r="A356" s="1" t="n">
         <v>354</v>
       </c>
@@ -7503,7 +7493,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="357" spans="1:6">
+    <row r="357">
       <c r="A357" s="1" t="n">
         <v>355</v>
       </c>
@@ -7523,7 +7513,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="358" spans="1:6">
+    <row r="358">
       <c r="A358" s="1" t="n">
         <v>356</v>
       </c>
@@ -7543,7 +7533,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="359" spans="1:6">
+    <row r="359">
       <c r="A359" s="1" t="n">
         <v>357</v>
       </c>
@@ -7563,7 +7553,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="360" spans="1:6">
+    <row r="360">
       <c r="A360" s="1" t="n">
         <v>358</v>
       </c>
@@ -7583,7 +7573,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="361" spans="1:6">
+    <row r="361">
       <c r="A361" s="1" t="n">
         <v>359</v>
       </c>
@@ -7603,7 +7593,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="362" spans="1:6">
+    <row r="362">
       <c r="A362" s="1" t="n">
         <v>360</v>
       </c>
@@ -7623,7 +7613,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="363" spans="1:6">
+    <row r="363">
       <c r="A363" s="1" t="n">
         <v>361</v>
       </c>
@@ -7643,7 +7633,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="364" spans="1:6">
+    <row r="364">
       <c r="A364" s="1" t="n">
         <v>362</v>
       </c>
@@ -7663,7 +7653,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="365" spans="1:6">
+    <row r="365">
       <c r="A365" s="1" t="n">
         <v>363</v>
       </c>
@@ -7683,7 +7673,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="366" spans="1:6">
+    <row r="366">
       <c r="A366" s="1" t="n">
         <v>364</v>
       </c>
@@ -7703,7 +7693,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="367" spans="1:6">
+    <row r="367">
       <c r="A367" s="1" t="n">
         <v>365</v>
       </c>
@@ -7723,7 +7713,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="368" spans="1:6">
+    <row r="368">
       <c r="A368" s="1" t="n">
         <v>366</v>
       </c>
@@ -7743,7 +7733,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="369" spans="1:6">
+    <row r="369">
       <c r="A369" s="1" t="n">
         <v>367</v>
       </c>
@@ -7763,7 +7753,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="370" spans="1:6">
+    <row r="370">
       <c r="A370" s="1" t="n">
         <v>368</v>
       </c>
@@ -7783,7 +7773,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="371" spans="1:6">
+    <row r="371">
       <c r="A371" s="1" t="n">
         <v>369</v>
       </c>
@@ -7803,7 +7793,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="372" spans="1:6">
+    <row r="372">
       <c r="A372" s="1" t="n">
         <v>370</v>
       </c>
@@ -7823,7 +7813,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="373" spans="1:6">
+    <row r="373">
       <c r="A373" s="1" t="n">
         <v>371</v>
       </c>
@@ -7843,7 +7833,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="374" spans="1:6">
+    <row r="374">
       <c r="A374" s="1" t="n">
         <v>372</v>
       </c>
@@ -7863,7 +7853,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="375" spans="1:6">
+    <row r="375">
       <c r="A375" s="1" t="n">
         <v>373</v>
       </c>
@@ -7883,7 +7873,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="376" spans="1:6">
+    <row r="376">
       <c r="A376" s="1" t="n">
         <v>374</v>
       </c>
@@ -7903,7 +7893,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="377" spans="1:6">
+    <row r="377">
       <c r="A377" s="1" t="n">
         <v>375</v>
       </c>
@@ -7923,7 +7913,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="378" spans="1:6">
+    <row r="378">
       <c r="A378" s="1" t="n">
         <v>376</v>
       </c>
@@ -7943,7 +7933,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="379" spans="1:6">
+    <row r="379">
       <c r="A379" s="1" t="n">
         <v>377</v>
       </c>
@@ -7963,7 +7953,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="380" spans="1:6">
+    <row r="380">
       <c r="A380" s="1" t="n">
         <v>378</v>
       </c>
@@ -7983,7 +7973,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="381" spans="1:6">
+    <row r="381">
       <c r="A381" s="1" t="n">
         <v>379</v>
       </c>
@@ -8003,7 +7993,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="382" spans="1:6">
+    <row r="382">
       <c r="A382" s="1" t="n">
         <v>380</v>
       </c>
@@ -8023,7 +8013,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="383" spans="1:6">
+    <row r="383">
       <c r="A383" s="1" t="n">
         <v>381</v>
       </c>
@@ -8043,7 +8033,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="384" spans="1:6">
+    <row r="384">
       <c r="A384" s="1" t="n">
         <v>382</v>
       </c>
@@ -8063,7 +8053,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="385" spans="1:6">
+    <row r="385">
       <c r="A385" s="1" t="n">
         <v>383</v>
       </c>
@@ -8083,7 +8073,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="386" spans="1:6">
+    <row r="386">
       <c r="A386" s="1" t="n">
         <v>384</v>
       </c>
@@ -8103,7 +8093,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="387" spans="1:6">
+    <row r="387">
       <c r="A387" s="1" t="n">
         <v>385</v>
       </c>
@@ -8123,7 +8113,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="388" spans="1:6">
+    <row r="388">
       <c r="A388" s="1" t="n">
         <v>386</v>
       </c>
@@ -8143,7 +8133,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="389" spans="1:6">
+    <row r="389">
       <c r="A389" s="1" t="n">
         <v>387</v>
       </c>
@@ -8163,7 +8153,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="390" spans="1:6">
+    <row r="390">
       <c r="A390" s="1" t="n">
         <v>388</v>
       </c>
@@ -8183,7 +8173,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="391" spans="1:6">
+    <row r="391">
       <c r="A391" s="1" t="n">
         <v>389</v>
       </c>
@@ -8203,7 +8193,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="392" spans="1:6">
+    <row r="392">
       <c r="A392" s="1" t="n">
         <v>390</v>
       </c>
@@ -8223,7 +8213,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="393" spans="1:6">
+    <row r="393">
       <c r="A393" s="1" t="n">
         <v>391</v>
       </c>
@@ -8243,7 +8233,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="394" spans="1:6">
+    <row r="394">
       <c r="A394" s="1" t="n">
         <v>392</v>
       </c>
@@ -8263,7 +8253,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="395" spans="1:6">
+    <row r="395">
       <c r="A395" s="1" t="n">
         <v>393</v>
       </c>
@@ -8283,7 +8273,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="396" spans="1:6">
+    <row r="396">
       <c r="A396" s="1" t="n">
         <v>394</v>
       </c>
@@ -8303,7 +8293,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="397" spans="1:6">
+    <row r="397">
       <c r="A397" s="1" t="n">
         <v>395</v>
       </c>
@@ -8323,7 +8313,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="398" spans="1:6">
+    <row r="398">
       <c r="A398" s="1" t="n">
         <v>396</v>
       </c>
@@ -8343,7 +8333,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="399" spans="1:6">
+    <row r="399">
       <c r="A399" s="1" t="n">
         <v>397</v>
       </c>
@@ -8363,7 +8353,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="400" spans="1:6">
+    <row r="400">
       <c r="A400" s="1" t="n">
         <v>398</v>
       </c>
@@ -8383,7 +8373,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="401" spans="1:6">
+    <row r="401">
       <c r="A401" s="1" t="n">
         <v>399</v>
       </c>
@@ -8403,7 +8393,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="402" spans="1:6">
+    <row r="402">
       <c r="A402" s="1" t="n">
         <v>400</v>
       </c>
@@ -8423,7 +8413,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="403" spans="1:6">
+    <row r="403">
       <c r="A403" s="1" t="n">
         <v>401</v>
       </c>
@@ -8443,7 +8433,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="404" spans="1:6">
+    <row r="404">
       <c r="A404" s="1" t="n">
         <v>402</v>
       </c>
@@ -8463,7 +8453,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="405" spans="1:6">
+    <row r="405">
       <c r="A405" s="1" t="n">
         <v>403</v>
       </c>
@@ -8483,7 +8473,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="406" spans="1:6">
+    <row r="406">
       <c r="A406" s="1" t="n">
         <v>404</v>
       </c>
@@ -8503,7 +8493,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="407" spans="1:6">
+    <row r="407">
       <c r="A407" s="1" t="n">
         <v>405</v>
       </c>
@@ -8523,7 +8513,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="408" spans="1:6">
+    <row r="408">
       <c r="A408" s="1" t="n">
         <v>406</v>
       </c>
@@ -8543,7 +8533,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="409" spans="1:6">
+    <row r="409">
       <c r="A409" s="1" t="n">
         <v>407</v>
       </c>
@@ -8563,7 +8553,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="410" spans="1:6">
+    <row r="410">
       <c r="A410" s="1" t="n">
         <v>408</v>
       </c>
@@ -8583,7 +8573,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="411" spans="1:6">
+    <row r="411">
       <c r="A411" s="1" t="n">
         <v>409</v>
       </c>
@@ -8603,7 +8593,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="412" spans="1:6">
+    <row r="412">
       <c r="A412" s="1" t="n">
         <v>410</v>
       </c>
@@ -8623,7 +8613,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="413" spans="1:6">
+    <row r="413">
       <c r="A413" s="1" t="n">
         <v>411</v>
       </c>
@@ -8643,7 +8633,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="414" spans="1:6">
+    <row r="414">
       <c r="A414" s="1" t="n">
         <v>412</v>
       </c>
@@ -8663,7 +8653,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="415" spans="1:6">
+    <row r="415">
       <c r="A415" s="1" t="n">
         <v>413</v>
       </c>
@@ -8683,7 +8673,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="416" spans="1:6">
+    <row r="416">
       <c r="A416" s="1" t="n">
         <v>414</v>
       </c>
@@ -8703,7 +8693,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="417" spans="1:6">
+    <row r="417">
       <c r="A417" s="1" t="n">
         <v>415</v>
       </c>
@@ -8723,7 +8713,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="418" spans="1:6">
+    <row r="418">
       <c r="A418" s="1" t="n">
         <v>416</v>
       </c>
@@ -8743,7 +8733,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="419" spans="1:6">
+    <row r="419">
       <c r="A419" s="1" t="n">
         <v>417</v>
       </c>
@@ -8763,7 +8753,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="420" spans="1:6">
+    <row r="420">
       <c r="A420" s="1" t="n">
         <v>418</v>
       </c>
@@ -8783,7 +8773,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="421" spans="1:6">
+    <row r="421">
       <c r="A421" s="1" t="n">
         <v>419</v>
       </c>
@@ -8803,7 +8793,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="422" spans="1:6">
+    <row r="422">
       <c r="A422" s="1" t="n">
         <v>420</v>
       </c>
@@ -8823,7 +8813,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="423" spans="1:6">
+    <row r="423">
       <c r="A423" s="1" t="n">
         <v>421</v>
       </c>
@@ -8843,7 +8833,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="424" spans="1:6">
+    <row r="424">
       <c r="A424" s="1" t="n">
         <v>422</v>
       </c>
@@ -8863,7 +8853,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="425" spans="1:6">
+    <row r="425">
       <c r="A425" s="1" t="n">
         <v>423</v>
       </c>
@@ -8883,7 +8873,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="426" spans="1:6">
+    <row r="426">
       <c r="A426" s="1" t="n">
         <v>424</v>
       </c>
@@ -8903,7 +8893,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="427" spans="1:6">
+    <row r="427">
       <c r="A427" s="1" t="n">
         <v>425</v>
       </c>
@@ -8923,7 +8913,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="428" spans="1:6">
+    <row r="428">
       <c r="A428" s="1" t="n">
         <v>426</v>
       </c>
@@ -8943,7 +8933,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="429" spans="1:6">
+    <row r="429">
       <c r="A429" s="1" t="n">
         <v>427</v>
       </c>
@@ -8963,7 +8953,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="430" spans="1:6">
+    <row r="430">
       <c r="A430" s="1" t="n">
         <v>428</v>
       </c>
@@ -8983,7 +8973,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="431" spans="1:6">
+    <row r="431">
       <c r="A431" s="1" t="n">
         <v>429</v>
       </c>
@@ -9003,7 +8993,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="432" spans="1:6">
+    <row r="432">
       <c r="A432" s="1" t="n">
         <v>430</v>
       </c>
@@ -9023,7 +9013,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="433" spans="1:6">
+    <row r="433">
       <c r="A433" s="1" t="n">
         <v>431</v>
       </c>
@@ -9043,7 +9033,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="434" spans="1:6">
+    <row r="434">
       <c r="A434" s="1" t="n">
         <v>432</v>
       </c>
@@ -9063,7 +9053,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="435" spans="1:6">
+    <row r="435">
       <c r="A435" s="1" t="n">
         <v>433</v>
       </c>
@@ -9083,7 +9073,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="436" spans="1:6">
+    <row r="436">
       <c r="A436" s="1" t="n">
         <v>434</v>
       </c>
@@ -9103,7 +9093,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="437" spans="1:6">
+    <row r="437">
       <c r="A437" s="1" t="n">
         <v>435</v>
       </c>
@@ -9123,7 +9113,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="438" spans="1:6">
+    <row r="438">
       <c r="A438" s="1" t="n">
         <v>436</v>
       </c>
@@ -9143,7 +9133,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="439" spans="1:6">
+    <row r="439">
       <c r="A439" s="1" t="n">
         <v>437</v>
       </c>
@@ -9163,7 +9153,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="440" spans="1:6">
+    <row r="440">
       <c r="A440" s="1" t="n">
         <v>438</v>
       </c>
@@ -9183,7 +9173,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="441" spans="1:6">
+    <row r="441">
       <c r="A441" s="1" t="n">
         <v>439</v>
       </c>
@@ -9203,7 +9193,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="442" spans="1:6">
+    <row r="442">
       <c r="A442" s="1" t="n">
         <v>440</v>
       </c>
@@ -9223,7 +9213,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="443" spans="1:6">
+    <row r="443">
       <c r="A443" s="1" t="n">
         <v>441</v>
       </c>
@@ -9243,7 +9233,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="444" spans="1:6">
+    <row r="444">
       <c r="A444" s="1" t="n">
         <v>442</v>
       </c>
@@ -9263,7 +9253,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="445" spans="1:6">
+    <row r="445">
       <c r="A445" s="1" t="n">
         <v>443</v>
       </c>
@@ -9283,7 +9273,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="446" spans="1:6">
+    <row r="446">
       <c r="A446" s="1" t="n">
         <v>444</v>
       </c>
@@ -9303,7 +9293,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="447" spans="1:6">
+    <row r="447">
       <c r="A447" s="1" t="n">
         <v>445</v>
       </c>
@@ -9323,7 +9313,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="448" spans="1:6">
+    <row r="448">
       <c r="A448" s="1" t="n">
         <v>446</v>
       </c>
@@ -9343,7 +9333,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="449" spans="1:6">
+    <row r="449">
       <c r="A449" s="1" t="n">
         <v>447</v>
       </c>
@@ -9363,7 +9353,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="450" spans="1:6">
+    <row r="450">
       <c r="A450" s="1" t="n">
         <v>448</v>
       </c>
@@ -9383,7 +9373,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="451" spans="1:6">
+    <row r="451">
       <c r="A451" s="1" t="n">
         <v>449</v>
       </c>
@@ -9403,7 +9393,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="452" spans="1:6">
+    <row r="452">
       <c r="A452" s="1" t="n">
         <v>450</v>
       </c>
@@ -9423,7 +9413,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="453" spans="1:6">
+    <row r="453">
       <c r="A453" s="1" t="n">
         <v>451</v>
       </c>
@@ -9443,7 +9433,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="454" spans="1:6">
+    <row r="454">
       <c r="A454" s="1" t="n">
         <v>452</v>
       </c>
@@ -9463,7 +9453,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="455" spans="1:6">
+    <row r="455">
       <c r="A455" s="1" t="n">
         <v>453</v>
       </c>
@@ -9483,7 +9473,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="456" spans="1:6">
+    <row r="456">
       <c r="A456" s="1" t="n">
         <v>454</v>
       </c>
@@ -9503,7 +9493,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="457" spans="1:6">
+    <row r="457">
       <c r="A457" s="1" t="n">
         <v>455</v>
       </c>
@@ -9523,7 +9513,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="458" spans="1:6">
+    <row r="458">
       <c r="A458" s="1" t="n">
         <v>456</v>
       </c>
@@ -9543,7 +9533,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="459" spans="1:6">
+    <row r="459">
       <c r="A459" s="1" t="n">
         <v>457</v>
       </c>
@@ -9563,7 +9553,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="460" spans="1:6">
+    <row r="460">
       <c r="A460" s="1" t="n">
         <v>458</v>
       </c>
@@ -9583,7 +9573,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="461" spans="1:6">
+    <row r="461">
       <c r="A461" s="1" t="n">
         <v>459</v>
       </c>
@@ -9603,7 +9593,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="462" spans="1:6">
+    <row r="462">
       <c r="A462" s="1" t="n">
         <v>460</v>
       </c>
@@ -9623,7 +9613,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="463" spans="1:6">
+    <row r="463">
       <c r="A463" s="1" t="n">
         <v>461</v>
       </c>
@@ -9643,7 +9633,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="464" spans="1:6">
+    <row r="464">
       <c r="A464" s="1" t="n">
         <v>462</v>
       </c>
@@ -9663,7 +9653,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="465" spans="1:6">
+    <row r="465">
       <c r="A465" s="1" t="n">
         <v>463</v>
       </c>
@@ -9683,7 +9673,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="466" spans="1:6">
+    <row r="466">
       <c r="A466" s="1" t="n">
         <v>464</v>
       </c>
@@ -9703,7 +9693,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="467" spans="1:6">
+    <row r="467">
       <c r="A467" s="1" t="n">
         <v>465</v>
       </c>
@@ -9723,7 +9713,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="468" spans="1:6">
+    <row r="468">
       <c r="A468" s="1" t="n">
         <v>466</v>
       </c>
@@ -9743,7 +9733,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="469" spans="1:6">
+    <row r="469">
       <c r="A469" s="1" t="n">
         <v>467</v>
       </c>
@@ -9763,7 +9753,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="470" spans="1:6">
+    <row r="470">
       <c r="A470" s="1" t="n">
         <v>468</v>
       </c>
@@ -9783,7 +9773,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="471" spans="1:6">
+    <row r="471">
       <c r="A471" s="1" t="n">
         <v>469</v>
       </c>
@@ -9803,7 +9793,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="472" spans="1:6">
+    <row r="472">
       <c r="A472" s="1" t="n">
         <v>470</v>
       </c>
@@ -9823,7 +9813,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="473" spans="1:6">
+    <row r="473">
       <c r="A473" s="1" t="n">
         <v>471</v>
       </c>
@@ -9843,7 +9833,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="474" spans="1:6">
+    <row r="474">
       <c r="A474" s="1" t="n">
         <v>472</v>
       </c>
@@ -9863,7 +9853,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="475" spans="1:6">
+    <row r="475">
       <c r="A475" s="1" t="n">
         <v>473</v>
       </c>
@@ -9883,7 +9873,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="476" spans="1:6">
+    <row r="476">
       <c r="A476" s="1" t="n">
         <v>474</v>
       </c>
@@ -9903,7 +9893,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="477" spans="1:6">
+    <row r="477">
       <c r="A477" s="1" t="n">
         <v>475</v>
       </c>
@@ -9923,7 +9913,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="478" spans="1:6">
+    <row r="478">
       <c r="A478" s="1" t="n">
         <v>476</v>
       </c>
@@ -9943,7 +9933,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="479" spans="1:6">
+    <row r="479">
       <c r="A479" s="1" t="n">
         <v>477</v>
       </c>
@@ -9963,7 +9953,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="480" spans="1:6">
+    <row r="480">
       <c r="A480" s="1" t="n">
         <v>478</v>
       </c>
@@ -9983,7 +9973,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="481" spans="1:6">
+    <row r="481">
       <c r="A481" s="1" t="n">
         <v>479</v>
       </c>
@@ -10003,7 +9993,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="482" spans="1:6">
+    <row r="482">
       <c r="A482" s="1" t="n">
         <v>480</v>
       </c>
@@ -10023,7 +10013,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="483" spans="1:6">
+    <row r="483">
       <c r="A483" s="1" t="n">
         <v>481</v>
       </c>
@@ -10043,7 +10033,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="484" spans="1:6">
+    <row r="484">
       <c r="A484" s="1" t="n">
         <v>482</v>
       </c>
@@ -10063,7 +10053,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="485" spans="1:6">
+    <row r="485">
       <c r="A485" s="1" t="n">
         <v>483</v>
       </c>
@@ -10083,7 +10073,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="486" spans="1:6">
+    <row r="486">
       <c r="A486" s="1" t="n">
         <v>484</v>
       </c>
@@ -10103,7 +10093,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="487" spans="1:6">
+    <row r="487">
       <c r="A487" s="1" t="n">
         <v>485</v>
       </c>
@@ -10123,7 +10113,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="488" spans="1:6">
+    <row r="488">
       <c r="A488" s="1" t="n">
         <v>486</v>
       </c>
@@ -10143,7 +10133,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="489" spans="1:6">
+    <row r="489">
       <c r="A489" s="1" t="n">
         <v>487</v>
       </c>
@@ -10163,7 +10153,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="490" spans="1:6">
+    <row r="490">
       <c r="A490" s="1" t="n">
         <v>488</v>
       </c>
@@ -10183,7 +10173,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="491" spans="1:6">
+    <row r="491">
       <c r="A491" s="1" t="n">
         <v>489</v>
       </c>
@@ -10203,7 +10193,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="492" spans="1:6">
+    <row r="492">
       <c r="A492" s="1" t="n">
         <v>490</v>
       </c>
@@ -10223,7 +10213,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="493" spans="1:6">
+    <row r="493">
       <c r="A493" s="1" t="n">
         <v>491</v>
       </c>
@@ -10243,7 +10233,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="494" spans="1:6">
+    <row r="494">
       <c r="A494" s="1" t="n">
         <v>492</v>
       </c>
@@ -10263,7 +10253,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="495" spans="1:6">
+    <row r="495">
       <c r="A495" s="1" t="n">
         <v>493</v>
       </c>
@@ -10283,7 +10273,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="496" spans="1:6">
+    <row r="496">
       <c r="A496" s="1" t="n">
         <v>494</v>
       </c>
@@ -10303,7 +10293,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="497" spans="1:6">
+    <row r="497">
       <c r="A497" s="1" t="n">
         <v>495</v>
       </c>
@@ -10323,7 +10313,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="498" spans="1:6">
+    <row r="498">
       <c r="A498" s="1" t="n">
         <v>496</v>
       </c>
@@ -10343,7 +10333,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="499" spans="1:6">
+    <row r="499">
       <c r="A499" s="1" t="n">
         <v>497</v>
       </c>
@@ -10363,7 +10353,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="500" spans="1:6">
+    <row r="500">
       <c r="A500" s="1" t="n">
         <v>498</v>
       </c>
@@ -10383,7 +10373,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="501" spans="1:6">
+    <row r="501">
       <c r="A501" s="1" t="n">
         <v>499</v>
       </c>
@@ -10403,7 +10393,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="502" spans="1:6">
+    <row r="502">
       <c r="A502" s="1" t="n">
         <v>500</v>
       </c>
@@ -10423,7 +10413,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="503" spans="1:6">
+    <row r="503">
       <c r="A503" s="1" t="n">
         <v>501</v>
       </c>
@@ -10443,7 +10433,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="504" spans="1:6">
+    <row r="504">
       <c r="A504" s="1" t="n">
         <v>502</v>
       </c>
@@ -10463,7 +10453,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="505" spans="1:6">
+    <row r="505">
       <c r="A505" s="1" t="n">
         <v>503</v>
       </c>
@@ -10483,7 +10473,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="506" spans="1:6">
+    <row r="506">
       <c r="A506" s="1" t="n">
         <v>504</v>
       </c>
@@ -10503,7 +10493,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="507" spans="1:6">
+    <row r="507">
       <c r="A507" s="1" t="n">
         <v>505</v>
       </c>
@@ -10523,7 +10513,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="508" spans="1:6">
+    <row r="508">
       <c r="A508" s="1" t="n">
         <v>506</v>
       </c>
@@ -10543,7 +10533,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="509" spans="1:6">
+    <row r="509">
       <c r="A509" s="1" t="n">
         <v>507</v>
       </c>
@@ -10563,7 +10553,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="510" spans="1:6">
+    <row r="510">
       <c r="A510" s="1" t="n">
         <v>508</v>
       </c>
@@ -10583,7 +10573,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="511" spans="1:6">
+    <row r="511">
       <c r="A511" s="1" t="n">
         <v>509</v>
       </c>
@@ -10603,7 +10593,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="512" spans="1:6">
+    <row r="512">
       <c r="A512" s="1" t="n">
         <v>510</v>
       </c>
@@ -10623,7 +10613,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="513" spans="1:6">
+    <row r="513">
       <c r="A513" s="1" t="n">
         <v>511</v>
       </c>
@@ -10643,7 +10633,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="514" spans="1:6">
+    <row r="514">
       <c r="A514" s="1" t="n">
         <v>512</v>
       </c>
@@ -10663,7 +10653,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="515" spans="1:6">
+    <row r="515">
       <c r="A515" s="1" t="n">
         <v>513</v>
       </c>
@@ -10683,7 +10673,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="516" spans="1:6">
+    <row r="516">
       <c r="A516" s="1" t="n">
         <v>514</v>
       </c>
@@ -10703,7 +10693,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="517" spans="1:6">
+    <row r="517">
       <c r="A517" s="1" t="n">
         <v>515</v>
       </c>
@@ -10723,7 +10713,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="518" spans="1:6">
+    <row r="518">
       <c r="A518" s="1" t="n">
         <v>516</v>
       </c>
@@ -10743,7 +10733,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="519" spans="1:6">
+    <row r="519">
       <c r="A519" s="1" t="n">
         <v>517</v>
       </c>
@@ -10763,7 +10753,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="520" spans="1:6">
+    <row r="520">
       <c r="A520" s="1" t="n">
         <v>518</v>
       </c>
@@ -10783,7 +10773,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="521" spans="1:6">
+    <row r="521">
       <c r="A521" s="1" t="n">
         <v>519</v>
       </c>
@@ -10803,7 +10793,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="522" spans="1:6">
+    <row r="522">
       <c r="A522" s="1" t="n">
         <v>520</v>
       </c>
@@ -10823,7 +10813,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="523" spans="1:6">
+    <row r="523">
       <c r="A523" s="1" t="n">
         <v>521</v>
       </c>
@@ -10843,7 +10833,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="524" spans="1:6">
+    <row r="524">
       <c r="A524" s="1" t="n">
         <v>522</v>
       </c>
@@ -10863,7 +10853,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="525" spans="1:6">
+    <row r="525">
       <c r="A525" s="1" t="n">
         <v>523</v>
       </c>
@@ -10883,7 +10873,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="526" spans="1:6">
+    <row r="526">
       <c r="A526" s="1" t="n">
         <v>524</v>
       </c>
@@ -10903,7 +10893,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="527" spans="1:6">
+    <row r="527">
       <c r="A527" s="1" t="n">
         <v>525</v>
       </c>
@@ -10923,7 +10913,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="528" spans="1:6">
+    <row r="528">
       <c r="A528" s="1" t="n">
         <v>526</v>
       </c>
@@ -10943,7 +10933,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="529" spans="1:6">
+    <row r="529">
       <c r="A529" s="1" t="n">
         <v>527</v>
       </c>
@@ -10963,7 +10953,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="530" spans="1:6">
+    <row r="530">
       <c r="A530" s="1" t="n">
         <v>528</v>
       </c>
@@ -10983,7 +10973,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="531" spans="1:6">
+    <row r="531">
       <c r="A531" s="1" t="n">
         <v>529</v>
       </c>
@@ -11003,7 +10993,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="532" spans="1:6">
+    <row r="532">
       <c r="A532" s="1" t="n">
         <v>530</v>
       </c>
@@ -11023,7 +11013,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="533" spans="1:6">
+    <row r="533">
       <c r="A533" s="1" t="n">
         <v>531</v>
       </c>
@@ -11043,7 +11033,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="534" spans="1:6">
+    <row r="534">
       <c r="A534" s="1" t="n">
         <v>532</v>
       </c>
@@ -11063,7 +11053,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="535" spans="1:6">
+    <row r="535">
       <c r="A535" s="1" t="n">
         <v>533</v>
       </c>
@@ -11083,7 +11073,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="536" spans="1:6">
+    <row r="536">
       <c r="A536" s="1" t="n">
         <v>534</v>
       </c>
@@ -11103,7 +11093,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="537" spans="1:6">
+    <row r="537">
       <c r="A537" s="1" t="n">
         <v>535</v>
       </c>
@@ -11123,7 +11113,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="538" spans="1:6">
+    <row r="538">
       <c r="A538" s="1" t="n">
         <v>536</v>
       </c>
@@ -11143,7 +11133,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="539" spans="1:6">
+    <row r="539">
       <c r="A539" s="1" t="n">
         <v>537</v>
       </c>
@@ -11163,7 +11153,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="540" spans="1:6">
+    <row r="540">
       <c r="A540" s="1" t="n">
         <v>538</v>
       </c>
@@ -11183,7 +11173,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="541" spans="1:6">
+    <row r="541">
       <c r="A541" s="1" t="n">
         <v>539</v>
       </c>
@@ -11203,7 +11193,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="542" spans="1:6">
+    <row r="542">
       <c r="A542" s="1" t="n">
         <v>540</v>
       </c>
@@ -11223,7 +11213,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="543" spans="1:6">
+    <row r="543">
       <c r="A543" s="1" t="n">
         <v>541</v>
       </c>
@@ -11243,7 +11233,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="544" spans="1:6">
+    <row r="544">
       <c r="A544" s="1" t="n">
         <v>542</v>
       </c>
@@ -11263,7 +11253,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="545" spans="1:6">
+    <row r="545">
       <c r="A545" s="1" t="n">
         <v>543</v>
       </c>
@@ -11283,7 +11273,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="546" spans="1:6">
+    <row r="546">
       <c r="A546" s="1" t="n">
         <v>544</v>
       </c>
@@ -11303,7 +11293,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="547" spans="1:6">
+    <row r="547">
       <c r="A547" s="1" t="n">
         <v>545</v>
       </c>
@@ -11323,7 +11313,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="548" spans="1:6">
+    <row r="548">
       <c r="A548" s="1" t="n">
         <v>546</v>
       </c>
@@ -11343,7 +11333,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="549" spans="1:6">
+    <row r="549">
       <c r="A549" s="1" t="n">
         <v>547</v>
       </c>
@@ -11363,7 +11353,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="550" spans="1:6">
+    <row r="550">
       <c r="A550" s="1" t="n">
         <v>548</v>
       </c>
@@ -11383,7 +11373,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="551" spans="1:6">
+    <row r="551">
       <c r="A551" s="1" t="n">
         <v>549</v>
       </c>
@@ -11403,7 +11393,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="552" spans="1:6">
+    <row r="552">
       <c r="A552" s="1" t="n">
         <v>550</v>
       </c>
@@ -11423,7 +11413,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="553" spans="1:6">
+    <row r="553">
       <c r="A553" s="1" t="n">
         <v>551</v>
       </c>
@@ -11443,7 +11433,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="554" spans="1:6">
+    <row r="554">
       <c r="A554" s="1" t="n">
         <v>552</v>
       </c>
@@ -11463,7 +11453,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="555" spans="1:6">
+    <row r="555">
       <c r="A555" s="1" t="n">
         <v>553</v>
       </c>
@@ -11483,7 +11473,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="556" spans="1:6">
+    <row r="556">
       <c r="A556" s="1" t="n">
         <v>554</v>
       </c>
@@ -11503,7 +11493,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="557" spans="1:6">
+    <row r="557">
       <c r="A557" s="1" t="n">
         <v>555</v>
       </c>
@@ -11523,7 +11513,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="558" spans="1:6">
+    <row r="558">
       <c r="A558" s="1" t="n">
         <v>556</v>
       </c>
@@ -11543,7 +11533,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="559" spans="1:6">
+    <row r="559">
       <c r="A559" s="1" t="n">
         <v>557</v>
       </c>
@@ -11563,7 +11553,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="560" spans="1:6">
+    <row r="560">
       <c r="A560" s="1" t="n">
         <v>558</v>
       </c>
@@ -11583,7 +11573,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="561" spans="1:6">
+    <row r="561">
       <c r="A561" s="1" t="n">
         <v>559</v>
       </c>
@@ -11603,7 +11593,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="562" spans="1:6">
+    <row r="562">
       <c r="A562" s="1" t="n">
         <v>560</v>
       </c>
@@ -11623,7 +11613,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="563" spans="1:6">
+    <row r="563">
       <c r="A563" s="1" t="n">
         <v>561</v>
       </c>
@@ -11643,7 +11633,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="564" spans="1:6">
+    <row r="564">
       <c r="A564" s="1" t="n">
         <v>562</v>
       </c>
@@ -11663,7 +11653,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="565" spans="1:6">
+    <row r="565">
       <c r="A565" s="1" t="n">
         <v>563</v>
       </c>
@@ -11683,7 +11673,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="566" spans="1:6">
+    <row r="566">
       <c r="A566" s="1" t="n">
         <v>564</v>
       </c>
@@ -11703,7 +11693,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="567" spans="1:6">
+    <row r="567">
       <c r="A567" s="1" t="n">
         <v>565</v>
       </c>
@@ -11723,7 +11713,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="568" spans="1:6">
+    <row r="568">
       <c r="A568" s="1" t="n">
         <v>566</v>
       </c>
@@ -11743,7 +11733,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="569" spans="1:6">
+    <row r="569">
       <c r="A569" s="1" t="n">
         <v>567</v>
       </c>
@@ -11763,7 +11753,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="570" spans="1:6">
+    <row r="570">
       <c r="A570" s="1" t="n">
         <v>568</v>
       </c>
@@ -11783,7 +11773,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="571" spans="1:6">
+    <row r="571">
       <c r="A571" s="1" t="n">
         <v>569</v>
       </c>
@@ -11803,7 +11793,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="572" spans="1:6">
+    <row r="572">
       <c r="A572" s="1" t="n">
         <v>570</v>
       </c>
@@ -11823,7 +11813,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="573" spans="1:6">
+    <row r="573">
       <c r="A573" s="1" t="n">
         <v>571</v>
       </c>
@@ -11843,7 +11833,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="574" spans="1:6">
+    <row r="574">
       <c r="A574" s="1" t="n">
         <v>572</v>
       </c>
@@ -11863,7 +11853,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="575" spans="1:6">
+    <row r="575">
       <c r="A575" s="1" t="n">
         <v>573</v>
       </c>
@@ -11883,7 +11873,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="576" spans="1:6">
+    <row r="576">
       <c r="A576" s="1" t="n">
         <v>574</v>
       </c>
@@ -11903,7 +11893,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="577" spans="1:6">
+    <row r="577">
       <c r="A577" s="1" t="n">
         <v>575</v>
       </c>
@@ -11923,7 +11913,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="578" spans="1:6">
+    <row r="578">
       <c r="A578" s="1" t="n">
         <v>576</v>
       </c>
@@ -11943,7 +11933,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="579" spans="1:6">
+    <row r="579">
       <c r="A579" s="1" t="n">
         <v>577</v>
       </c>
@@ -11963,7 +11953,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="580" spans="1:6">
+    <row r="580">
       <c r="A580" s="1" t="n">
         <v>578</v>
       </c>
@@ -11983,7 +11973,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="581" spans="1:6">
+    <row r="581">
       <c r="A581" s="1" t="n">
         <v>579</v>
       </c>
@@ -12003,7 +11993,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="582" spans="1:6">
+    <row r="582">
       <c r="A582" s="1" t="n">
         <v>580</v>
       </c>
@@ -12023,7 +12013,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="583" spans="1:6">
+    <row r="583">
       <c r="A583" s="1" t="n">
         <v>581</v>
       </c>
@@ -12043,7 +12033,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="584" spans="1:6">
+    <row r="584">
       <c r="A584" s="1" t="n">
         <v>582</v>
       </c>
@@ -12063,7 +12053,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="585" spans="1:6">
+    <row r="585">
       <c r="A585" s="1" t="n">
         <v>583</v>
       </c>
@@ -12083,7 +12073,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="586" spans="1:6">
+    <row r="586">
       <c r="A586" s="1" t="n">
         <v>584</v>
       </c>
@@ -12103,7 +12093,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="587" spans="1:6">
+    <row r="587">
       <c r="A587" s="1" t="n">
         <v>585</v>
       </c>
@@ -12123,7 +12113,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="588" spans="1:6">
+    <row r="588">
       <c r="A588" s="1" t="n">
         <v>586</v>
       </c>
@@ -12143,7 +12133,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="589" spans="1:6">
+    <row r="589">
       <c r="A589" s="1" t="n">
         <v>587</v>
       </c>
@@ -12163,7 +12153,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="590" spans="1:6">
+    <row r="590">
       <c r="A590" s="1" t="n">
         <v>588</v>
       </c>
@@ -12183,7 +12173,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="591" spans="1:6">
+    <row r="591">
       <c r="A591" s="1" t="n">
         <v>589</v>
       </c>
@@ -12203,7 +12193,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="592" spans="1:6">
+    <row r="592">
       <c r="A592" s="1" t="n">
         <v>590</v>
       </c>
@@ -12223,7 +12213,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="593" spans="1:6">
+    <row r="593">
       <c r="A593" s="1" t="n">
         <v>591</v>
       </c>
@@ -12243,7 +12233,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="594" spans="1:6">
+    <row r="594">
       <c r="A594" s="1" t="n">
         <v>592</v>
       </c>
@@ -12263,7 +12253,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="595" spans="1:6">
+    <row r="595">
       <c r="A595" s="1" t="n">
         <v>593</v>
       </c>
@@ -12283,7 +12273,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="596" spans="1:6">
+    <row r="596">
       <c r="A596" s="1" t="n">
         <v>594</v>
       </c>
@@ -12303,7 +12293,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="597" spans="1:6">
+    <row r="597">
       <c r="A597" s="1" t="n">
         <v>595</v>
       </c>
@@ -12323,7 +12313,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="598" spans="1:6">
+    <row r="598">
       <c r="A598" s="1" t="n">
         <v>596</v>
       </c>
@@ -12343,7 +12333,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="599" spans="1:6">
+    <row r="599">
       <c r="A599" s="1" t="n">
         <v>597</v>
       </c>
@@ -12363,7 +12353,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="600" spans="1:6">
+    <row r="600">
       <c r="A600" s="1" t="n">
         <v>598</v>
       </c>
@@ -12383,7 +12373,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="601" spans="1:6">
+    <row r="601">
       <c r="A601" s="1" t="n">
         <v>599</v>
       </c>
@@ -12403,7 +12393,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="602" spans="1:6">
+    <row r="602">
       <c r="A602" s="1" t="n">
         <v>600</v>
       </c>
@@ -12423,7 +12413,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="603" spans="1:6">
+    <row r="603">
       <c r="A603" s="1" t="n">
         <v>601</v>
       </c>
@@ -12443,7 +12433,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="604" spans="1:6">
+    <row r="604">
       <c r="A604" s="1" t="n">
         <v>602</v>
       </c>
@@ -12463,7 +12453,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="605" spans="1:6">
+    <row r="605">
       <c r="A605" s="1" t="n">
         <v>603</v>
       </c>
@@ -12483,7 +12473,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="606" spans="1:6">
+    <row r="606">
       <c r="A606" s="1" t="n">
         <v>604</v>
       </c>
@@ -12503,7 +12493,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="607" spans="1:6">
+    <row r="607">
       <c r="A607" s="1" t="n">
         <v>605</v>
       </c>
@@ -12523,7 +12513,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="608" spans="1:6">
+    <row r="608">
       <c r="A608" s="1" t="n">
         <v>606</v>
       </c>
@@ -12543,7 +12533,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="609" spans="1:6">
+    <row r="609">
       <c r="A609" s="1" t="n">
         <v>607</v>
       </c>
@@ -12563,7 +12553,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="610" spans="1:6">
+    <row r="610">
       <c r="A610" s="1" t="n">
         <v>608</v>
       </c>
@@ -12583,7 +12573,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="611" spans="1:6">
+    <row r="611">
       <c r="A611" s="1" t="n">
         <v>609</v>
       </c>
@@ -12603,7 +12593,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="612" spans="1:6">
+    <row r="612">
       <c r="A612" s="1" t="n">
         <v>610</v>
       </c>
@@ -12623,7 +12613,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="613" spans="1:6">
+    <row r="613">
       <c r="A613" s="1" t="n">
         <v>611</v>
       </c>
@@ -12643,7 +12633,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="614" spans="1:6">
+    <row r="614">
       <c r="A614" s="1" t="n">
         <v>612</v>
       </c>
@@ -12663,7 +12653,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="615" spans="1:6">
+    <row r="615">
       <c r="A615" s="1" t="n">
         <v>613</v>
       </c>
@@ -12683,7 +12673,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="616" spans="1:6">
+    <row r="616">
       <c r="A616" s="1" t="n">
         <v>614</v>
       </c>
@@ -12703,7 +12693,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="617" spans="1:6">
+    <row r="617">
       <c r="A617" s="1" t="n">
         <v>615</v>
       </c>
@@ -12723,7 +12713,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="618" spans="1:6">
+    <row r="618">
       <c r="A618" s="1" t="n">
         <v>616</v>
       </c>
@@ -12743,7 +12733,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="619" spans="1:6">
+    <row r="619">
       <c r="A619" s="1" t="n">
         <v>617</v>
       </c>
@@ -12763,7 +12753,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="620" spans="1:6">
+    <row r="620">
       <c r="A620" s="1" t="n">
         <v>618</v>
       </c>
@@ -12783,7 +12773,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="621" spans="1:6">
+    <row r="621">
       <c r="A621" s="1" t="n">
         <v>619</v>
       </c>
@@ -12803,7 +12793,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="622" spans="1:6">
+    <row r="622">
       <c r="A622" s="1" t="n">
         <v>620</v>
       </c>
@@ -12823,7 +12813,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="623" spans="1:6">
+    <row r="623">
       <c r="A623" s="1" t="n">
         <v>621</v>
       </c>
@@ -12843,7 +12833,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="624" spans="1:6">
+    <row r="624">
       <c r="A624" s="1" t="n">
         <v>622</v>
       </c>
@@ -12863,7 +12853,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="625" spans="1:6">
+    <row r="625">
       <c r="A625" s="1" t="n">
         <v>623</v>
       </c>
@@ -12883,7 +12873,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="626" spans="1:6">
+    <row r="626">
       <c r="A626" s="1" t="n">
         <v>624</v>
       </c>
@@ -12903,7 +12893,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="627" spans="1:6">
+    <row r="627">
       <c r="A627" s="1" t="n">
         <v>625</v>
       </c>
@@ -12923,7 +12913,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="628" spans="1:6">
+    <row r="628">
       <c r="A628" s="1" t="n">
         <v>626</v>
       </c>
@@ -12943,7 +12933,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="629" spans="1:6">
+    <row r="629">
       <c r="A629" s="1" t="n">
         <v>627</v>
       </c>
@@ -12963,7 +12953,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="630" spans="1:6">
+    <row r="630">
       <c r="A630" s="1" t="n">
         <v>628</v>
       </c>
@@ -12983,7 +12973,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="631" spans="1:6">
+    <row r="631">
       <c r="A631" s="1" t="n">
         <v>629</v>
       </c>
@@ -13003,7 +12993,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="632" spans="1:6">
+    <row r="632">
       <c r="A632" s="1" t="n">
         <v>630</v>
       </c>
@@ -13023,7 +13013,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="633" spans="1:6">
+    <row r="633">
       <c r="A633" s="1" t="n">
         <v>631</v>
       </c>
@@ -13043,7 +13033,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="634" spans="1:6">
+    <row r="634">
       <c r="A634" s="1" t="n">
         <v>632</v>
       </c>
@@ -13063,7 +13053,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="635" spans="1:6">
+    <row r="635">
       <c r="A635" s="1" t="n">
         <v>633</v>
       </c>
@@ -13083,7 +13073,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="636" spans="1:6">
+    <row r="636">
       <c r="A636" s="1" t="n">
         <v>634</v>
       </c>
@@ -13103,7 +13093,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="637" spans="1:6">
+    <row r="637">
       <c r="A637" s="1" t="n">
         <v>635</v>
       </c>
@@ -13123,7 +13113,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="638" spans="1:6">
+    <row r="638">
       <c r="A638" s="1" t="n">
         <v>636</v>
       </c>
@@ -13143,7 +13133,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="639" spans="1:6">
+    <row r="639">
       <c r="A639" s="1" t="n">
         <v>637</v>
       </c>
@@ -13163,7 +13153,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="640" spans="1:6">
+    <row r="640">
       <c r="A640" s="1" t="n">
         <v>638</v>
       </c>
@@ -13183,7 +13173,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="641" spans="1:6">
+    <row r="641">
       <c r="A641" s="1" t="n">
         <v>639</v>
       </c>
@@ -13203,7 +13193,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="642" spans="1:6">
+    <row r="642">
       <c r="A642" s="1" t="n">
         <v>640</v>
       </c>
@@ -13223,7 +13213,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="643" spans="1:6">
+    <row r="643">
       <c r="A643" s="1" t="n">
         <v>641</v>
       </c>
@@ -13243,7 +13233,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="644" spans="1:6">
+    <row r="644">
       <c r="A644" s="1" t="n">
         <v>642</v>
       </c>
@@ -13263,7 +13253,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="645" spans="1:6">
+    <row r="645">
       <c r="A645" s="1" t="n">
         <v>643</v>
       </c>
@@ -13283,7 +13273,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="646" spans="1:6">
+    <row r="646">
       <c r="A646" s="1" t="n">
         <v>644</v>
       </c>
@@ -13303,7 +13293,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="647" spans="1:6">
+    <row r="647">
       <c r="A647" s="1" t="n">
         <v>645</v>
       </c>
@@ -13323,7 +13313,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="648" spans="1:6">
+    <row r="648">
       <c r="A648" s="1" t="n">
         <v>646</v>
       </c>
@@ -13343,7 +13333,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="649" spans="1:6">
+    <row r="649">
       <c r="A649" s="1" t="n">
         <v>647</v>
       </c>
@@ -13363,7 +13353,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="650" spans="1:6">
+    <row r="650">
       <c r="A650" s="1" t="n">
         <v>648</v>
       </c>
@@ -13383,7 +13373,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="651" spans="1:6">
+    <row r="651">
       <c r="A651" s="1" t="n">
         <v>649</v>
       </c>
@@ -13403,7 +13393,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="652" spans="1:6">
+    <row r="652">
       <c r="A652" s="1" t="n">
         <v>650</v>
       </c>
@@ -13423,7 +13413,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="653" spans="1:6">
+    <row r="653">
       <c r="A653" s="1" t="n">
         <v>651</v>
       </c>
@@ -13443,7 +13433,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="654" spans="1:6">
+    <row r="654">
       <c r="A654" s="1" t="n">
         <v>652</v>
       </c>
@@ -13463,7 +13453,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="655" spans="1:6">
+    <row r="655">
       <c r="A655" s="1" t="n">
         <v>653</v>
       </c>
@@ -13483,7 +13473,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="656" spans="1:6">
+    <row r="656">
       <c r="A656" s="1" t="n">
         <v>654</v>
       </c>
@@ -13503,7 +13493,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="657" spans="1:6">
+    <row r="657">
       <c r="A657" s="1" t="n">
         <v>655</v>
       </c>
@@ -13523,7 +13513,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="658" spans="1:6">
+    <row r="658">
       <c r="A658" s="1" t="n">
         <v>656</v>
       </c>
@@ -13543,7 +13533,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="659" spans="1:6">
+    <row r="659">
       <c r="A659" s="1" t="n">
         <v>657</v>
       </c>
@@ -13563,7 +13553,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="660" spans="1:6">
+    <row r="660">
       <c r="A660" s="1" t="n">
         <v>658</v>
       </c>
@@ -13583,7 +13573,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="661" spans="1:6">
+    <row r="661">
       <c r="A661" s="1" t="n">
         <v>659</v>
       </c>
@@ -13603,7 +13593,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="662" spans="1:6">
+    <row r="662">
       <c r="A662" s="1" t="n">
         <v>660</v>
       </c>
@@ -13623,7 +13613,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="663" spans="1:6">
+    <row r="663">
       <c r="A663" s="1" t="n">
         <v>661</v>
       </c>
@@ -13643,7 +13633,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="664" spans="1:6">
+    <row r="664">
       <c r="A664" s="1" t="n">
         <v>662</v>
       </c>
@@ -13663,7 +13653,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="665" spans="1:6">
+    <row r="665">
       <c r="A665" s="1" t="n">
         <v>663</v>
       </c>
@@ -13683,7 +13673,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="666" spans="1:6">
+    <row r="666">
       <c r="A666" s="1" t="n">
         <v>664</v>
       </c>
@@ -13703,7 +13693,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="667" spans="1:6">
+    <row r="667">
       <c r="A667" s="1" t="n">
         <v>665</v>
       </c>
@@ -13723,7 +13713,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="668" spans="1:6">
+    <row r="668">
       <c r="A668" s="1" t="n">
         <v>666</v>
       </c>
@@ -13743,7 +13733,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="669" spans="1:6">
+    <row r="669">
       <c r="A669" s="1" t="n">
         <v>667</v>
       </c>
@@ -13763,7 +13753,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="670" spans="1:6">
+    <row r="670">
       <c r="A670" s="1" t="n">
         <v>668</v>
       </c>
@@ -13783,7 +13773,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="671" spans="1:6">
+    <row r="671">
       <c r="A671" s="1" t="n">
         <v>669</v>
       </c>
@@ -13803,7 +13793,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="672" spans="1:6">
+    <row r="672">
       <c r="A672" s="1" t="n">
         <v>670</v>
       </c>
@@ -13823,7 +13813,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="673" spans="1:6">
+    <row r="673">
       <c r="A673" s="1" t="n">
         <v>671</v>
       </c>
@@ -13843,7 +13833,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="674" spans="1:6">
+    <row r="674">
       <c r="A674" s="1" t="n">
         <v>672</v>
       </c>
@@ -13863,7 +13853,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="675" spans="1:6">
+    <row r="675">
       <c r="A675" s="1" t="n">
         <v>673</v>
       </c>
@@ -13883,7 +13873,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="676" spans="1:6">
+    <row r="676">
       <c r="A676" s="1" t="n">
         <v>674</v>
       </c>
@@ -13903,7 +13893,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="677" spans="1:6">
+    <row r="677">
       <c r="A677" s="1" t="n">
         <v>675</v>
       </c>
@@ -13923,7 +13913,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="678" spans="1:6">
+    <row r="678">
       <c r="A678" s="1" t="n">
         <v>676</v>
       </c>
@@ -13943,7 +13933,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="679" spans="1:6">
+    <row r="679">
       <c r="A679" s="1" t="n">
         <v>677</v>
       </c>
@@ -13963,7 +13953,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="680" spans="1:6">
+    <row r="680">
       <c r="A680" s="1" t="n">
         <v>678</v>
       </c>
@@ -13983,7 +13973,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="681" spans="1:6">
+    <row r="681">
       <c r="A681" s="1" t="n">
         <v>679</v>
       </c>
@@ -14003,7 +13993,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="682" spans="1:6">
+    <row r="682">
       <c r="A682" s="1" t="n">
         <v>680</v>
       </c>
@@ -14023,7 +14013,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="683" spans="1:6">
+    <row r="683">
       <c r="A683" s="1" t="n">
         <v>681</v>
       </c>
@@ -14043,7 +14033,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="684" spans="1:6">
+    <row r="684">
       <c r="A684" s="1" t="n">
         <v>682</v>
       </c>
@@ -14063,7 +14053,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="685" spans="1:6">
+    <row r="685">
       <c r="A685" s="1" t="n">
         <v>683</v>
       </c>
@@ -14083,7 +14073,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="686" spans="1:6">
+    <row r="686">
       <c r="A686" s="1" t="n">
         <v>684</v>
       </c>
@@ -14103,7 +14093,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="687" spans="1:6">
+    <row r="687">
       <c r="A687" s="1" t="n">
         <v>685</v>
       </c>
@@ -14123,7 +14113,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="688" spans="1:6">
+    <row r="688">
       <c r="A688" s="1" t="n">
         <v>686</v>
       </c>
@@ -14143,7 +14133,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="689" spans="1:6">
+    <row r="689">
       <c r="A689" s="1" t="n">
         <v>687</v>
       </c>
@@ -14163,7 +14153,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="690" spans="1:6">
+    <row r="690">
       <c r="A690" s="1" t="n">
         <v>688</v>
       </c>
@@ -14183,7 +14173,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="691" spans="1:6">
+    <row r="691">
       <c r="A691" s="1" t="n">
         <v>689</v>
       </c>
@@ -14203,7 +14193,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="692" spans="1:6">
+    <row r="692">
       <c r="A692" s="1" t="n">
         <v>690</v>
       </c>
@@ -14223,7 +14213,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="693" spans="1:6">
+    <row r="693">
       <c r="A693" s="1" t="n">
         <v>691</v>
       </c>
@@ -14243,7 +14233,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="694" spans="1:6">
+    <row r="694">
       <c r="A694" s="1" t="n">
         <v>692</v>
       </c>
@@ -14263,7 +14253,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="695" spans="1:6">
+    <row r="695">
       <c r="A695" s="1" t="n">
         <v>693</v>
       </c>
@@ -14283,7 +14273,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="696" spans="1:6">
+    <row r="696">
       <c r="A696" s="1" t="n">
         <v>694</v>
       </c>
@@ -14303,7 +14293,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="697" spans="1:6">
+    <row r="697">
       <c r="A697" s="1" t="n">
         <v>695</v>
       </c>
@@ -14323,7 +14313,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="698" spans="1:6">
+    <row r="698">
       <c r="A698" s="1" t="n">
         <v>696</v>
       </c>
@@ -14343,7 +14333,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="699" spans="1:6">
+    <row r="699">
       <c r="A699" s="1" t="n">
         <v>697</v>
       </c>
@@ -14363,7 +14353,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="700" spans="1:6">
+    <row r="700">
       <c r="A700" s="1" t="n">
         <v>698</v>
       </c>
@@ -14383,7 +14373,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="701" spans="1:6">
+    <row r="701">
       <c r="A701" s="1" t="n">
         <v>699</v>
       </c>
@@ -14403,7 +14393,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="702" spans="1:6">
+    <row r="702">
       <c r="A702" s="1" t="n">
         <v>700</v>
       </c>
@@ -14423,7 +14413,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="703" spans="1:6">
+    <row r="703">
       <c r="A703" s="1" t="n">
         <v>701</v>
       </c>
@@ -14443,7 +14433,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="704" spans="1:6">
+    <row r="704">
       <c r="A704" s="1" t="n">
         <v>702</v>
       </c>
@@ -14463,7 +14453,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="705" spans="1:6">
+    <row r="705">
       <c r="A705" s="1" t="n">
         <v>703</v>
       </c>
@@ -14483,7 +14473,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="706" spans="1:6">
+    <row r="706">
       <c r="A706" s="1" t="n">
         <v>704</v>
       </c>
@@ -14503,7 +14493,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="707" spans="1:6">
+    <row r="707">
       <c r="A707" s="1" t="n">
         <v>705</v>
       </c>
@@ -14523,7 +14513,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="708" spans="1:6">
+    <row r="708">
       <c r="A708" s="1" t="n">
         <v>706</v>
       </c>
@@ -14543,7 +14533,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="709" spans="1:6">
+    <row r="709">
       <c r="A709" s="1" t="n">
         <v>707</v>
       </c>
@@ -14563,7 +14553,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="710" spans="1:6">
+    <row r="710">
       <c r="A710" s="1" t="n">
         <v>708</v>
       </c>
@@ -14583,7 +14573,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="711" spans="1:6">
+    <row r="711">
       <c r="A711" s="1" t="n">
         <v>709</v>
       </c>
@@ -14603,7 +14593,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="712" spans="1:6">
+    <row r="712">
       <c r="A712" s="1" t="n">
         <v>710</v>
       </c>
@@ -14623,7 +14613,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="713" spans="1:6">
+    <row r="713">
       <c r="A713" s="1" t="n">
         <v>711</v>
       </c>
@@ -14643,7 +14633,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="714" spans="1:6">
+    <row r="714">
       <c r="A714" s="1" t="n">
         <v>712</v>
       </c>
@@ -14663,7 +14653,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="715" spans="1:6">
+    <row r="715">
       <c r="A715" s="1" t="n">
         <v>713</v>
       </c>
@@ -14683,7 +14673,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="716" spans="1:6">
+    <row r="716">
       <c r="A716" s="1" t="n">
         <v>714</v>
       </c>
@@ -14703,7 +14693,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="717" spans="1:6">
+    <row r="717">
       <c r="A717" s="1" t="n">
         <v>715</v>
       </c>
@@ -14723,7 +14713,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="718" spans="1:6">
+    <row r="718">
       <c r="A718" s="1" t="n">
         <v>716</v>
       </c>
@@ -14743,7 +14733,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="719" spans="1:6">
+    <row r="719">
       <c r="A719" s="1" t="n">
         <v>717</v>
       </c>
@@ -14763,7 +14753,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="720" spans="1:6">
+    <row r="720">
       <c r="A720" s="1" t="n">
         <v>718</v>
       </c>
@@ -14783,7 +14773,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="721" spans="1:6">
+    <row r="721">
       <c r="A721" s="1" t="n">
         <v>719</v>
       </c>
@@ -14803,7 +14793,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="722" spans="1:6">
+    <row r="722">
       <c r="A722" s="1" t="n">
         <v>720</v>
       </c>
@@ -14823,7 +14813,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="723" spans="1:6">
+    <row r="723">
       <c r="A723" s="1" t="n">
         <v>721</v>
       </c>
@@ -14843,7 +14833,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="724" spans="1:6">
+    <row r="724">
       <c r="A724" s="1" t="n">
         <v>722</v>
       </c>
@@ -14863,7 +14853,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="725" spans="1:6">
+    <row r="725">
       <c r="A725" s="1" t="n">
         <v>723</v>
       </c>
@@ -14883,7 +14873,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="726" spans="1:6">
+    <row r="726">
       <c r="A726" s="1" t="n">
         <v>724</v>
       </c>
@@ -14903,7 +14893,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="727" spans="1:6">
+    <row r="727">
       <c r="A727" s="1" t="n">
         <v>725</v>
       </c>
@@ -14923,7 +14913,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="728" spans="1:6">
+    <row r="728">
       <c r="A728" s="1" t="n">
         <v>726</v>
       </c>
@@ -14943,7 +14933,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="729" spans="1:6">
+    <row r="729">
       <c r="A729" s="1" t="n">
         <v>727</v>
       </c>
@@ -14963,7 +14953,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="730" spans="1:6">
+    <row r="730">
       <c r="A730" s="1" t="n">
         <v>728</v>
       </c>
@@ -14983,7 +14973,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="731" spans="1:6">
+    <row r="731">
       <c r="A731" s="1" t="n">
         <v>729</v>
       </c>
@@ -15003,7 +14993,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="732" spans="1:6">
+    <row r="732">
       <c r="A732" s="1" t="n">
         <v>730</v>
       </c>
@@ -15023,7 +15013,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="733" spans="1:6">
+    <row r="733">
       <c r="A733" s="1" t="n">
         <v>731</v>
       </c>
@@ -15043,7 +15033,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="734" spans="1:6">
+    <row r="734">
       <c r="A734" s="1" t="n">
         <v>732</v>
       </c>
@@ -15063,7 +15053,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="735" spans="1:6">
+    <row r="735">
       <c r="A735" s="1" t="n">
         <v>733</v>
       </c>
@@ -15083,7 +15073,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="736" spans="1:6">
+    <row r="736">
       <c r="A736" s="1" t="n">
         <v>734</v>
       </c>
@@ -15103,7 +15093,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="737" spans="1:6">
+    <row r="737">
       <c r="A737" s="1" t="n">
         <v>735</v>
       </c>
@@ -15123,7 +15113,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="738" spans="1:6">
+    <row r="738">
       <c r="A738" s="1" t="n">
         <v>736</v>
       </c>
@@ -15143,7 +15133,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="739" spans="1:6">
+    <row r="739">
       <c r="A739" s="1" t="n">
         <v>737</v>
       </c>
@@ -15163,7 +15153,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="740" spans="1:6">
+    <row r="740">
       <c r="A740" s="1" t="n">
         <v>738</v>
       </c>
@@ -15183,7 +15173,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="741" spans="1:6">
+    <row r="741">
       <c r="A741" s="1" t="n">
         <v>739</v>
       </c>
@@ -15203,7 +15193,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="742" spans="1:6">
+    <row r="742">
       <c r="A742" s="1" t="n">
         <v>740</v>
       </c>
@@ -15223,7 +15213,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="743" spans="1:6">
+    <row r="743">
       <c r="A743" s="1" t="n">
         <v>741</v>
       </c>
@@ -15243,7 +15233,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="744" spans="1:6">
+    <row r="744">
       <c r="A744" s="1" t="n">
         <v>742</v>
       </c>
@@ -15263,7 +15253,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="745" spans="1:6">
+    <row r="745">
       <c r="A745" s="1" t="n">
         <v>743</v>
       </c>
@@ -15283,7 +15273,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="746" spans="1:6">
+    <row r="746">
       <c r="A746" s="1" t="n">
         <v>744</v>
       </c>
@@ -15303,7 +15293,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="747" spans="1:6">
+    <row r="747">
       <c r="A747" s="1" t="n">
         <v>745</v>
       </c>
@@ -15323,7 +15313,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="748" spans="1:6">
+    <row r="748">
       <c r="A748" s="1" t="n">
         <v>746</v>
       </c>
@@ -15343,7 +15333,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="749" spans="1:6">
+    <row r="749">
       <c r="A749" s="1" t="n">
         <v>747</v>
       </c>
@@ -15363,7 +15353,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="750" spans="1:6">
+    <row r="750">
       <c r="A750" s="1" t="n">
         <v>748</v>
       </c>
@@ -15383,7 +15373,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="751" spans="1:6">
+    <row r="751">
       <c r="A751" s="1" t="n">
         <v>749</v>
       </c>
@@ -15403,7 +15393,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="752" spans="1:6">
+    <row r="752">
       <c r="A752" s="1" t="n">
         <v>750</v>
       </c>
@@ -15423,7 +15413,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="753" spans="1:6">
+    <row r="753">
       <c r="A753" s="1" t="n">
         <v>751</v>
       </c>
@@ -15443,7 +15433,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="754" spans="1:6">
+    <row r="754">
       <c r="A754" s="1" t="n">
         <v>752</v>
       </c>
@@ -15463,7 +15453,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="755" spans="1:6">
+    <row r="755">
       <c r="A755" s="1" t="n">
         <v>753</v>
       </c>
@@ -15483,7 +15473,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="756" spans="1:6">
+    <row r="756">
       <c r="A756" s="1" t="n">
         <v>754</v>
       </c>
@@ -15503,7 +15493,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="757" spans="1:6">
+    <row r="757">
       <c r="A757" s="1" t="n">
         <v>755</v>
       </c>
@@ -15523,7 +15513,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="758" spans="1:6">
+    <row r="758">
       <c r="A758" s="1" t="n">
         <v>756</v>
       </c>
@@ -15543,7 +15533,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="759" spans="1:6">
+    <row r="759">
       <c r="A759" s="1" t="n">
         <v>757</v>
       </c>
@@ -15563,7 +15553,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="760" spans="1:6">
+    <row r="760">
       <c r="A760" s="1" t="n">
         <v>758</v>
       </c>
@@ -15583,7 +15573,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="761" spans="1:6">
+    <row r="761">
       <c r="A761" s="1" t="n">
         <v>759</v>
       </c>
@@ -15603,7 +15593,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="762" spans="1:6">
+    <row r="762">
       <c r="A762" s="1" t="n">
         <v>760</v>
       </c>
@@ -15623,7 +15613,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="763" spans="1:6">
+    <row r="763">
       <c r="A763" s="1" t="n">
         <v>761</v>
       </c>
@@ -15643,7 +15633,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="764" spans="1:6">
+    <row r="764">
       <c r="A764" s="1" t="n">
         <v>762</v>
       </c>
@@ -15663,7 +15653,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="765" spans="1:6">
+    <row r="765">
       <c r="A765" s="1" t="n">
         <v>763</v>
       </c>
@@ -15683,7 +15673,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="766" spans="1:6">
+    <row r="766">
       <c r="A766" s="1" t="n">
         <v>764</v>
       </c>
@@ -15703,7 +15693,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="767" spans="1:6">
+    <row r="767">
       <c r="A767" s="1" t="n">
         <v>765</v>
       </c>
@@ -15723,7 +15713,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="768" spans="1:6">
+    <row r="768">
       <c r="A768" s="1" t="n">
         <v>766</v>
       </c>
@@ -15743,7 +15733,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="769" spans="1:6">
+    <row r="769">
       <c r="A769" s="1" t="n">
         <v>767</v>
       </c>
@@ -15763,7 +15753,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="770" spans="1:6">
+    <row r="770">
       <c r="A770" s="1" t="n">
         <v>768</v>
       </c>
@@ -15783,7 +15773,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="771" spans="1:6">
+    <row r="771">
       <c r="A771" s="1" t="n">
         <v>769</v>
       </c>
@@ -15803,7 +15793,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="772" spans="1:6">
+    <row r="772">
       <c r="A772" s="1" t="n">
         <v>770</v>
       </c>
@@ -15823,7 +15813,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="773" spans="1:6">
+    <row r="773">
       <c r="A773" s="1" t="n">
         <v>771</v>
       </c>
@@ -15843,7 +15833,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="774" spans="1:6">
+    <row r="774">
       <c r="A774" s="1" t="n">
         <v>772</v>
       </c>
@@ -15863,7 +15853,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="775" spans="1:6">
+    <row r="775">
       <c r="A775" s="1" t="n">
         <v>773</v>
       </c>
@@ -15883,7 +15873,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="776" spans="1:6">
+    <row r="776">
       <c r="A776" s="1" t="n">
         <v>774</v>
       </c>
@@ -15903,7 +15893,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="777" spans="1:6">
+    <row r="777">
       <c r="A777" s="1" t="n">
         <v>775</v>
       </c>
@@ -15923,7 +15913,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="778" spans="1:6">
+    <row r="778">
       <c r="A778" s="1" t="n">
         <v>776</v>
       </c>
@@ -15943,7 +15933,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="779" spans="1:6">
+    <row r="779">
       <c r="A779" s="1" t="n">
         <v>777</v>
       </c>
@@ -15963,7 +15953,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="780" spans="1:6">
+    <row r="780">
       <c r="A780" s="1" t="n">
         <v>778</v>
       </c>
@@ -15983,7 +15973,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="781" spans="1:6">
+    <row r="781">
       <c r="A781" s="1" t="n">
         <v>779</v>
       </c>
@@ -16003,7 +15993,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="782" spans="1:6">
+    <row r="782">
       <c r="A782" s="1" t="n">
         <v>780</v>
       </c>
@@ -16023,7 +16013,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="783" spans="1:6">
+    <row r="783">
       <c r="A783" s="1" t="n">
         <v>781</v>
       </c>
@@ -16043,7 +16033,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="784" spans="1:6">
+    <row r="784">
       <c r="A784" s="1" t="n">
         <v>782</v>
       </c>
@@ -16063,7 +16053,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="785" spans="1:6">
+    <row r="785">
       <c r="A785" s="1" t="n">
         <v>783</v>
       </c>
@@ -16083,7 +16073,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="786" spans="1:6">
+    <row r="786">
       <c r="A786" s="1" t="n">
         <v>784</v>
       </c>
@@ -16103,7 +16093,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="787" spans="1:6">
+    <row r="787">
       <c r="A787" s="1" t="n">
         <v>785</v>
       </c>
@@ -16123,7 +16113,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="788" spans="1:6">
+    <row r="788">
       <c r="A788" s="1" t="n">
         <v>786</v>
       </c>
@@ -16143,7 +16133,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="789" spans="1:6">
+    <row r="789">
       <c r="A789" s="1" t="n">
         <v>787</v>
       </c>
@@ -16163,7 +16153,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="790" spans="1:6">
+    <row r="790">
       <c r="A790" s="1" t="n">
         <v>788</v>
       </c>
@@ -16183,7 +16173,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="791" spans="1:6">
+    <row r="791">
       <c r="A791" s="1" t="n">
         <v>789</v>
       </c>
@@ -16203,7 +16193,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="792" spans="1:6">
+    <row r="792">
       <c r="A792" s="1" t="n">
         <v>790</v>
       </c>
@@ -16223,7 +16213,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="793" spans="1:6">
+    <row r="793">
       <c r="A793" s="1" t="n">
         <v>791</v>
       </c>
@@ -16243,7 +16233,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="794" spans="1:6">
+    <row r="794">
       <c r="A794" s="1" t="n">
         <v>792</v>
       </c>
@@ -16263,7 +16253,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="795" spans="1:6">
+    <row r="795">
       <c r="A795" s="1" t="n">
         <v>793</v>
       </c>
@@ -16283,7 +16273,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="796" spans="1:6">
+    <row r="796">
       <c r="A796" s="1" t="n">
         <v>794</v>
       </c>
@@ -16303,7 +16293,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="797" spans="1:6">
+    <row r="797">
       <c r="A797" s="1" t="n">
         <v>795</v>
       </c>
@@ -16323,7 +16313,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="798" spans="1:6">
+    <row r="798">
       <c r="A798" s="1" t="n">
         <v>796</v>
       </c>
@@ -16343,7 +16333,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="799" spans="1:6">
+    <row r="799">
       <c r="A799" s="1" t="n">
         <v>797</v>
       </c>
@@ -16363,7 +16353,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="800" spans="1:6">
+    <row r="800">
       <c r="A800" s="1" t="n">
         <v>798</v>
       </c>
@@ -16383,7 +16373,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="801" spans="1:6">
+    <row r="801">
       <c r="A801" s="1" t="n">
         <v>799</v>
       </c>
@@ -16403,7 +16393,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="802" spans="1:6">
+    <row r="802">
       <c r="A802" s="1" t="n">
         <v>800</v>
       </c>
@@ -16423,7 +16413,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="803" spans="1:6">
+    <row r="803">
       <c r="A803" s="1" t="n">
         <v>801</v>
       </c>
@@ -16443,7 +16433,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="804" spans="1:6">
+    <row r="804">
       <c r="A804" s="1" t="n">
         <v>802</v>
       </c>
@@ -16463,7 +16453,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="805" spans="1:6">
+    <row r="805">
       <c r="A805" s="1" t="n">
         <v>803</v>
       </c>
@@ -16483,7 +16473,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="806" spans="1:6">
+    <row r="806">
       <c r="A806" s="1" t="n">
         <v>804</v>
       </c>
@@ -16503,7 +16493,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="807" spans="1:6">
+    <row r="807">
       <c r="A807" s="1" t="n">
         <v>805</v>
       </c>
@@ -16523,7 +16513,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="808" spans="1:6">
+    <row r="808">
       <c r="A808" s="1" t="n">
         <v>806</v>
       </c>
@@ -16543,7 +16533,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="809" spans="1:6">
+    <row r="809">
       <c r="A809" s="1" t="n">
         <v>807</v>
       </c>
@@ -16563,7 +16553,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="810" spans="1:6">
+    <row r="810">
       <c r="A810" s="1" t="n">
         <v>808</v>
       </c>
@@ -16583,7 +16573,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="811" spans="1:6">
+    <row r="811">
       <c r="A811" s="1" t="n">
         <v>809</v>
       </c>
@@ -16603,7 +16593,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="812" spans="1:6">
+    <row r="812">
       <c r="A812" s="1" t="n">
         <v>810</v>
       </c>
@@ -16623,7 +16613,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="813" spans="1:6">
+    <row r="813">
       <c r="A813" s="1" t="n">
         <v>811</v>
       </c>
@@ -16643,7 +16633,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="814" spans="1:6">
+    <row r="814">
       <c r="A814" s="1" t="n">
         <v>812</v>
       </c>
@@ -16663,7 +16653,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="815" spans="1:6">
+    <row r="815">
       <c r="A815" s="1" t="n">
         <v>813</v>
       </c>
@@ -16683,7 +16673,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="816" spans="1:6">
+    <row r="816">
       <c r="A816" s="1" t="n">
         <v>814</v>
       </c>
@@ -16703,7 +16693,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="817" spans="1:6">
+    <row r="817">
       <c r="A817" s="1" t="n">
         <v>815</v>
       </c>
@@ -16723,7 +16713,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="818" spans="1:6">
+    <row r="818">
       <c r="A818" s="1" t="n">
         <v>816</v>
       </c>
@@ -16743,7 +16733,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="819" spans="1:6">
+    <row r="819">
       <c r="A819" s="1" t="n">
         <v>817</v>
       </c>
@@ -16763,7 +16753,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="820" spans="1:6">
+    <row r="820">
       <c r="A820" s="1" t="n">
         <v>818</v>
       </c>
@@ -16783,7 +16773,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="821" spans="1:6">
+    <row r="821">
       <c r="A821" s="1" t="n">
         <v>819</v>
       </c>
@@ -16803,7 +16793,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="822" spans="1:6">
+    <row r="822">
       <c r="A822" s="1" t="n">
         <v>820</v>
       </c>
@@ -16823,7 +16813,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="823" spans="1:6">
+    <row r="823">
       <c r="A823" s="1" t="n">
         <v>821</v>
       </c>
@@ -16843,7 +16833,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="824" spans="1:6">
+    <row r="824">
       <c r="A824" s="1" t="n">
         <v>822</v>
       </c>
@@ -16863,7 +16853,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="825" spans="1:6">
+    <row r="825">
       <c r="A825" s="1" t="n">
         <v>823</v>
       </c>
@@ -16883,7 +16873,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="826" spans="1:6">
+    <row r="826">
       <c r="A826" s="1" t="n">
         <v>824</v>
       </c>
@@ -16903,7 +16893,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="827" spans="1:6">
+    <row r="827">
       <c r="A827" s="1" t="n">
         <v>825</v>
       </c>
@@ -16923,7 +16913,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="828" spans="1:6">
+    <row r="828">
       <c r="A828" s="1" t="n">
         <v>826</v>
       </c>
@@ -16943,7 +16933,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="829" spans="1:6">
+    <row r="829">
       <c r="A829" s="1" t="n">
         <v>827</v>
       </c>
@@ -16963,7 +16953,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="830" spans="1:6">
+    <row r="830">
       <c r="A830" s="1" t="n">
         <v>828</v>
       </c>
@@ -16983,7 +16973,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="831" spans="1:6">
+    <row r="831">
       <c r="A831" s="1" t="n">
         <v>829</v>
       </c>
@@ -17003,7 +16993,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="832" spans="1:6">
+    <row r="832">
       <c r="A832" s="1" t="n">
         <v>830</v>
       </c>
@@ -17023,7 +17013,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="833" spans="1:6">
+    <row r="833">
       <c r="A833" s="1" t="n">
         <v>831</v>
       </c>
@@ -17043,7 +17033,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="834" spans="1:6">
+    <row r="834">
       <c r="A834" s="1" t="n">
         <v>832</v>
       </c>
@@ -17063,7 +17053,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="835" spans="1:6">
+    <row r="835">
       <c r="A835" s="1" t="n">
         <v>833</v>
       </c>
@@ -17083,7 +17073,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="836" spans="1:6">
+    <row r="836">
       <c r="A836" s="1" t="n">
         <v>834</v>
       </c>
@@ -17103,7 +17093,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="837" spans="1:6">
+    <row r="837">
       <c r="A837" s="1" t="n">
         <v>835</v>
       </c>
@@ -17123,7 +17113,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="838" spans="1:6">
+    <row r="838">
       <c r="A838" s="1" t="n">
         <v>836</v>
       </c>
@@ -17143,7 +17133,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="839" spans="1:6">
+    <row r="839">
       <c r="A839" s="1" t="n">
         <v>837</v>
       </c>
@@ -17163,7 +17153,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="840" spans="1:6">
+    <row r="840">
       <c r="A840" s="1" t="n">
         <v>838</v>
       </c>
@@ -17183,7 +17173,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="841" spans="1:6">
+    <row r="841">
       <c r="A841" s="1" t="n">
         <v>839</v>
       </c>
@@ -17203,7 +17193,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="842" spans="1:6">
+    <row r="842">
       <c r="A842" s="1" t="n">
         <v>840</v>
       </c>
@@ -17223,7 +17213,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="843" spans="1:6">
+    <row r="843">
       <c r="A843" s="1" t="n">
         <v>841</v>
       </c>
@@ -17243,7 +17233,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="844" spans="1:6">
+    <row r="844">
       <c r="A844" s="1" t="n">
         <v>842</v>
       </c>
@@ -17263,7 +17253,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="845" spans="1:6">
+    <row r="845">
       <c r="A845" s="1" t="n">
         <v>843</v>
       </c>
@@ -17283,7 +17273,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="846" spans="1:6">
+    <row r="846">
       <c r="A846" s="1" t="n">
         <v>844</v>
       </c>
@@ -17303,7 +17293,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="847" spans="1:6">
+    <row r="847">
       <c r="A847" s="1" t="n">
         <v>845</v>
       </c>
@@ -17323,7 +17313,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="848" spans="1:6">
+    <row r="848">
       <c r="A848" s="1" t="n">
         <v>846</v>
       </c>
@@ -17343,7 +17333,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="849" spans="1:6">
+    <row r="849">
       <c r="A849" s="1" t="n">
         <v>847</v>
       </c>
@@ -17363,7 +17353,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="850" spans="1:6">
+    <row r="850">
       <c r="A850" s="1" t="n">
         <v>848</v>
       </c>
@@ -17383,7 +17373,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="851" spans="1:6">
+    <row r="851">
       <c r="A851" s="1" t="n">
         <v>849</v>
       </c>
@@ -17403,7 +17393,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="852" spans="1:6">
+    <row r="852">
       <c r="A852" s="1" t="n">
         <v>850</v>
       </c>
@@ -17423,7 +17413,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="853" spans="1:6">
+    <row r="853">
       <c r="A853" s="1" t="n">
         <v>851</v>
       </c>
@@ -17443,7 +17433,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="854" spans="1:6">
+    <row r="854">
       <c r="A854" s="1" t="n">
         <v>852</v>
       </c>
@@ -17463,7 +17453,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="855" spans="1:6">
+    <row r="855">
       <c r="A855" s="1" t="n">
         <v>853</v>
       </c>
@@ -17483,7 +17473,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="856" spans="1:6">
+    <row r="856">
       <c r="A856" s="1" t="n">
         <v>854</v>
       </c>
@@ -17503,7 +17493,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="857" spans="1:6">
+    <row r="857">
       <c r="A857" s="1" t="n">
         <v>855</v>
       </c>
@@ -17523,7 +17513,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="858" spans="1:6">
+    <row r="858">
       <c r="A858" s="1" t="n">
         <v>856</v>
       </c>
@@ -17543,7 +17533,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="859" spans="1:6">
+    <row r="859">
       <c r="A859" s="1" t="n">
         <v>857</v>
       </c>
@@ -17563,7 +17553,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="860" spans="1:6">
+    <row r="860">
       <c r="A860" s="1" t="n">
         <v>858</v>
       </c>
@@ -17583,7 +17573,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="861" spans="1:6">
+    <row r="861">
       <c r="A861" s="1" t="n">
         <v>859</v>
       </c>
@@ -17603,7 +17593,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="862" spans="1:6">
+    <row r="862">
       <c r="A862" s="1" t="n">
         <v>860</v>
       </c>
@@ -17623,7 +17613,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="863" spans="1:6">
+    <row r="863">
       <c r="A863" s="1" t="n">
         <v>861</v>
       </c>
@@ -17643,7 +17633,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="864" spans="1:6">
+    <row r="864">
       <c r="A864" s="1" t="n">
         <v>862</v>
       </c>
@@ -17663,7 +17653,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="865" spans="1:6">
+    <row r="865">
       <c r="A865" s="1" t="n">
         <v>863</v>
       </c>
@@ -17683,7 +17673,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="866" spans="1:6">
+    <row r="866">
       <c r="A866" s="1" t="n">
         <v>864</v>
       </c>
@@ -17703,7 +17693,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="867" spans="1:6">
+    <row r="867">
       <c r="A867" s="1" t="n">
         <v>865</v>
       </c>
@@ -17723,7 +17713,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="868" spans="1:6">
+    <row r="868">
       <c r="A868" s="1" t="n">
         <v>866</v>
       </c>
@@ -17743,7 +17733,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="869" spans="1:6">
+    <row r="869">
       <c r="A869" s="1" t="n">
         <v>867</v>
       </c>
@@ -17763,7 +17753,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="870" spans="1:6">
+    <row r="870">
       <c r="A870" s="1" t="n">
         <v>868</v>
       </c>
@@ -17783,7 +17773,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="871" spans="1:6">
+    <row r="871">
       <c r="A871" s="1" t="n">
         <v>869</v>
       </c>
@@ -17803,7 +17793,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="872" spans="1:6">
+    <row r="872">
       <c r="A872" s="1" t="n">
         <v>870</v>
       </c>
@@ -17823,7 +17813,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="873" spans="1:6">
+    <row r="873">
       <c r="A873" s="1" t="n">
         <v>871</v>
       </c>
@@ -17843,7 +17833,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="874" spans="1:6">
+    <row r="874">
       <c r="A874" s="1" t="n">
         <v>872</v>
       </c>
@@ -17863,7 +17853,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="875" spans="1:6">
+    <row r="875">
       <c r="A875" s="1" t="n">
         <v>873</v>
       </c>
@@ -17883,7 +17873,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="876" spans="1:6">
+    <row r="876">
       <c r="A876" s="1" t="n">
         <v>874</v>
       </c>
@@ -17903,7 +17893,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="877" spans="1:6">
+    <row r="877">
       <c r="A877" s="1" t="n">
         <v>875</v>
       </c>
@@ -17923,7 +17913,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="878" spans="1:6">
+    <row r="878">
       <c r="A878" s="1" t="n">
         <v>876</v>
       </c>
@@ -17943,7 +17933,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="879" spans="1:6">
+    <row r="879">
       <c r="A879" s="1" t="n">
         <v>877</v>
       </c>
@@ -17963,7 +17953,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="880" spans="1:6">
+    <row r="880">
       <c r="A880" s="1" t="n">
         <v>878</v>
       </c>
@@ -17983,7 +17973,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="881" spans="1:6">
+    <row r="881">
       <c r="A881" s="1" t="n">
         <v>879</v>
       </c>
@@ -18003,7 +17993,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="882" spans="1:6">
+    <row r="882">
       <c r="A882" s="1" t="n">
         <v>880</v>
       </c>
@@ -18023,7 +18013,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="883" spans="1:6">
+    <row r="883">
       <c r="A883" s="1" t="n">
         <v>881</v>
       </c>
@@ -18043,7 +18033,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="884" spans="1:6">
+    <row r="884">
       <c r="A884" s="1" t="n">
         <v>882</v>
       </c>
@@ -18063,7 +18053,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="885" spans="1:6">
+    <row r="885">
       <c r="A885" s="1" t="n">
         <v>883</v>
       </c>
@@ -18083,7 +18073,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="886" spans="1:6">
+    <row r="886">
       <c r="A886" s="1" t="n">
         <v>884</v>
       </c>
@@ -18103,7 +18093,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="887" spans="1:6">
+    <row r="887">
       <c r="A887" s="1" t="n">
         <v>885</v>
       </c>
@@ -18123,7 +18113,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="888" spans="1:6">
+    <row r="888">
       <c r="A888" s="1" t="n">
         <v>886</v>
       </c>
@@ -18143,7 +18133,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="889" spans="1:6">
+    <row r="889">
       <c r="A889" s="1" t="n">
         <v>887</v>
       </c>
@@ -18163,7 +18153,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="890" spans="1:6">
+    <row r="890">
       <c r="A890" s="1" t="n">
         <v>888</v>
       </c>
@@ -18183,7 +18173,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="891" spans="1:6">
+    <row r="891">
       <c r="A891" s="1" t="n">
         <v>889</v>
       </c>
@@ -18203,7 +18193,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="892" spans="1:6">
+    <row r="892">
       <c r="A892" s="1" t="n">
         <v>890</v>
       </c>
@@ -18223,7 +18213,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="893" spans="1:6">
+    <row r="893">
       <c r="A893" s="1" t="n">
         <v>891</v>
       </c>
@@ -18243,7 +18233,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="894" spans="1:6">
+    <row r="894">
       <c r="A894" s="1" t="n">
         <v>892</v>
       </c>
@@ -18263,7 +18253,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="895" spans="1:6">
+    <row r="895">
       <c r="A895" s="1" t="n">
         <v>893</v>
       </c>
@@ -18283,7 +18273,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="896" spans="1:6">
+    <row r="896">
       <c r="A896" s="1" t="n">
         <v>894</v>
       </c>
@@ -18303,7 +18293,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="897" spans="1:6">
+    <row r="897">
       <c r="A897" s="1" t="n">
         <v>895</v>
       </c>
@@ -18323,7 +18313,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="898" spans="1:6">
+    <row r="898">
       <c r="A898" s="1" t="n">
         <v>896</v>
       </c>
@@ -18343,7 +18333,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="899" spans="1:6">
+    <row r="899">
       <c r="A899" s="1" t="n">
         <v>897</v>
       </c>
@@ -18363,7 +18353,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="900" spans="1:6">
+    <row r="900">
       <c r="A900" s="1" t="n">
         <v>898</v>
       </c>
@@ -18383,7 +18373,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="901" spans="1:6">
+    <row r="901">
       <c r="A901" s="1" t="n">
         <v>899</v>
       </c>
@@ -18403,7 +18393,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="902" spans="1:6">
+    <row r="902">
       <c r="A902" s="1" t="n">
         <v>900</v>
       </c>
@@ -18423,7 +18413,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="903" spans="1:6">
+    <row r="903">
       <c r="A903" s="1" t="n">
         <v>901</v>
       </c>
@@ -18443,7 +18433,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="904" spans="1:6">
+    <row r="904">
       <c r="A904" s="1" t="n">
         <v>902</v>
       </c>
@@ -18463,7 +18453,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="905" spans="1:6">
+    <row r="905">
       <c r="A905" s="1" t="n">
         <v>903</v>
       </c>
@@ -18483,7 +18473,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="906" spans="1:6">
+    <row r="906">
       <c r="A906" s="1" t="n">
         <v>904</v>
       </c>
@@ -18503,7 +18493,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="907" spans="1:6">
+    <row r="907">
       <c r="A907" s="1" t="n">
         <v>905</v>
       </c>
@@ -18523,7 +18513,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="908" spans="1:6">
+    <row r="908">
       <c r="A908" s="1" t="n">
         <v>906</v>
       </c>
@@ -18543,7 +18533,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="909" spans="1:6">
+    <row r="909">
       <c r="A909" s="1" t="n">
         <v>907</v>
       </c>
@@ -18563,7 +18553,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="910" spans="1:6">
+    <row r="910">
       <c r="A910" s="1" t="n">
         <v>908</v>
       </c>
@@ -18583,7 +18573,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="911" spans="1:6">
+    <row r="911">
       <c r="A911" s="1" t="n">
         <v>909</v>
       </c>
@@ -18603,7 +18593,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="912" spans="1:6">
+    <row r="912">
       <c r="A912" s="1" t="n">
         <v>910</v>
       </c>
@@ -18623,7 +18613,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="913" spans="1:6">
+    <row r="913">
       <c r="A913" s="1" t="n">
         <v>911</v>
       </c>
@@ -18643,7 +18633,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="914" spans="1:6">
+    <row r="914">
       <c r="A914" s="1" t="n">
         <v>912</v>
       </c>
@@ -18663,7 +18653,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="915" spans="1:6">
+    <row r="915">
       <c r="A915" s="1" t="n">
         <v>913</v>
       </c>
@@ -18683,7 +18673,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="916" spans="1:6">
+    <row r="916">
       <c r="A916" s="1" t="n">
         <v>914</v>
       </c>
@@ -18703,7 +18693,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="917" spans="1:6">
+    <row r="917">
       <c r="A917" s="1" t="n">
         <v>915</v>
       </c>
@@ -18723,7 +18713,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="918" spans="1:6">
+    <row r="918">
       <c r="A918" s="1" t="n">
         <v>916</v>
       </c>
@@ -18743,7 +18733,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="919" spans="1:6">
+    <row r="919">
       <c r="A919" s="1" t="n">
         <v>917</v>
       </c>
@@ -18763,7 +18753,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="920" spans="1:6">
+    <row r="920">
       <c r="A920" s="1" t="n">
         <v>918</v>
       </c>
@@ -18783,7 +18773,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="921" spans="1:6">
+    <row r="921">
       <c r="A921" s="1" t="n">
         <v>919</v>
       </c>
@@ -18803,7 +18793,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="922" spans="1:6">
+    <row r="922">
       <c r="A922" s="1" t="n">
         <v>920</v>
       </c>
@@ -18823,7 +18813,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="923" spans="1:6">
+    <row r="923">
       <c r="A923" s="1" t="n">
         <v>921</v>
       </c>
@@ -18843,7 +18833,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="924" spans="1:6">
+    <row r="924">
       <c r="A924" s="1" t="n">
         <v>922</v>
       </c>
@@ -18863,7 +18853,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="925" spans="1:6">
+    <row r="925">
       <c r="A925" s="1" t="n">
         <v>923</v>
       </c>
@@ -18883,7 +18873,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="926" spans="1:6">
+    <row r="926">
       <c r="A926" s="1" t="n">
         <v>924</v>
       </c>
@@ -18903,7 +18893,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="927" spans="1:6">
+    <row r="927">
       <c r="A927" s="1" t="n">
         <v>925</v>
       </c>
@@ -18923,7 +18913,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="928" spans="1:6">
+    <row r="928">
       <c r="A928" s="1" t="n">
         <v>926</v>
       </c>
@@ -18943,7 +18933,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="929" spans="1:6">
+    <row r="929">
       <c r="A929" s="1" t="n">
         <v>927</v>
       </c>
@@ -18963,7 +18953,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="930" spans="1:6">
+    <row r="930">
       <c r="A930" s="1" t="n">
         <v>928</v>
       </c>
@@ -18983,7 +18973,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="931" spans="1:6">
+    <row r="931">
       <c r="A931" s="1" t="n">
         <v>929</v>
       </c>
@@ -19003,7 +18993,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="932" spans="1:6">
+    <row r="932">
       <c r="A932" s="1" t="n">
         <v>930</v>
       </c>
@@ -19023,7 +19013,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="933" spans="1:6">
+    <row r="933">
       <c r="A933" s="1" t="n">
         <v>931</v>
       </c>
@@ -19043,7 +19033,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="934" spans="1:6">
+    <row r="934">
       <c r="A934" s="1" t="n">
         <v>932</v>
       </c>
@@ -19063,7 +19053,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="935" spans="1:6">
+    <row r="935">
       <c r="A935" s="1" t="n">
         <v>933</v>
       </c>
@@ -19083,7 +19073,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="936" spans="1:6">
+    <row r="936">
       <c r="A936" s="1" t="n">
         <v>934</v>
       </c>
@@ -19103,7 +19093,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="937" spans="1:6">
+    <row r="937">
       <c r="A937" s="1" t="n">
         <v>935</v>
       </c>
@@ -19123,7 +19113,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="938" spans="1:6">
+    <row r="938">
       <c r="A938" s="1" t="n">
         <v>936</v>
       </c>
@@ -19143,7 +19133,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="939" spans="1:6">
+    <row r="939">
       <c r="A939" s="1" t="n">
         <v>937</v>
       </c>
@@ -19163,7 +19153,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="940" spans="1:6">
+    <row r="940">
       <c r="A940" s="1" t="n">
         <v>938</v>
       </c>
@@ -19183,7 +19173,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="941" spans="1:6">
+    <row r="941">
       <c r="A941" s="1" t="n">
         <v>939</v>
       </c>
@@ -19203,7 +19193,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="942" spans="1:6">
+    <row r="942">
       <c r="A942" s="1" t="n">
         <v>940</v>
       </c>
@@ -19223,7 +19213,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="943" spans="1:6">
+    <row r="943">
       <c r="A943" s="1" t="n">
         <v>941</v>
       </c>
@@ -19243,7 +19233,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="944" spans="1:6">
+    <row r="944">
       <c r="A944" s="1" t="n">
         <v>942</v>
       </c>
@@ -19263,7 +19253,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="945" spans="1:6">
+    <row r="945">
       <c r="A945" s="1" t="n">
         <v>943</v>
       </c>
@@ -19283,7 +19273,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="946" spans="1:6">
+    <row r="946">
       <c r="A946" s="1" t="n">
         <v>944</v>
       </c>
@@ -19303,7 +19293,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="947" spans="1:6">
+    <row r="947">
       <c r="A947" s="1" t="n">
         <v>945</v>
       </c>
@@ -19323,7 +19313,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="948" spans="1:6">
+    <row r="948">
       <c r="A948" s="1" t="n">
         <v>946</v>
       </c>
@@ -19343,7 +19333,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="949" spans="1:6">
+    <row r="949">
       <c r="A949" s="1" t="n">
         <v>947</v>
       </c>
@@ -19363,7 +19353,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="950" spans="1:6">
+    <row r="950">
       <c r="A950" s="1" t="n">
         <v>948</v>
       </c>
@@ -19383,7 +19373,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="951" spans="1:6">
+    <row r="951">
       <c r="A951" s="1" t="n">
         <v>949</v>
       </c>
@@ -19403,7 +19393,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="952" spans="1:6">
+    <row r="952">
       <c r="A952" s="1" t="n">
         <v>950</v>
       </c>
@@ -19423,7 +19413,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="953" spans="1:6">
+    <row r="953">
       <c r="A953" s="1" t="n">
         <v>951</v>
       </c>
@@ -19443,7 +19433,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="954" spans="1:6">
+    <row r="954">
       <c r="A954" s="1" t="n">
         <v>952</v>
       </c>
@@ -19463,7 +19453,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="955" spans="1:6">
+    <row r="955">
       <c r="A955" s="1" t="n">
         <v>953</v>
       </c>
@@ -19483,7 +19473,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="956" spans="1:6">
+    <row r="956">
       <c r="A956" s="1" t="n">
         <v>954</v>
       </c>
@@ -19503,7 +19493,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="957" spans="1:6">
+    <row r="957">
       <c r="A957" s="1" t="n">
         <v>955</v>
       </c>
@@ -19523,7 +19513,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="958" spans="1:6">
+    <row r="958">
       <c r="A958" s="1" t="n">
         <v>956</v>
       </c>
@@ -19543,7 +19533,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="959" spans="1:6">
+    <row r="959">
       <c r="A959" s="1" t="n">
         <v>957</v>
       </c>
@@ -19563,7 +19553,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="960" spans="1:6">
+    <row r="960">
       <c r="A960" s="1" t="n">
         <v>958</v>
       </c>
@@ -19583,7 +19573,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="961" spans="1:6">
+    <row r="961">
       <c r="A961" s="1" t="n">
         <v>959</v>
       </c>
@@ -19603,7 +19593,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="962" spans="1:6">
+    <row r="962">
       <c r="A962" s="1" t="n">
         <v>960</v>
       </c>
@@ -19623,7 +19613,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="963" spans="1:6">
+    <row r="963">
       <c r="A963" s="1" t="n">
         <v>961</v>
       </c>
@@ -19643,7 +19633,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="964" spans="1:6">
+    <row r="964">
       <c r="A964" s="1" t="n">
         <v>962</v>
       </c>
@@ -19663,7 +19653,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="965" spans="1:6">
+    <row r="965">
       <c r="A965" s="1" t="n">
         <v>963</v>
       </c>
@@ -19683,7 +19673,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="966" spans="1:6">
+    <row r="966">
       <c r="A966" s="1" t="n">
         <v>964</v>
       </c>
@@ -19703,7 +19693,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="967" spans="1:6">
+    <row r="967">
       <c r="A967" s="1" t="n">
         <v>965</v>
       </c>
@@ -19723,7 +19713,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="968" spans="1:6">
+    <row r="968">
       <c r="A968" s="1" t="n">
         <v>966</v>
       </c>
@@ -19743,7 +19733,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="969" spans="1:6">
+    <row r="969">
       <c r="A969" s="1" t="n">
         <v>967</v>
       </c>
@@ -19763,7 +19753,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="970" spans="1:6">
+    <row r="970">
       <c r="A970" s="1" t="n">
         <v>968</v>
       </c>
@@ -19783,7 +19773,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="971" spans="1:6">
+    <row r="971">
       <c r="A971" s="1" t="n">
         <v>969</v>
       </c>
@@ -19803,7 +19793,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="972" spans="1:6">
+    <row r="972">
       <c r="A972" s="1" t="n">
         <v>970</v>
       </c>
@@ -19823,7 +19813,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="973" spans="1:6">
+    <row r="973">
       <c r="A973" s="1" t="n">
         <v>971</v>
       </c>
@@ -19843,7 +19833,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="974" spans="1:6">
+    <row r="974">
       <c r="A974" s="1" t="n">
         <v>972</v>
       </c>
@@ -19863,7 +19853,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="975" spans="1:6">
+    <row r="975">
       <c r="A975" s="1" t="n">
         <v>973</v>
       </c>
@@ -19883,7 +19873,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="976" spans="1:6">
+    <row r="976">
       <c r="A976" s="1" t="n">
         <v>974</v>
       </c>
@@ -19903,7 +19893,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="977" spans="1:6">
+    <row r="977">
       <c r="A977" s="1" t="n">
         <v>975</v>
       </c>
@@ -19923,7 +19913,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="978" spans="1:6">
+    <row r="978">
       <c r="A978" s="1" t="n">
         <v>976</v>
       </c>
@@ -19943,7 +19933,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="979" spans="1:6">
+    <row r="979">
       <c r="A979" s="1" t="n">
         <v>977</v>
       </c>
@@ -19963,7 +19953,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="980" spans="1:6">
+    <row r="980">
       <c r="A980" s="1" t="n">
         <v>978</v>
       </c>
@@ -19983,7 +19973,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="981" spans="1:6">
+    <row r="981">
       <c r="A981" s="1" t="n">
         <v>979</v>
       </c>
@@ -20003,7 +19993,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="982" spans="1:6">
+    <row r="982">
       <c r="A982" s="1" t="n">
         <v>980</v>
       </c>
@@ -20023,7 +20013,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="983" spans="1:6">
+    <row r="983">
       <c r="A983" s="1" t="n">
         <v>981</v>
       </c>
@@ -20043,7 +20033,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="984" spans="1:6">
+    <row r="984">
       <c r="A984" s="1" t="n">
         <v>982</v>
       </c>
@@ -20063,7 +20053,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="985" spans="1:6">
+    <row r="985">
       <c r="A985" s="1" t="n">
         <v>983</v>
       </c>
@@ -20083,7 +20073,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="986" spans="1:6">
+    <row r="986">
       <c r="A986" s="1" t="n">
         <v>984</v>
       </c>
@@ -20103,7 +20093,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="987" spans="1:6">
+    <row r="987">
       <c r="A987" s="1" t="n">
         <v>985</v>
       </c>
@@ -20123,7 +20113,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="988" spans="1:6">
+    <row r="988">
       <c r="A988" s="1" t="n">
         <v>986</v>
       </c>
@@ -20143,7 +20133,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="989" spans="1:6">
+    <row r="989">
       <c r="A989" s="1" t="n">
         <v>987</v>
       </c>
@@ -20163,7 +20153,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="990" spans="1:6">
+    <row r="990">
       <c r="A990" s="1" t="n">
         <v>988</v>
       </c>
@@ -20183,7 +20173,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="991" spans="1:6">
+    <row r="991">
       <c r="A991" s="1" t="n">
         <v>989</v>
       </c>
@@ -20203,7 +20193,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="992" spans="1:6">
+    <row r="992">
       <c r="A992" s="1" t="n">
         <v>990</v>
       </c>
@@ -20223,7 +20213,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="993" spans="1:6">
+    <row r="993">
       <c r="A993" s="1" t="n">
         <v>991</v>
       </c>
@@ -20243,7 +20233,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="994" spans="1:6">
+    <row r="994">
       <c r="A994" s="1" t="n">
         <v>992</v>
       </c>
@@ -20263,7 +20253,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="995" spans="1:6">
+    <row r="995">
       <c r="A995" s="1" t="n">
         <v>993</v>
       </c>
@@ -20283,7 +20273,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="996" spans="1:6">
+    <row r="996">
       <c r="A996" s="1" t="n">
         <v>994</v>
       </c>
@@ -20303,7 +20293,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="997" spans="1:6">
+    <row r="997">
       <c r="A997" s="1" t="n">
         <v>995</v>
       </c>
@@ -20323,7 +20313,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="998" spans="1:6">
+    <row r="998">
       <c r="A998" s="1" t="n">
         <v>996</v>
       </c>
@@ -20343,7 +20333,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="999" spans="1:6">
+    <row r="999">
       <c r="A999" s="1" t="n">
         <v>997</v>
       </c>
@@ -20363,7 +20353,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1000" spans="1:6">
+    <row r="1000">
       <c r="A1000" s="1" t="n">
         <v>998</v>
       </c>
@@ -20383,7 +20373,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1001" spans="1:6">
+    <row r="1001">
       <c r="A1001" s="1" t="n">
         <v>999</v>
       </c>
@@ -20403,7 +20393,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1002" spans="1:6">
+    <row r="1002">
       <c r="A1002" s="1" t="n">
         <v>1000</v>
       </c>
@@ -20423,7 +20413,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1003" spans="1:6">
+    <row r="1003">
       <c r="A1003" s="1" t="n">
         <v>1001</v>
       </c>
@@ -20443,7 +20433,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1004" spans="1:6">
+    <row r="1004">
       <c r="A1004" s="1" t="n">
         <v>1002</v>
       </c>
@@ -20463,7 +20453,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1005" spans="1:6">
+    <row r="1005">
       <c r="A1005" s="1" t="n">
         <v>1003</v>
       </c>
@@ -20483,7 +20473,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1006" spans="1:6">
+    <row r="1006">
       <c r="A1006" s="1" t="n">
         <v>1004</v>
       </c>
@@ -20503,7 +20493,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1007" spans="1:6">
+    <row r="1007">
       <c r="A1007" s="1" t="n">
         <v>1005</v>
       </c>
@@ -20523,7 +20513,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1008" spans="1:6">
+    <row r="1008">
       <c r="A1008" s="1" t="n">
         <v>1006</v>
       </c>
@@ -20543,7 +20533,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1009" spans="1:6">
+    <row r="1009">
       <c r="A1009" s="1" t="n">
         <v>1007</v>
       </c>
@@ -20563,7 +20553,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1010" spans="1:6">
+    <row r="1010">
       <c r="A1010" s="1" t="n">
         <v>1008</v>
       </c>
@@ -20583,7 +20573,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1011" spans="1:6">
+    <row r="1011">
       <c r="A1011" s="1" t="n">
         <v>1009</v>
       </c>
@@ -20603,7 +20593,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1012" spans="1:6">
+    <row r="1012">
       <c r="A1012" s="1" t="n">
         <v>1010</v>
       </c>
@@ -20623,7 +20613,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1013" spans="1:6">
+    <row r="1013">
       <c r="A1013" s="1" t="n">
         <v>1011</v>
       </c>
@@ -20643,7 +20633,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1014" spans="1:6">
+    <row r="1014">
       <c r="A1014" s="1" t="n">
         <v>1012</v>
       </c>
@@ -20663,7 +20653,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1015" spans="1:6">
+    <row r="1015">
       <c r="A1015" s="1" t="n">
         <v>1013</v>
       </c>
@@ -20683,7 +20673,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1016" spans="1:6">
+    <row r="1016">
       <c r="A1016" s="1" t="n">
         <v>1014</v>
       </c>
@@ -20703,7 +20693,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1017" spans="1:6">
+    <row r="1017">
       <c r="A1017" s="1" t="n">
         <v>1015</v>
       </c>
@@ -20723,7 +20713,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1018" spans="1:6">
+    <row r="1018">
       <c r="A1018" s="1" t="n">
         <v>1016</v>
       </c>
@@ -20743,7 +20733,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1019" spans="1:6">
+    <row r="1019">
       <c r="A1019" s="1" t="n">
         <v>1017</v>
       </c>
@@ -20763,7 +20753,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1020" spans="1:6">
+    <row r="1020">
       <c r="A1020" s="1" t="n">
         <v>1018</v>
       </c>
@@ -20783,7 +20773,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1021" spans="1:6">
+    <row r="1021">
       <c r="A1021" s="1" t="n">
         <v>1019</v>
       </c>
@@ -20803,7 +20793,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1022" spans="1:6">
+    <row r="1022">
       <c r="A1022" s="1" t="n">
         <v>1020</v>
       </c>
@@ -20823,7 +20813,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1023" spans="1:6">
+    <row r="1023">
       <c r="A1023" s="1" t="n">
         <v>1021</v>
       </c>
@@ -20843,7 +20833,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1024" spans="1:6">
+    <row r="1024">
       <c r="A1024" s="1" t="n">
         <v>1022</v>
       </c>
@@ -20863,7 +20853,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1025" spans="1:6">
+    <row r="1025">
       <c r="A1025" s="1" t="n">
         <v>1023</v>
       </c>
@@ -20883,7 +20873,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1026" spans="1:6">
+    <row r="1026">
       <c r="A1026" s="1" t="n">
         <v>1024</v>
       </c>
@@ -20903,7 +20893,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1027" spans="1:6">
+    <row r="1027">
       <c r="A1027" s="1" t="n">
         <v>1025</v>
       </c>
@@ -20923,7 +20913,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1028" spans="1:6">
+    <row r="1028">
       <c r="A1028" s="1" t="n">
         <v>1026</v>
       </c>
@@ -20943,7 +20933,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1029" spans="1:6">
+    <row r="1029">
       <c r="A1029" s="1" t="n">
         <v>1027</v>
       </c>
@@ -20963,7 +20953,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1030" spans="1:6">
+    <row r="1030">
       <c r="A1030" s="1" t="n">
         <v>1028</v>
       </c>
@@ -20983,7 +20973,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1031" spans="1:6">
+    <row r="1031">
       <c r="A1031" s="1" t="n">
         <v>1029</v>
       </c>
@@ -21003,7 +20993,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1032" spans="1:6">
+    <row r="1032">
       <c r="A1032" s="1" t="n">
         <v>1030</v>
       </c>
@@ -21023,7 +21013,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1033" spans="1:6">
+    <row r="1033">
       <c r="A1033" s="1" t="n">
         <v>1031</v>
       </c>
@@ -21043,7 +21033,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1034" spans="1:6">
+    <row r="1034">
       <c r="A1034" s="1" t="n">
         <v>1032</v>
       </c>
@@ -21063,7 +21053,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1035" spans="1:6">
+    <row r="1035">
       <c r="A1035" s="1" t="n">
         <v>1033</v>
       </c>
@@ -21083,7 +21073,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1036" spans="1:6">
+    <row r="1036">
       <c r="A1036" s="1" t="n">
         <v>1034</v>
       </c>
@@ -21103,7 +21093,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1037" spans="1:6">
+    <row r="1037">
       <c r="A1037" s="1" t="n">
         <v>1035</v>
       </c>
@@ -21123,7 +21113,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1038" spans="1:6">
+    <row r="1038">
       <c r="A1038" s="1" t="n">
         <v>1036</v>
       </c>
@@ -21143,7 +21133,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1039" spans="1:6">
+    <row r="1039">
       <c r="A1039" s="1" t="n">
         <v>1037</v>
       </c>
@@ -21163,7 +21153,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1040" spans="1:6">
+    <row r="1040">
       <c r="A1040" s="1" t="n">
         <v>1038</v>
       </c>
@@ -21183,7 +21173,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1041" spans="1:6">
+    <row r="1041">
       <c r="A1041" s="1" t="n">
         <v>1039</v>
       </c>
@@ -21203,7 +21193,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1042" spans="1:6">
+    <row r="1042">
       <c r="A1042" s="1" t="n">
         <v>1040</v>
       </c>
@@ -21223,7 +21213,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1043" spans="1:6">
+    <row r="1043">
       <c r="A1043" s="1" t="n">
         <v>1041</v>
       </c>
@@ -21243,7 +21233,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1044" spans="1:6">
+    <row r="1044">
       <c r="A1044" s="1" t="n">
         <v>1042</v>
       </c>
@@ -21263,7 +21253,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1045" spans="1:6">
+    <row r="1045">
       <c r="A1045" s="1" t="n">
         <v>1043</v>
       </c>
@@ -21283,7 +21273,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1046" spans="1:6">
+    <row r="1046">
       <c r="A1046" s="1" t="n">
         <v>1044</v>
       </c>
@@ -21303,7 +21293,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1047" spans="1:6">
+    <row r="1047">
       <c r="A1047" s="1" t="n">
         <v>1045</v>
       </c>
@@ -21323,7 +21313,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1048" spans="1:6">
+    <row r="1048">
       <c r="A1048" s="1" t="n">
         <v>1046</v>
       </c>
@@ -21343,7 +21333,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1049" spans="1:6">
+    <row r="1049">
       <c r="A1049" s="1" t="n">
         <v>1047</v>
       </c>
@@ -21363,7 +21353,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1050" spans="1:6">
+    <row r="1050">
       <c r="A1050" s="1" t="n">
         <v>1048</v>
       </c>
@@ -21383,7 +21373,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1051" spans="1:6">
+    <row r="1051">
       <c r="A1051" s="1" t="n">
         <v>1049</v>
       </c>
@@ -21403,7 +21393,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1052" spans="1:6">
+    <row r="1052">
       <c r="A1052" s="1" t="n">
         <v>1050</v>
       </c>
@@ -21423,7 +21413,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1053" spans="1:6">
+    <row r="1053">
       <c r="A1053" s="1" t="n">
         <v>1051</v>
       </c>
@@ -21443,7 +21433,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1054" spans="1:6">
+    <row r="1054">
       <c r="A1054" s="1" t="n">
         <v>1052</v>
       </c>
@@ -21463,7 +21453,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1055" spans="1:6">
+    <row r="1055">
       <c r="A1055" s="1" t="n">
         <v>1053</v>
       </c>
@@ -21483,7 +21473,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1056" spans="1:6">
+    <row r="1056">
       <c r="A1056" s="1" t="n">
         <v>1054</v>
       </c>
@@ -21503,7 +21493,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1057" spans="1:6">
+    <row r="1057">
       <c r="A1057" s="1" t="n">
         <v>1055</v>
       </c>
@@ -21523,7 +21513,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1058" spans="1:6">
+    <row r="1058">
       <c r="A1058" s="1" t="n">
         <v>1056</v>
       </c>
@@ -21543,7 +21533,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1059" spans="1:6">
+    <row r="1059">
       <c r="A1059" s="1" t="n">
         <v>1057</v>
       </c>
@@ -21563,7 +21553,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1060" spans="1:6">
+    <row r="1060">
       <c r="A1060" s="1" t="n">
         <v>1058</v>
       </c>
@@ -21583,7 +21573,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1061" spans="1:6">
+    <row r="1061">
       <c r="A1061" s="1" t="n">
         <v>1059</v>
       </c>
@@ -21603,7 +21593,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1062" spans="1:6">
+    <row r="1062">
       <c r="A1062" s="1" t="n">
         <v>1060</v>
       </c>
@@ -21623,7 +21613,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1063" spans="1:6">
+    <row r="1063">
       <c r="A1063" s="1" t="n">
         <v>1061</v>
       </c>
@@ -21643,7 +21633,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1064" spans="1:6">
+    <row r="1064">
       <c r="A1064" s="1" t="n">
         <v>1062</v>
       </c>
@@ -21663,7 +21653,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1065" spans="1:6">
+    <row r="1065">
       <c r="A1065" s="1" t="n">
         <v>1063</v>
       </c>
@@ -21683,7 +21673,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1066" spans="1:6">
+    <row r="1066">
       <c r="A1066" s="1" t="n">
         <v>1064</v>
       </c>
@@ -21703,7 +21693,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1067" spans="1:6">
+    <row r="1067">
       <c r="A1067" s="1" t="n">
         <v>1065</v>
       </c>
@@ -21723,7 +21713,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1068" spans="1:6">
+    <row r="1068">
       <c r="A1068" s="1" t="n">
         <v>1066</v>
       </c>
@@ -21743,7 +21733,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1069" spans="1:6">
+    <row r="1069">
       <c r="A1069" s="1" t="n">
         <v>1067</v>
       </c>
@@ -21763,7 +21753,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1070" spans="1:6">
+    <row r="1070">
       <c r="A1070" s="1" t="n">
         <v>1068</v>
       </c>
@@ -21783,7 +21773,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1071" spans="1:6">
+    <row r="1071">
       <c r="A1071" s="1" t="n">
         <v>1069</v>
       </c>
@@ -21803,7 +21793,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1072" spans="1:6">
+    <row r="1072">
       <c r="A1072" s="1" t="n">
         <v>1070</v>
       </c>
@@ -21823,7 +21813,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1073" spans="1:6">
+    <row r="1073">
       <c r="A1073" s="1" t="n">
         <v>1071</v>
       </c>
@@ -21843,7 +21833,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1074" spans="1:6">
+    <row r="1074">
       <c r="A1074" s="1" t="n">
         <v>1072</v>
       </c>
@@ -21863,7 +21853,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1075" spans="1:6">
+    <row r="1075">
       <c r="A1075" s="1" t="n">
         <v>1073</v>
       </c>
@@ -21883,7 +21873,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1076" spans="1:6">
+    <row r="1076">
       <c r="A1076" s="1" t="n">
         <v>1074</v>
       </c>
@@ -21903,7 +21893,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1077" spans="1:6">
+    <row r="1077">
       <c r="A1077" s="1" t="n">
         <v>1075</v>
       </c>
@@ -21923,7 +21913,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1078" spans="1:6">
+    <row r="1078">
       <c r="A1078" s="1" t="n">
         <v>1076</v>
       </c>
@@ -21943,7 +21933,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1079" spans="1:6">
+    <row r="1079">
       <c r="A1079" s="1" t="n">
         <v>1077</v>
       </c>
@@ -21963,7 +21953,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1080" spans="1:6">
+    <row r="1080">
       <c r="A1080" s="1" t="n">
         <v>1078</v>
       </c>
@@ -21983,7 +21973,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1081" spans="1:6">
+    <row r="1081">
       <c r="A1081" s="1" t="n">
         <v>1079</v>
       </c>
@@ -22003,7 +21993,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1082" spans="1:6">
+    <row r="1082">
       <c r="A1082" s="1" t="n">
         <v>1080</v>
       </c>
@@ -22023,7 +22013,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1083" spans="1:6">
+    <row r="1083">
       <c r="A1083" s="1" t="n">
         <v>1081</v>
       </c>
@@ -22043,7 +22033,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1084" spans="1:6">
+    <row r="1084">
       <c r="A1084" s="1" t="n">
         <v>1082</v>
       </c>
@@ -22063,7 +22053,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1085" spans="1:6">
+    <row r="1085">
       <c r="A1085" s="1" t="n">
         <v>1083</v>
       </c>
@@ -22083,7 +22073,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1086" spans="1:6">
+    <row r="1086">
       <c r="A1086" s="1" t="n">
         <v>1084</v>
       </c>
@@ -22103,7 +22093,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1087" spans="1:6">
+    <row r="1087">
       <c r="A1087" s="1" t="n">
         <v>1085</v>
       </c>
@@ -22123,7 +22113,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1088" spans="1:6">
+    <row r="1088">
       <c r="A1088" s="1" t="n">
         <v>1086</v>
       </c>
@@ -22143,7 +22133,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1089" spans="1:6">
+    <row r="1089">
       <c r="A1089" s="1" t="n">
         <v>1087</v>
       </c>
@@ -22163,7 +22153,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1090" spans="1:6">
+    <row r="1090">
       <c r="A1090" s="1" t="n">
         <v>1088</v>
       </c>
@@ -22183,7 +22173,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1091" spans="1:6">
+    <row r="1091">
       <c r="A1091" s="1" t="n">
         <v>1089</v>
       </c>
@@ -22203,7 +22193,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1092" spans="1:6">
+    <row r="1092">
       <c r="A1092" s="1" t="n">
         <v>1090</v>
       </c>
@@ -22223,7 +22213,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1093" spans="1:6">
+    <row r="1093">
       <c r="A1093" s="1" t="n">
         <v>1091</v>
       </c>
@@ -22243,7 +22233,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1094" spans="1:6">
+    <row r="1094">
       <c r="A1094" s="1" t="n">
         <v>1092</v>
       </c>
@@ -22263,7 +22253,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1095" spans="1:6">
+    <row r="1095">
       <c r="A1095" s="1" t="n">
         <v>1093</v>
       </c>
@@ -22283,7 +22273,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1096" spans="1:6">
+    <row r="1096">
       <c r="A1096" s="1" t="n">
         <v>1094</v>
       </c>

--- a/Stochastic_engine/Gas_prices/NG.xlsx
+++ b/Stochastic_engine/Gas_prices/NG.xlsx
@@ -12,6 +12,26 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+  <si>
+    <t>SCE</t>
+  </si>
+  <si>
+    <t>SDGE</t>
+  </si>
+  <si>
+    <t>PGE_valley</t>
+  </si>
+  <si>
+    <t>PGE_bay</t>
+  </si>
+  <si>
+    <t>PNW</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -366,34 +386,24 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>SCE</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>SDGE</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>PGE_valley</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PGE_bay</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>PNW</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -413,7 +423,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
@@ -433,7 +443,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
@@ -453,7 +463,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
@@ -473,7 +483,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
@@ -493,7 +503,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
@@ -513,7 +523,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
@@ -533,7 +543,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
@@ -553,7 +563,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
@@ -573,7 +583,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
@@ -593,7 +603,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
@@ -613,7 +623,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
@@ -633,7 +643,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
@@ -653,7 +663,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
@@ -673,7 +683,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
@@ -693,7 +703,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
@@ -713,7 +723,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
@@ -733,7 +743,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
@@ -753,7 +763,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
@@ -773,7 +783,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
@@ -793,7 +803,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
@@ -813,7 +823,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
@@ -833,7 +843,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
@@ -853,7 +863,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
@@ -873,7 +883,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
@@ -893,7 +903,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
@@ -913,7 +923,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
@@ -933,7 +943,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
@@ -953,7 +963,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
@@ -973,7 +983,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
@@ -993,7 +1003,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
@@ -1013,7 +1023,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
@@ -1033,7 +1043,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
@@ -1053,7 +1063,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
@@ -1073,7 +1083,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
@@ -1093,7 +1103,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
@@ -1113,7 +1123,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
@@ -1133,7 +1143,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
@@ -1153,7 +1163,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
@@ -1173,7 +1183,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
@@ -1193,7 +1203,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
@@ -1213,7 +1223,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
@@ -1233,7 +1243,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
@@ -1253,7 +1263,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
@@ -1273,7 +1283,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
@@ -1293,7 +1303,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
@@ -1313,7 +1323,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
@@ -1333,7 +1343,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
@@ -1353,7 +1363,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
@@ -1373,7 +1383,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
@@ -1393,7 +1403,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
@@ -1413,7 +1423,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
@@ -1433,7 +1443,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
@@ -1453,7 +1463,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
@@ -1473,7 +1483,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
@@ -1493,7 +1503,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
@@ -1513,7 +1523,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
@@ -1533,7 +1543,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
@@ -1553,7 +1563,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
@@ -1573,7 +1583,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
@@ -1593,7 +1603,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
@@ -1613,7 +1623,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
@@ -1633,7 +1643,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
@@ -1653,7 +1663,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
@@ -1673,7 +1683,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
@@ -1693,7 +1703,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
@@ -1713,7 +1723,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
@@ -1733,7 +1743,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
@@ -1753,7 +1763,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
@@ -1773,7 +1783,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
@@ -1793,7 +1803,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
@@ -1813,7 +1823,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
@@ -1833,7 +1843,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
@@ -1853,7 +1863,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
@@ -1873,7 +1883,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
@@ -1893,7 +1903,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
@@ -1913,7 +1923,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
@@ -1933,7 +1943,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
@@ -1953,7 +1963,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
@@ -1973,7 +1983,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
@@ -1993,7 +2003,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
@@ -2013,7 +2023,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
@@ -2033,7 +2043,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
@@ -2053,7 +2063,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
@@ -2073,7 +2083,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
@@ -2093,7 +2103,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
@@ -2113,7 +2123,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
@@ -2133,7 +2143,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
@@ -2153,7 +2163,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
@@ -2173,7 +2183,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
@@ -2193,7 +2203,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
@@ -2213,7 +2223,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
@@ -2233,7 +2243,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
@@ -2253,7 +2263,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
@@ -2273,7 +2283,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
@@ -2293,7 +2303,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
@@ -2313,7 +2323,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
@@ -2333,7 +2343,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
@@ -2353,7 +2363,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
@@ -2373,7 +2383,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
@@ -2393,7 +2403,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
@@ -2413,7 +2423,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
@@ -2433,7 +2443,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
@@ -2453,7 +2463,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:6">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
@@ -2473,7 +2483,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:6">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
@@ -2493,7 +2503,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:6">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
@@ -2513,7 +2523,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:6">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
@@ -2533,7 +2543,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:6">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
@@ -2553,7 +2563,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:6">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
@@ -2573,7 +2583,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:6">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
@@ -2593,7 +2603,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:6">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
@@ -2613,7 +2623,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:6">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
@@ -2633,7 +2643,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:6">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
@@ -2653,7 +2663,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:6">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
@@ -2673,7 +2683,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:6">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
@@ -2693,7 +2703,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:6">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
@@ -2713,7 +2723,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:6">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
@@ -2733,7 +2743,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:6">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
@@ -2753,7 +2763,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:6">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
@@ -2773,7 +2783,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:6">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
@@ -2793,7 +2803,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:6">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
@@ -2813,7 +2823,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:6">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
@@ -2833,7 +2843,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:6">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
@@ -2853,7 +2863,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:6">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
@@ -2873,7 +2883,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:6">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
@@ -2893,7 +2903,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:6">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
@@ -2913,7 +2923,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:6">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
@@ -2933,7 +2943,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:6">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
@@ -2953,7 +2963,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:6">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
@@ -2973,7 +2983,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:6">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
@@ -2993,7 +3003,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:6">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
@@ -3013,7 +3023,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:6">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
@@ -3033,7 +3043,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:6">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
@@ -3053,7 +3063,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:6">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
@@ -3073,7 +3083,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:6">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
@@ -3093,7 +3103,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:6">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
@@ -3113,7 +3123,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:6">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
@@ -3133,7 +3143,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:6">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
@@ -3153,7 +3163,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:6">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
@@ -3173,7 +3183,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:6">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
@@ -3193,7 +3203,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:6">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
@@ -3213,7 +3223,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:6">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
@@ -3233,7 +3243,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:6">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
@@ -3253,7 +3263,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:6">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
@@ -3273,7 +3283,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:6">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
@@ -3293,7 +3303,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:6">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
@@ -3313,7 +3323,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:6">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
@@ -3333,7 +3343,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:6">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
@@ -3353,7 +3363,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:6">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
@@ -3373,7 +3383,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:6">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
@@ -3393,7 +3403,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:6">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
@@ -3413,7 +3423,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:6">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
@@ -3433,7 +3443,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:6">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
@@ -3453,7 +3463,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:6">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
@@ -3473,7 +3483,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:6">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
@@ -3493,7 +3503,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:6">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
@@ -3513,7 +3523,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:6">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
@@ -3533,7 +3543,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:6">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
@@ -3553,7 +3563,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:6">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
@@ -3573,7 +3583,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:6">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
@@ -3593,7 +3603,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:6">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
@@ -3613,7 +3623,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:6">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
@@ -3633,7 +3643,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:6">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
@@ -3653,7 +3663,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:6">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
@@ -3673,7 +3683,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:6">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
@@ -3693,7 +3703,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:6">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
@@ -3713,7 +3723,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:6">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
@@ -3733,7 +3743,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:6">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
@@ -3753,7 +3763,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:6">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
@@ -3773,7 +3783,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:6">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
@@ -3793,7 +3803,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:6">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
@@ -3813,7 +3823,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:6">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
@@ -3833,7 +3843,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:6">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
@@ -3853,7 +3863,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:6">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
@@ -3873,7 +3883,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:6">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
@@ -3893,7 +3903,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:6">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
@@ -3913,7 +3923,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:6">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
@@ -3933,7 +3943,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:6">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
@@ -3953,7 +3963,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:6">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
@@ -3973,7 +3983,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:6">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
@@ -3993,7 +4003,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:6">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
@@ -4013,7 +4023,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:6">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
@@ -4033,7 +4043,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:6">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
@@ -4053,7 +4063,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:6">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
@@ -4073,7 +4083,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:6">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
@@ -4093,7 +4103,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:6">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
@@ -4113,7 +4123,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:6">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
@@ -4133,7 +4143,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:6">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
@@ -4153,7 +4163,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:6">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
@@ -4173,7 +4183,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:6">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
@@ -4193,7 +4203,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:6">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
@@ -4213,7 +4223,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:6">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
@@ -4233,7 +4243,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:6">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
@@ -4253,7 +4263,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:6">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
@@ -4273,7 +4283,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:6">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
@@ -4293,7 +4303,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:6">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
@@ -4313,7 +4323,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:6">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
@@ -4333,7 +4343,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:6">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
@@ -4353,7 +4363,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:6">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
@@ -4373,7 +4383,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:6">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
@@ -4393,7 +4403,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:6">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
@@ -4413,7 +4423,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:6">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
@@ -4433,7 +4443,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:6">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
@@ -4453,7 +4463,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:6">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
@@ -4473,7 +4483,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:6">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
@@ -4493,7 +4503,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:6">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
@@ -4513,7 +4523,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:6">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
@@ -4533,7 +4543,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:6">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
@@ -4553,7 +4563,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:6">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
@@ -4573,7 +4583,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:6">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
@@ -4593,7 +4603,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:6">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
@@ -4613,7 +4623,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:6">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
@@ -4633,7 +4643,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:6">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
@@ -4653,7 +4663,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:6">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
@@ -4673,7 +4683,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:6">
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
@@ -4693,7 +4703,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:6">
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
@@ -4713,7 +4723,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:6">
       <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
@@ -4733,7 +4743,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:6">
       <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
@@ -4753,7 +4763,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:6">
       <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
@@ -4773,7 +4783,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:6">
       <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
@@ -4793,7 +4803,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:6">
       <c r="A222" s="1" t="n">
         <v>220</v>
       </c>
@@ -4813,7 +4823,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:6">
       <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
@@ -4833,7 +4843,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:6">
       <c r="A224" s="1" t="n">
         <v>222</v>
       </c>
@@ -4853,7 +4863,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:6">
       <c r="A225" s="1" t="n">
         <v>223</v>
       </c>
@@ -4873,7 +4883,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:6">
       <c r="A226" s="1" t="n">
         <v>224</v>
       </c>
@@ -4893,7 +4903,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:6">
       <c r="A227" s="1" t="n">
         <v>225</v>
       </c>
@@ -4913,7 +4923,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:6">
       <c r="A228" s="1" t="n">
         <v>226</v>
       </c>
@@ -4933,7 +4943,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:6">
       <c r="A229" s="1" t="n">
         <v>227</v>
       </c>
@@ -4953,7 +4963,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:6">
       <c r="A230" s="1" t="n">
         <v>228</v>
       </c>
@@ -4973,7 +4983,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:6">
       <c r="A231" s="1" t="n">
         <v>229</v>
       </c>
@@ -4993,7 +5003,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:6">
       <c r="A232" s="1" t="n">
         <v>230</v>
       </c>
@@ -5013,7 +5023,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:6">
       <c r="A233" s="1" t="n">
         <v>231</v>
       </c>
@@ -5033,7 +5043,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:6">
       <c r="A234" s="1" t="n">
         <v>232</v>
       </c>
@@ -5053,7 +5063,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:6">
       <c r="A235" s="1" t="n">
         <v>233</v>
       </c>
@@ -5073,7 +5083,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:6">
       <c r="A236" s="1" t="n">
         <v>234</v>
       </c>
@@ -5093,7 +5103,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:6">
       <c r="A237" s="1" t="n">
         <v>235</v>
       </c>
@@ -5113,7 +5123,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:6">
       <c r="A238" s="1" t="n">
         <v>236</v>
       </c>
@@ -5133,7 +5143,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:6">
       <c r="A239" s="1" t="n">
         <v>237</v>
       </c>
@@ -5153,7 +5163,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:6">
       <c r="A240" s="1" t="n">
         <v>238</v>
       </c>
@@ -5173,7 +5183,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:6">
       <c r="A241" s="1" t="n">
         <v>239</v>
       </c>
@@ -5193,7 +5203,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:6">
       <c r="A242" s="1" t="n">
         <v>240</v>
       </c>
@@ -5213,7 +5223,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:6">
       <c r="A243" s="1" t="n">
         <v>241</v>
       </c>
@@ -5233,7 +5243,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:6">
       <c r="A244" s="1" t="n">
         <v>242</v>
       </c>
@@ -5253,7 +5263,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:6">
       <c r="A245" s="1" t="n">
         <v>243</v>
       </c>
@@ -5273,7 +5283,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:6">
       <c r="A246" s="1" t="n">
         <v>244</v>
       </c>
@@ -5293,7 +5303,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:6">
       <c r="A247" s="1" t="n">
         <v>245</v>
       </c>
@@ -5313,7 +5323,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:6">
       <c r="A248" s="1" t="n">
         <v>246</v>
       </c>
@@ -5333,7 +5343,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:6">
       <c r="A249" s="1" t="n">
         <v>247</v>
       </c>
@@ -5353,7 +5363,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:6">
       <c r="A250" s="1" t="n">
         <v>248</v>
       </c>
@@ -5373,7 +5383,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:6">
       <c r="A251" s="1" t="n">
         <v>249</v>
       </c>
@@ -5393,7 +5403,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:6">
       <c r="A252" s="1" t="n">
         <v>250</v>
       </c>
@@ -5413,7 +5423,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:6">
       <c r="A253" s="1" t="n">
         <v>251</v>
       </c>
@@ -5433,7 +5443,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:6">
       <c r="A254" s="1" t="n">
         <v>252</v>
       </c>
@@ -5453,7 +5463,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:6">
       <c r="A255" s="1" t="n">
         <v>253</v>
       </c>
@@ -5473,7 +5483,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:6">
       <c r="A256" s="1" t="n">
         <v>254</v>
       </c>
@@ -5493,7 +5503,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:6">
       <c r="A257" s="1" t="n">
         <v>255</v>
       </c>
@@ -5513,7 +5523,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:6">
       <c r="A258" s="1" t="n">
         <v>256</v>
       </c>
@@ -5533,7 +5543,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:6">
       <c r="A259" s="1" t="n">
         <v>257</v>
       </c>
@@ -5553,7 +5563,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:6">
       <c r="A260" s="1" t="n">
         <v>258</v>
       </c>
@@ -5573,7 +5583,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:6">
       <c r="A261" s="1" t="n">
         <v>259</v>
       </c>
@@ -5593,7 +5603,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:6">
       <c r="A262" s="1" t="n">
         <v>260</v>
       </c>
@@ -5613,7 +5623,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:6">
       <c r="A263" s="1" t="n">
         <v>261</v>
       </c>
@@ -5633,7 +5643,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:6">
       <c r="A264" s="1" t="n">
         <v>262</v>
       </c>
@@ -5653,7 +5663,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:6">
       <c r="A265" s="1" t="n">
         <v>263</v>
       </c>
@@ -5673,7 +5683,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:6">
       <c r="A266" s="1" t="n">
         <v>264</v>
       </c>
@@ -5693,7 +5703,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:6">
       <c r="A267" s="1" t="n">
         <v>265</v>
       </c>
@@ -5713,7 +5723,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:6">
       <c r="A268" s="1" t="n">
         <v>266</v>
       </c>
@@ -5733,7 +5743,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:6">
       <c r="A269" s="1" t="n">
         <v>267</v>
       </c>
@@ -5753,7 +5763,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:6">
       <c r="A270" s="1" t="n">
         <v>268</v>
       </c>
@@ -5773,7 +5783,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:6">
       <c r="A271" s="1" t="n">
         <v>269</v>
       </c>
@@ -5793,7 +5803,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:6">
       <c r="A272" s="1" t="n">
         <v>270</v>
       </c>
@@ -5813,7 +5823,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:6">
       <c r="A273" s="1" t="n">
         <v>271</v>
       </c>
@@ -5833,7 +5843,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:6">
       <c r="A274" s="1" t="n">
         <v>272</v>
       </c>
@@ -5853,7 +5863,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:6">
       <c r="A275" s="1" t="n">
         <v>273</v>
       </c>
@@ -5873,7 +5883,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:6">
       <c r="A276" s="1" t="n">
         <v>274</v>
       </c>
@@ -5893,7 +5903,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:6">
       <c r="A277" s="1" t="n">
         <v>275</v>
       </c>
@@ -5913,7 +5923,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:6">
       <c r="A278" s="1" t="n">
         <v>276</v>
       </c>
@@ -5933,7 +5943,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:6">
       <c r="A279" s="1" t="n">
         <v>277</v>
       </c>
@@ -5953,7 +5963,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:6">
       <c r="A280" s="1" t="n">
         <v>278</v>
       </c>
@@ -5973,7 +5983,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:6">
       <c r="A281" s="1" t="n">
         <v>279</v>
       </c>
@@ -5993,7 +6003,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:6">
       <c r="A282" s="1" t="n">
         <v>280</v>
       </c>
@@ -6013,7 +6023,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:6">
       <c r="A283" s="1" t="n">
         <v>281</v>
       </c>
@@ -6033,7 +6043,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="1:6">
       <c r="A284" s="1" t="n">
         <v>282</v>
       </c>
@@ -6053,7 +6063,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:6">
       <c r="A285" s="1" t="n">
         <v>283</v>
       </c>
@@ -6073,7 +6083,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:6">
       <c r="A286" s="1" t="n">
         <v>284</v>
       </c>
@@ -6093,7 +6103,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="1:6">
       <c r="A287" s="1" t="n">
         <v>285</v>
       </c>
@@ -6113,7 +6123,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="1:6">
       <c r="A288" s="1" t="n">
         <v>286</v>
       </c>
@@ -6133,7 +6143,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" spans="1:6">
       <c r="A289" s="1" t="n">
         <v>287</v>
       </c>
@@ -6153,7 +6163,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:6">
       <c r="A290" s="1" t="n">
         <v>288</v>
       </c>
@@ -6173,7 +6183,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="1:6">
       <c r="A291" s="1" t="n">
         <v>289</v>
       </c>
@@ -6193,7 +6203,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="1:6">
       <c r="A292" s="1" t="n">
         <v>290</v>
       </c>
@@ -6213,7 +6223,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:6">
       <c r="A293" s="1" t="n">
         <v>291</v>
       </c>
@@ -6233,7 +6243,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" spans="1:6">
       <c r="A294" s="1" t="n">
         <v>292</v>
       </c>
@@ -6253,7 +6263,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" spans="1:6">
       <c r="A295" s="1" t="n">
         <v>293</v>
       </c>
@@ -6273,7 +6283,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" spans="1:6">
       <c r="A296" s="1" t="n">
         <v>294</v>
       </c>
@@ -6293,7 +6303,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" spans="1:6">
       <c r="A297" s="1" t="n">
         <v>295</v>
       </c>
@@ -6313,7 +6323,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:6">
       <c r="A298" s="1" t="n">
         <v>296</v>
       </c>
@@ -6333,7 +6343,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="1:6">
       <c r="A299" s="1" t="n">
         <v>297</v>
       </c>
@@ -6353,7 +6363,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="1:6">
       <c r="A300" s="1" t="n">
         <v>298</v>
       </c>
@@ -6373,7 +6383,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" spans="1:6">
       <c r="A301" s="1" t="n">
         <v>299</v>
       </c>
@@ -6393,7 +6403,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" spans="1:6">
       <c r="A302" s="1" t="n">
         <v>300</v>
       </c>
@@ -6413,7 +6423,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="303">
+    <row r="303" spans="1:6">
       <c r="A303" s="1" t="n">
         <v>301</v>
       </c>
@@ -6433,7 +6443,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" spans="1:6">
       <c r="A304" s="1" t="n">
         <v>302</v>
       </c>
@@ -6453,7 +6463,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" spans="1:6">
       <c r="A305" s="1" t="n">
         <v>303</v>
       </c>
@@ -6473,7 +6483,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" spans="1:6">
       <c r="A306" s="1" t="n">
         <v>304</v>
       </c>
@@ -6493,7 +6503,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="307">
+    <row r="307" spans="1:6">
       <c r="A307" s="1" t="n">
         <v>305</v>
       </c>
@@ -6513,7 +6523,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="308">
+    <row r="308" spans="1:6">
       <c r="A308" s="1" t="n">
         <v>306</v>
       </c>
@@ -6533,7 +6543,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" spans="1:6">
       <c r="A309" s="1" t="n">
         <v>307</v>
       </c>
@@ -6553,7 +6563,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" spans="1:6">
       <c r="A310" s="1" t="n">
         <v>308</v>
       </c>
@@ -6573,7 +6583,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" spans="1:6">
       <c r="A311" s="1" t="n">
         <v>309</v>
       </c>
@@ -6593,7 +6603,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" spans="1:6">
       <c r="A312" s="1" t="n">
         <v>310</v>
       </c>
@@ -6613,7 +6623,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" spans="1:6">
       <c r="A313" s="1" t="n">
         <v>311</v>
       </c>
@@ -6633,7 +6643,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="314">
+    <row r="314" spans="1:6">
       <c r="A314" s="1" t="n">
         <v>312</v>
       </c>
@@ -6653,7 +6663,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="315">
+    <row r="315" spans="1:6">
       <c r="A315" s="1" t="n">
         <v>313</v>
       </c>
@@ -6673,7 +6683,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="316">
+    <row r="316" spans="1:6">
       <c r="A316" s="1" t="n">
         <v>314</v>
       </c>
@@ -6693,7 +6703,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" spans="1:6">
       <c r="A317" s="1" t="n">
         <v>315</v>
       </c>
@@ -6713,7 +6723,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="318">
+    <row r="318" spans="1:6">
       <c r="A318" s="1" t="n">
         <v>316</v>
       </c>
@@ -6733,7 +6743,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="319">
+    <row r="319" spans="1:6">
       <c r="A319" s="1" t="n">
         <v>317</v>
       </c>
@@ -6753,7 +6763,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="320">
+    <row r="320" spans="1:6">
       <c r="A320" s="1" t="n">
         <v>318</v>
       </c>
@@ -6773,7 +6783,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="321">
+    <row r="321" spans="1:6">
       <c r="A321" s="1" t="n">
         <v>319</v>
       </c>
@@ -6793,7 +6803,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" spans="1:6">
       <c r="A322" s="1" t="n">
         <v>320</v>
       </c>
@@ -6813,7 +6823,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="323">
+    <row r="323" spans="1:6">
       <c r="A323" s="1" t="n">
         <v>321</v>
       </c>
@@ -6833,7 +6843,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="324">
+    <row r="324" spans="1:6">
       <c r="A324" s="1" t="n">
         <v>322</v>
       </c>
@@ -6853,7 +6863,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="325">
+    <row r="325" spans="1:6">
       <c r="A325" s="1" t="n">
         <v>323</v>
       </c>
@@ -6873,7 +6883,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="326">
+    <row r="326" spans="1:6">
       <c r="A326" s="1" t="n">
         <v>324</v>
       </c>
@@ -6893,7 +6903,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="327">
+    <row r="327" spans="1:6">
       <c r="A327" s="1" t="n">
         <v>325</v>
       </c>
@@ -6913,7 +6923,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="328">
+    <row r="328" spans="1:6">
       <c r="A328" s="1" t="n">
         <v>326</v>
       </c>
@@ -6933,7 +6943,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="329">
+    <row r="329" spans="1:6">
       <c r="A329" s="1" t="n">
         <v>327</v>
       </c>
@@ -6953,7 +6963,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="330">
+    <row r="330" spans="1:6">
       <c r="A330" s="1" t="n">
         <v>328</v>
       </c>
@@ -6973,7 +6983,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" spans="1:6">
       <c r="A331" s="1" t="n">
         <v>329</v>
       </c>
@@ -6993,7 +7003,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="332">
+    <row r="332" spans="1:6">
       <c r="A332" s="1" t="n">
         <v>330</v>
       </c>
@@ -7013,7 +7023,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="333">
+    <row r="333" spans="1:6">
       <c r="A333" s="1" t="n">
         <v>331</v>
       </c>
@@ -7033,7 +7043,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" spans="1:6">
       <c r="A334" s="1" t="n">
         <v>332</v>
       </c>
@@ -7053,7 +7063,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="335">
+    <row r="335" spans="1:6">
       <c r="A335" s="1" t="n">
         <v>333</v>
       </c>
@@ -7073,7 +7083,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="336">
+    <row r="336" spans="1:6">
       <c r="A336" s="1" t="n">
         <v>334</v>
       </c>
@@ -7093,7 +7103,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" spans="1:6">
       <c r="A337" s="1" t="n">
         <v>335</v>
       </c>
@@ -7113,7 +7123,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="338">
+    <row r="338" spans="1:6">
       <c r="A338" s="1" t="n">
         <v>336</v>
       </c>
@@ -7133,7 +7143,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="339">
+    <row r="339" spans="1:6">
       <c r="A339" s="1" t="n">
         <v>337</v>
       </c>
@@ -7153,7 +7163,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="340">
+    <row r="340" spans="1:6">
       <c r="A340" s="1" t="n">
         <v>338</v>
       </c>
@@ -7173,7 +7183,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="341">
+    <row r="341" spans="1:6">
       <c r="A341" s="1" t="n">
         <v>339</v>
       </c>
@@ -7193,7 +7203,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="342">
+    <row r="342" spans="1:6">
       <c r="A342" s="1" t="n">
         <v>340</v>
       </c>
@@ -7213,7 +7223,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="343">
+    <row r="343" spans="1:6">
       <c r="A343" s="1" t="n">
         <v>341</v>
       </c>
@@ -7233,7 +7243,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="344">
+    <row r="344" spans="1:6">
       <c r="A344" s="1" t="n">
         <v>342</v>
       </c>
@@ -7253,7 +7263,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="345">
+    <row r="345" spans="1:6">
       <c r="A345" s="1" t="n">
         <v>343</v>
       </c>
@@ -7273,7 +7283,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="346">
+    <row r="346" spans="1:6">
       <c r="A346" s="1" t="n">
         <v>344</v>
       </c>
@@ -7293,7 +7303,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="347">
+    <row r="347" spans="1:6">
       <c r="A347" s="1" t="n">
         <v>345</v>
       </c>
@@ -7313,7 +7323,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="348">
+    <row r="348" spans="1:6">
       <c r="A348" s="1" t="n">
         <v>346</v>
       </c>
@@ -7333,7 +7343,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="349">
+    <row r="349" spans="1:6">
       <c r="A349" s="1" t="n">
         <v>347</v>
       </c>
@@ -7353,7 +7363,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="350">
+    <row r="350" spans="1:6">
       <c r="A350" s="1" t="n">
         <v>348</v>
       </c>
@@ -7373,7 +7383,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="351">
+    <row r="351" spans="1:6">
       <c r="A351" s="1" t="n">
         <v>349</v>
       </c>
@@ -7393,7 +7403,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="352">
+    <row r="352" spans="1:6">
       <c r="A352" s="1" t="n">
         <v>350</v>
       </c>
@@ -7413,7 +7423,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="353">
+    <row r="353" spans="1:6">
       <c r="A353" s="1" t="n">
         <v>351</v>
       </c>
@@ -7433,7 +7443,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="354">
+    <row r="354" spans="1:6">
       <c r="A354" s="1" t="n">
         <v>352</v>
       </c>
@@ -7453,7 +7463,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="355">
+    <row r="355" spans="1:6">
       <c r="A355" s="1" t="n">
         <v>353</v>
       </c>
@@ -7473,7 +7483,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="356">
+    <row r="356" spans="1:6">
       <c r="A356" s="1" t="n">
         <v>354</v>
       </c>
@@ -7493,7 +7503,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="357">
+    <row r="357" spans="1:6">
       <c r="A357" s="1" t="n">
         <v>355</v>
       </c>
@@ -7513,7 +7523,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="358">
+    <row r="358" spans="1:6">
       <c r="A358" s="1" t="n">
         <v>356</v>
       </c>
@@ -7533,7 +7543,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="359">
+    <row r="359" spans="1:6">
       <c r="A359" s="1" t="n">
         <v>357</v>
       </c>
@@ -7553,7 +7563,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="360">
+    <row r="360" spans="1:6">
       <c r="A360" s="1" t="n">
         <v>358</v>
       </c>
@@ -7573,7 +7583,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="361">
+    <row r="361" spans="1:6">
       <c r="A361" s="1" t="n">
         <v>359</v>
       </c>
@@ -7593,7 +7603,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="362">
+    <row r="362" spans="1:6">
       <c r="A362" s="1" t="n">
         <v>360</v>
       </c>
@@ -7613,7 +7623,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="363">
+    <row r="363" spans="1:6">
       <c r="A363" s="1" t="n">
         <v>361</v>
       </c>
@@ -7633,7 +7643,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="364">
+    <row r="364" spans="1:6">
       <c r="A364" s="1" t="n">
         <v>362</v>
       </c>
@@ -7653,7 +7663,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="365">
+    <row r="365" spans="1:6">
       <c r="A365" s="1" t="n">
         <v>363</v>
       </c>
@@ -7673,7 +7683,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="366">
+    <row r="366" spans="1:6">
       <c r="A366" s="1" t="n">
         <v>364</v>
       </c>
@@ -7693,7 +7703,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="367">
+    <row r="367" spans="1:6">
       <c r="A367" s="1" t="n">
         <v>365</v>
       </c>
@@ -7713,7 +7723,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="368">
+    <row r="368" spans="1:6">
       <c r="A368" s="1" t="n">
         <v>366</v>
       </c>
@@ -7733,7 +7743,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="369">
+    <row r="369" spans="1:6">
       <c r="A369" s="1" t="n">
         <v>367</v>
       </c>
@@ -7753,7 +7763,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="370">
+    <row r="370" spans="1:6">
       <c r="A370" s="1" t="n">
         <v>368</v>
       </c>
@@ -7773,7 +7783,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="371">
+    <row r="371" spans="1:6">
       <c r="A371" s="1" t="n">
         <v>369</v>
       </c>
@@ -7793,7 +7803,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="372">
+    <row r="372" spans="1:6">
       <c r="A372" s="1" t="n">
         <v>370</v>
       </c>
@@ -7813,7 +7823,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="373">
+    <row r="373" spans="1:6">
       <c r="A373" s="1" t="n">
         <v>371</v>
       </c>
@@ -7833,7 +7843,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="374">
+    <row r="374" spans="1:6">
       <c r="A374" s="1" t="n">
         <v>372</v>
       </c>
@@ -7853,7 +7863,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="375">
+    <row r="375" spans="1:6">
       <c r="A375" s="1" t="n">
         <v>373</v>
       </c>
@@ -7873,7 +7883,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="376">
+    <row r="376" spans="1:6">
       <c r="A376" s="1" t="n">
         <v>374</v>
       </c>
@@ -7893,7 +7903,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="377">
+    <row r="377" spans="1:6">
       <c r="A377" s="1" t="n">
         <v>375</v>
       </c>
@@ -7913,7 +7923,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="378">
+    <row r="378" spans="1:6">
       <c r="A378" s="1" t="n">
         <v>376</v>
       </c>
@@ -7933,7 +7943,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="379">
+    <row r="379" spans="1:6">
       <c r="A379" s="1" t="n">
         <v>377</v>
       </c>
@@ -7953,7 +7963,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="380">
+    <row r="380" spans="1:6">
       <c r="A380" s="1" t="n">
         <v>378</v>
       </c>
@@ -7973,7 +7983,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="381">
+    <row r="381" spans="1:6">
       <c r="A381" s="1" t="n">
         <v>379</v>
       </c>
@@ -7993,7 +8003,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="382">
+    <row r="382" spans="1:6">
       <c r="A382" s="1" t="n">
         <v>380</v>
       </c>
@@ -8013,7 +8023,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="383">
+    <row r="383" spans="1:6">
       <c r="A383" s="1" t="n">
         <v>381</v>
       </c>
@@ -8033,7 +8043,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="384">
+    <row r="384" spans="1:6">
       <c r="A384" s="1" t="n">
         <v>382</v>
       </c>
@@ -8053,7 +8063,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="385">
+    <row r="385" spans="1:6">
       <c r="A385" s="1" t="n">
         <v>383</v>
       </c>
@@ -8073,7 +8083,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="386">
+    <row r="386" spans="1:6">
       <c r="A386" s="1" t="n">
         <v>384</v>
       </c>
@@ -8093,7 +8103,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="387">
+    <row r="387" spans="1:6">
       <c r="A387" s="1" t="n">
         <v>385</v>
       </c>
@@ -8113,7 +8123,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="388">
+    <row r="388" spans="1:6">
       <c r="A388" s="1" t="n">
         <v>386</v>
       </c>
@@ -8133,7 +8143,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="389">
+    <row r="389" spans="1:6">
       <c r="A389" s="1" t="n">
         <v>387</v>
       </c>
@@ -8153,7 +8163,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="390">
+    <row r="390" spans="1:6">
       <c r="A390" s="1" t="n">
         <v>388</v>
       </c>
@@ -8173,7 +8183,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="391">
+    <row r="391" spans="1:6">
       <c r="A391" s="1" t="n">
         <v>389</v>
       </c>
@@ -8193,7 +8203,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="392">
+    <row r="392" spans="1:6">
       <c r="A392" s="1" t="n">
         <v>390</v>
       </c>
@@ -8213,7 +8223,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="393">
+    <row r="393" spans="1:6">
       <c r="A393" s="1" t="n">
         <v>391</v>
       </c>
@@ -8233,7 +8243,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="394">
+    <row r="394" spans="1:6">
       <c r="A394" s="1" t="n">
         <v>392</v>
       </c>
@@ -8253,7 +8263,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="395">
+    <row r="395" spans="1:6">
       <c r="A395" s="1" t="n">
         <v>393</v>
       </c>
@@ -8273,7 +8283,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="396">
+    <row r="396" spans="1:6">
       <c r="A396" s="1" t="n">
         <v>394</v>
       </c>
@@ -8293,7 +8303,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="397">
+    <row r="397" spans="1:6">
       <c r="A397" s="1" t="n">
         <v>395</v>
       </c>
@@ -8313,7 +8323,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="398">
+    <row r="398" spans="1:6">
       <c r="A398" s="1" t="n">
         <v>396</v>
       </c>
@@ -8333,7 +8343,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="399">
+    <row r="399" spans="1:6">
       <c r="A399" s="1" t="n">
         <v>397</v>
       </c>
@@ -8353,7 +8363,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="400">
+    <row r="400" spans="1:6">
       <c r="A400" s="1" t="n">
         <v>398</v>
       </c>
@@ -8373,7 +8383,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="401">
+    <row r="401" spans="1:6">
       <c r="A401" s="1" t="n">
         <v>399</v>
       </c>
@@ -8393,7 +8403,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="402">
+    <row r="402" spans="1:6">
       <c r="A402" s="1" t="n">
         <v>400</v>
       </c>
@@ -8413,7 +8423,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="403">
+    <row r="403" spans="1:6">
       <c r="A403" s="1" t="n">
         <v>401</v>
       </c>
@@ -8433,7 +8443,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="404">
+    <row r="404" spans="1:6">
       <c r="A404" s="1" t="n">
         <v>402</v>
       </c>
@@ -8453,7 +8463,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="405">
+    <row r="405" spans="1:6">
       <c r="A405" s="1" t="n">
         <v>403</v>
       </c>
@@ -8473,7 +8483,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="406">
+    <row r="406" spans="1:6">
       <c r="A406" s="1" t="n">
         <v>404</v>
       </c>
@@ -8493,7 +8503,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="407">
+    <row r="407" spans="1:6">
       <c r="A407" s="1" t="n">
         <v>405</v>
       </c>
@@ -8513,7 +8523,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="408">
+    <row r="408" spans="1:6">
       <c r="A408" s="1" t="n">
         <v>406</v>
       </c>
@@ -8533,7 +8543,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="409">
+    <row r="409" spans="1:6">
       <c r="A409" s="1" t="n">
         <v>407</v>
       </c>
@@ -8553,7 +8563,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="410">
+    <row r="410" spans="1:6">
       <c r="A410" s="1" t="n">
         <v>408</v>
       </c>
@@ -8573,7 +8583,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="411">
+    <row r="411" spans="1:6">
       <c r="A411" s="1" t="n">
         <v>409</v>
       </c>
@@ -8593,7 +8603,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="412">
+    <row r="412" spans="1:6">
       <c r="A412" s="1" t="n">
         <v>410</v>
       </c>
@@ -8613,7 +8623,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="413">
+    <row r="413" spans="1:6">
       <c r="A413" s="1" t="n">
         <v>411</v>
       </c>
@@ -8633,7 +8643,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="414">
+    <row r="414" spans="1:6">
       <c r="A414" s="1" t="n">
         <v>412</v>
       </c>
@@ -8653,7 +8663,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="415">
+    <row r="415" spans="1:6">
       <c r="A415" s="1" t="n">
         <v>413</v>
       </c>
@@ -8673,7 +8683,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="416">
+    <row r="416" spans="1:6">
       <c r="A416" s="1" t="n">
         <v>414</v>
       </c>
@@ -8693,7 +8703,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="417">
+    <row r="417" spans="1:6">
       <c r="A417" s="1" t="n">
         <v>415</v>
       </c>
@@ -8713,7 +8723,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="418">
+    <row r="418" spans="1:6">
       <c r="A418" s="1" t="n">
         <v>416</v>
       </c>
@@ -8733,7 +8743,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="419">
+    <row r="419" spans="1:6">
       <c r="A419" s="1" t="n">
         <v>417</v>
       </c>
@@ -8753,7 +8763,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="420">
+    <row r="420" spans="1:6">
       <c r="A420" s="1" t="n">
         <v>418</v>
       </c>
@@ -8773,7 +8783,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="421">
+    <row r="421" spans="1:6">
       <c r="A421" s="1" t="n">
         <v>419</v>
       </c>
@@ -8793,7 +8803,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="422">
+    <row r="422" spans="1:6">
       <c r="A422" s="1" t="n">
         <v>420</v>
       </c>
@@ -8813,7 +8823,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="423">
+    <row r="423" spans="1:6">
       <c r="A423" s="1" t="n">
         <v>421</v>
       </c>
@@ -8833,7 +8843,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="424">
+    <row r="424" spans="1:6">
       <c r="A424" s="1" t="n">
         <v>422</v>
       </c>
@@ -8853,7 +8863,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="425">
+    <row r="425" spans="1:6">
       <c r="A425" s="1" t="n">
         <v>423</v>
       </c>
@@ -8873,7 +8883,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="426">
+    <row r="426" spans="1:6">
       <c r="A426" s="1" t="n">
         <v>424</v>
       </c>
@@ -8893,7 +8903,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="427">
+    <row r="427" spans="1:6">
       <c r="A427" s="1" t="n">
         <v>425</v>
       </c>
@@ -8913,7 +8923,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="428">
+    <row r="428" spans="1:6">
       <c r="A428" s="1" t="n">
         <v>426</v>
       </c>
@@ -8933,7 +8943,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="429">
+    <row r="429" spans="1:6">
       <c r="A429" s="1" t="n">
         <v>427</v>
       </c>
@@ -8953,7 +8963,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="430">
+    <row r="430" spans="1:6">
       <c r="A430" s="1" t="n">
         <v>428</v>
       </c>
@@ -8973,7 +8983,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="431">
+    <row r="431" spans="1:6">
       <c r="A431" s="1" t="n">
         <v>429</v>
       </c>
@@ -8993,7 +9003,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="432">
+    <row r="432" spans="1:6">
       <c r="A432" s="1" t="n">
         <v>430</v>
       </c>
@@ -9013,7 +9023,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="433">
+    <row r="433" spans="1:6">
       <c r="A433" s="1" t="n">
         <v>431</v>
       </c>
@@ -9033,7 +9043,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="434">
+    <row r="434" spans="1:6">
       <c r="A434" s="1" t="n">
         <v>432</v>
       </c>
@@ -9053,7 +9063,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="435">
+    <row r="435" spans="1:6">
       <c r="A435" s="1" t="n">
         <v>433</v>
       </c>
@@ -9073,7 +9083,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="436">
+    <row r="436" spans="1:6">
       <c r="A436" s="1" t="n">
         <v>434</v>
       </c>
@@ -9093,7 +9103,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="437">
+    <row r="437" spans="1:6">
       <c r="A437" s="1" t="n">
         <v>435</v>
       </c>
@@ -9113,7 +9123,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="438">
+    <row r="438" spans="1:6">
       <c r="A438" s="1" t="n">
         <v>436</v>
       </c>
@@ -9133,7 +9143,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="439">
+    <row r="439" spans="1:6">
       <c r="A439" s="1" t="n">
         <v>437</v>
       </c>
@@ -9153,7 +9163,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="440">
+    <row r="440" spans="1:6">
       <c r="A440" s="1" t="n">
         <v>438</v>
       </c>
@@ -9173,7 +9183,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="441">
+    <row r="441" spans="1:6">
       <c r="A441" s="1" t="n">
         <v>439</v>
       </c>
@@ -9193,7 +9203,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="442">
+    <row r="442" spans="1:6">
       <c r="A442" s="1" t="n">
         <v>440</v>
       </c>
@@ -9213,7 +9223,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="443">
+    <row r="443" spans="1:6">
       <c r="A443" s="1" t="n">
         <v>441</v>
       </c>
@@ -9233,7 +9243,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="444">
+    <row r="444" spans="1:6">
       <c r="A444" s="1" t="n">
         <v>442</v>
       </c>
@@ -9253,7 +9263,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="445">
+    <row r="445" spans="1:6">
       <c r="A445" s="1" t="n">
         <v>443</v>
       </c>
@@ -9273,7 +9283,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="446">
+    <row r="446" spans="1:6">
       <c r="A446" s="1" t="n">
         <v>444</v>
       </c>
@@ -9293,7 +9303,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="447">
+    <row r="447" spans="1:6">
       <c r="A447" s="1" t="n">
         <v>445</v>
       </c>
@@ -9313,7 +9323,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="448">
+    <row r="448" spans="1:6">
       <c r="A448" s="1" t="n">
         <v>446</v>
       </c>
@@ -9333,7 +9343,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="449">
+    <row r="449" spans="1:6">
       <c r="A449" s="1" t="n">
         <v>447</v>
       </c>
@@ -9353,7 +9363,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="450">
+    <row r="450" spans="1:6">
       <c r="A450" s="1" t="n">
         <v>448</v>
       </c>
@@ -9373,7 +9383,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="451">
+    <row r="451" spans="1:6">
       <c r="A451" s="1" t="n">
         <v>449</v>
       </c>
@@ -9393,7 +9403,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="452">
+    <row r="452" spans="1:6">
       <c r="A452" s="1" t="n">
         <v>450</v>
       </c>
@@ -9413,7 +9423,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="453">
+    <row r="453" spans="1:6">
       <c r="A453" s="1" t="n">
         <v>451</v>
       </c>
@@ -9433,7 +9443,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="454">
+    <row r="454" spans="1:6">
       <c r="A454" s="1" t="n">
         <v>452</v>
       </c>
@@ -9453,7 +9463,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="455">
+    <row r="455" spans="1:6">
       <c r="A455" s="1" t="n">
         <v>453</v>
       </c>
@@ -9473,7 +9483,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="456">
+    <row r="456" spans="1:6">
       <c r="A456" s="1" t="n">
         <v>454</v>
       </c>
@@ -9493,7 +9503,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="457">
+    <row r="457" spans="1:6">
       <c r="A457" s="1" t="n">
         <v>455</v>
       </c>
@@ -9513,7 +9523,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="458">
+    <row r="458" spans="1:6">
       <c r="A458" s="1" t="n">
         <v>456</v>
       </c>
@@ -9533,7 +9543,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="459">
+    <row r="459" spans="1:6">
       <c r="A459" s="1" t="n">
         <v>457</v>
       </c>
@@ -9553,7 +9563,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="460">
+    <row r="460" spans="1:6">
       <c r="A460" s="1" t="n">
         <v>458</v>
       </c>
@@ -9573,7 +9583,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="461">
+    <row r="461" spans="1:6">
       <c r="A461" s="1" t="n">
         <v>459</v>
       </c>
@@ -9593,7 +9603,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="462">
+    <row r="462" spans="1:6">
       <c r="A462" s="1" t="n">
         <v>460</v>
       </c>
@@ -9613,7 +9623,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="463">
+    <row r="463" spans="1:6">
       <c r="A463" s="1" t="n">
         <v>461</v>
       </c>
@@ -9633,7 +9643,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="464">
+    <row r="464" spans="1:6">
       <c r="A464" s="1" t="n">
         <v>462</v>
       </c>
@@ -9653,7 +9663,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="465">
+    <row r="465" spans="1:6">
       <c r="A465" s="1" t="n">
         <v>463</v>
       </c>
@@ -9673,7 +9683,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="466">
+    <row r="466" spans="1:6">
       <c r="A466" s="1" t="n">
         <v>464</v>
       </c>
@@ -9693,7 +9703,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="467">
+    <row r="467" spans="1:6">
       <c r="A467" s="1" t="n">
         <v>465</v>
       </c>
@@ -9713,7 +9723,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="468">
+    <row r="468" spans="1:6">
       <c r="A468" s="1" t="n">
         <v>466</v>
       </c>
@@ -9733,7 +9743,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="469">
+    <row r="469" spans="1:6">
       <c r="A469" s="1" t="n">
         <v>467</v>
       </c>
@@ -9753,7 +9763,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="470">
+    <row r="470" spans="1:6">
       <c r="A470" s="1" t="n">
         <v>468</v>
       </c>
@@ -9773,7 +9783,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="471">
+    <row r="471" spans="1:6">
       <c r="A471" s="1" t="n">
         <v>469</v>
       </c>
@@ -9793,7 +9803,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="472">
+    <row r="472" spans="1:6">
       <c r="A472" s="1" t="n">
         <v>470</v>
       </c>
@@ -9813,7 +9823,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="473">
+    <row r="473" spans="1:6">
       <c r="A473" s="1" t="n">
         <v>471</v>
       </c>
@@ -9833,7 +9843,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="474">
+    <row r="474" spans="1:6">
       <c r="A474" s="1" t="n">
         <v>472</v>
       </c>
@@ -9853,7 +9863,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="475">
+    <row r="475" spans="1:6">
       <c r="A475" s="1" t="n">
         <v>473</v>
       </c>
@@ -9873,7 +9883,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="476">
+    <row r="476" spans="1:6">
       <c r="A476" s="1" t="n">
         <v>474</v>
       </c>
@@ -9893,7 +9903,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="477">
+    <row r="477" spans="1:6">
       <c r="A477" s="1" t="n">
         <v>475</v>
       </c>
@@ -9913,7 +9923,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="478">
+    <row r="478" spans="1:6">
       <c r="A478" s="1" t="n">
         <v>476</v>
       </c>
@@ -9933,7 +9943,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="479">
+    <row r="479" spans="1:6">
       <c r="A479" s="1" t="n">
         <v>477</v>
       </c>
@@ -9953,7 +9963,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="480">
+    <row r="480" spans="1:6">
       <c r="A480" s="1" t="n">
         <v>478</v>
       </c>
@@ -9973,7 +9983,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="481">
+    <row r="481" spans="1:6">
       <c r="A481" s="1" t="n">
         <v>479</v>
       </c>
@@ -9993,7 +10003,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="482">
+    <row r="482" spans="1:6">
       <c r="A482" s="1" t="n">
         <v>480</v>
       </c>
@@ -10013,7 +10023,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="483">
+    <row r="483" spans="1:6">
       <c r="A483" s="1" t="n">
         <v>481</v>
       </c>
@@ -10033,7 +10043,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="484">
+    <row r="484" spans="1:6">
       <c r="A484" s="1" t="n">
         <v>482</v>
       </c>
@@ -10053,7 +10063,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="485">
+    <row r="485" spans="1:6">
       <c r="A485" s="1" t="n">
         <v>483</v>
       </c>
@@ -10073,7 +10083,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="486">
+    <row r="486" spans="1:6">
       <c r="A486" s="1" t="n">
         <v>484</v>
       </c>
@@ -10093,7 +10103,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="487">
+    <row r="487" spans="1:6">
       <c r="A487" s="1" t="n">
         <v>485</v>
       </c>
@@ -10113,7 +10123,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="488">
+    <row r="488" spans="1:6">
       <c r="A488" s="1" t="n">
         <v>486</v>
       </c>
@@ -10133,7 +10143,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="489">
+    <row r="489" spans="1:6">
       <c r="A489" s="1" t="n">
         <v>487</v>
       </c>
@@ -10153,7 +10163,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="490">
+    <row r="490" spans="1:6">
       <c r="A490" s="1" t="n">
         <v>488</v>
       </c>
@@ -10173,7 +10183,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="491">
+    <row r="491" spans="1:6">
       <c r="A491" s="1" t="n">
         <v>489</v>
       </c>
@@ -10193,7 +10203,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="492">
+    <row r="492" spans="1:6">
       <c r="A492" s="1" t="n">
         <v>490</v>
       </c>
@@ -10213,7 +10223,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="493">
+    <row r="493" spans="1:6">
       <c r="A493" s="1" t="n">
         <v>491</v>
       </c>
@@ -10233,7 +10243,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="494">
+    <row r="494" spans="1:6">
       <c r="A494" s="1" t="n">
         <v>492</v>
       </c>
@@ -10253,7 +10263,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="495">
+    <row r="495" spans="1:6">
       <c r="A495" s="1" t="n">
         <v>493</v>
       </c>
@@ -10273,7 +10283,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="496">
+    <row r="496" spans="1:6">
       <c r="A496" s="1" t="n">
         <v>494</v>
       </c>
@@ -10293,7 +10303,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="497">
+    <row r="497" spans="1:6">
       <c r="A497" s="1" t="n">
         <v>495</v>
       </c>
@@ -10313,7 +10323,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="498">
+    <row r="498" spans="1:6">
       <c r="A498" s="1" t="n">
         <v>496</v>
       </c>
@@ -10333,7 +10343,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="499">
+    <row r="499" spans="1:6">
       <c r="A499" s="1" t="n">
         <v>497</v>
       </c>
@@ -10353,7 +10363,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="500">
+    <row r="500" spans="1:6">
       <c r="A500" s="1" t="n">
         <v>498</v>
       </c>
@@ -10373,7 +10383,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="501">
+    <row r="501" spans="1:6">
       <c r="A501" s="1" t="n">
         <v>499</v>
       </c>
@@ -10393,7 +10403,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="502">
+    <row r="502" spans="1:6">
       <c r="A502" s="1" t="n">
         <v>500</v>
       </c>
@@ -10413,7 +10423,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="503">
+    <row r="503" spans="1:6">
       <c r="A503" s="1" t="n">
         <v>501</v>
       </c>
@@ -10433,7 +10443,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="504">
+    <row r="504" spans="1:6">
       <c r="A504" s="1" t="n">
         <v>502</v>
       </c>
@@ -10453,7 +10463,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="505">
+    <row r="505" spans="1:6">
       <c r="A505" s="1" t="n">
         <v>503</v>
       </c>
@@ -10473,7 +10483,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="506">
+    <row r="506" spans="1:6">
       <c r="A506" s="1" t="n">
         <v>504</v>
       </c>
@@ -10493,7 +10503,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="507">
+    <row r="507" spans="1:6">
       <c r="A507" s="1" t="n">
         <v>505</v>
       </c>
@@ -10513,7 +10523,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="508">
+    <row r="508" spans="1:6">
       <c r="A508" s="1" t="n">
         <v>506</v>
       </c>
@@ -10533,7 +10543,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="509">
+    <row r="509" spans="1:6">
       <c r="A509" s="1" t="n">
         <v>507</v>
       </c>
@@ -10553,7 +10563,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="510">
+    <row r="510" spans="1:6">
       <c r="A510" s="1" t="n">
         <v>508</v>
       </c>
@@ -10573,7 +10583,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="511">
+    <row r="511" spans="1:6">
       <c r="A511" s="1" t="n">
         <v>509</v>
       </c>
@@ -10593,7 +10603,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="512">
+    <row r="512" spans="1:6">
       <c r="A512" s="1" t="n">
         <v>510</v>
       </c>
@@ -10613,7 +10623,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="513">
+    <row r="513" spans="1:6">
       <c r="A513" s="1" t="n">
         <v>511</v>
       </c>
@@ -10633,7 +10643,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="514">
+    <row r="514" spans="1:6">
       <c r="A514" s="1" t="n">
         <v>512</v>
       </c>
@@ -10653,7 +10663,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="515">
+    <row r="515" spans="1:6">
       <c r="A515" s="1" t="n">
         <v>513</v>
       </c>
@@ -10673,7 +10683,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="516">
+    <row r="516" spans="1:6">
       <c r="A516" s="1" t="n">
         <v>514</v>
       </c>
@@ -10693,7 +10703,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="517">
+    <row r="517" spans="1:6">
       <c r="A517" s="1" t="n">
         <v>515</v>
       </c>
@@ -10713,7 +10723,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="518">
+    <row r="518" spans="1:6">
       <c r="A518" s="1" t="n">
         <v>516</v>
       </c>
@@ -10733,7 +10743,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="519">
+    <row r="519" spans="1:6">
       <c r="A519" s="1" t="n">
         <v>517</v>
       </c>
@@ -10753,7 +10763,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="520">
+    <row r="520" spans="1:6">
       <c r="A520" s="1" t="n">
         <v>518</v>
       </c>
@@ -10773,7 +10783,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="521">
+    <row r="521" spans="1:6">
       <c r="A521" s="1" t="n">
         <v>519</v>
       </c>
@@ -10793,7 +10803,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="522">
+    <row r="522" spans="1:6">
       <c r="A522" s="1" t="n">
         <v>520</v>
       </c>
@@ -10813,7 +10823,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="523">
+    <row r="523" spans="1:6">
       <c r="A523" s="1" t="n">
         <v>521</v>
       </c>
@@ -10833,7 +10843,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="524">
+    <row r="524" spans="1:6">
       <c r="A524" s="1" t="n">
         <v>522</v>
       </c>
@@ -10853,7 +10863,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="525">
+    <row r="525" spans="1:6">
       <c r="A525" s="1" t="n">
         <v>523</v>
       </c>
@@ -10873,7 +10883,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="526">
+    <row r="526" spans="1:6">
       <c r="A526" s="1" t="n">
         <v>524</v>
       </c>
@@ -10893,7 +10903,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="527">
+    <row r="527" spans="1:6">
       <c r="A527" s="1" t="n">
         <v>525</v>
       </c>
@@ -10913,7 +10923,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="528">
+    <row r="528" spans="1:6">
       <c r="A528" s="1" t="n">
         <v>526</v>
       </c>
@@ -10933,7 +10943,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="529">
+    <row r="529" spans="1:6">
       <c r="A529" s="1" t="n">
         <v>527</v>
       </c>
@@ -10953,7 +10963,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="530">
+    <row r="530" spans="1:6">
       <c r="A530" s="1" t="n">
         <v>528</v>
       </c>
@@ -10973,7 +10983,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="531">
+    <row r="531" spans="1:6">
       <c r="A531" s="1" t="n">
         <v>529</v>
       </c>
@@ -10993,7 +11003,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="532">
+    <row r="532" spans="1:6">
       <c r="A532" s="1" t="n">
         <v>530</v>
       </c>
@@ -11013,7 +11023,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="533">
+    <row r="533" spans="1:6">
       <c r="A533" s="1" t="n">
         <v>531</v>
       </c>
@@ -11033,7 +11043,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="534">
+    <row r="534" spans="1:6">
       <c r="A534" s="1" t="n">
         <v>532</v>
       </c>
@@ -11053,7 +11063,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="535">
+    <row r="535" spans="1:6">
       <c r="A535" s="1" t="n">
         <v>533</v>
       </c>
@@ -11073,7 +11083,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="536">
+    <row r="536" spans="1:6">
       <c r="A536" s="1" t="n">
         <v>534</v>
       </c>
@@ -11093,7 +11103,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="537">
+    <row r="537" spans="1:6">
       <c r="A537" s="1" t="n">
         <v>535</v>
       </c>
@@ -11113,7 +11123,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="538">
+    <row r="538" spans="1:6">
       <c r="A538" s="1" t="n">
         <v>536</v>
       </c>
@@ -11133,7 +11143,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="539">
+    <row r="539" spans="1:6">
       <c r="A539" s="1" t="n">
         <v>537</v>
       </c>
@@ -11153,7 +11163,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="540">
+    <row r="540" spans="1:6">
       <c r="A540" s="1" t="n">
         <v>538</v>
       </c>
@@ -11173,7 +11183,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="541">
+    <row r="541" spans="1:6">
       <c r="A541" s="1" t="n">
         <v>539</v>
       </c>
@@ -11193,7 +11203,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="542">
+    <row r="542" spans="1:6">
       <c r="A542" s="1" t="n">
         <v>540</v>
       </c>
@@ -11213,7 +11223,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="543">
+    <row r="543" spans="1:6">
       <c r="A543" s="1" t="n">
         <v>541</v>
       </c>
@@ -11233,7 +11243,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="544">
+    <row r="544" spans="1:6">
       <c r="A544" s="1" t="n">
         <v>542</v>
       </c>
@@ -11253,7 +11263,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="545">
+    <row r="545" spans="1:6">
       <c r="A545" s="1" t="n">
         <v>543</v>
       </c>
@@ -11273,7 +11283,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="546">
+    <row r="546" spans="1:6">
       <c r="A546" s="1" t="n">
         <v>544</v>
       </c>
@@ -11293,7 +11303,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="547">
+    <row r="547" spans="1:6">
       <c r="A547" s="1" t="n">
         <v>545</v>
       </c>
@@ -11313,7 +11323,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="548">
+    <row r="548" spans="1:6">
       <c r="A548" s="1" t="n">
         <v>546</v>
       </c>
@@ -11333,7 +11343,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="549">
+    <row r="549" spans="1:6">
       <c r="A549" s="1" t="n">
         <v>547</v>
       </c>
@@ -11353,7 +11363,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="550">
+    <row r="550" spans="1:6">
       <c r="A550" s="1" t="n">
         <v>548</v>
       </c>
@@ -11373,7 +11383,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="551">
+    <row r="551" spans="1:6">
       <c r="A551" s="1" t="n">
         <v>549</v>
       </c>
@@ -11393,7 +11403,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="552">
+    <row r="552" spans="1:6">
       <c r="A552" s="1" t="n">
         <v>550</v>
       </c>
@@ -11413,7 +11423,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="553">
+    <row r="553" spans="1:6">
       <c r="A553" s="1" t="n">
         <v>551</v>
       </c>
@@ -11433,7 +11443,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="554">
+    <row r="554" spans="1:6">
       <c r="A554" s="1" t="n">
         <v>552</v>
       </c>
@@ -11453,7 +11463,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="555">
+    <row r="555" spans="1:6">
       <c r="A555" s="1" t="n">
         <v>553</v>
       </c>
@@ -11473,7 +11483,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="556">
+    <row r="556" spans="1:6">
       <c r="A556" s="1" t="n">
         <v>554</v>
       </c>
@@ -11493,7 +11503,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="557">
+    <row r="557" spans="1:6">
       <c r="A557" s="1" t="n">
         <v>555</v>
       </c>
@@ -11513,7 +11523,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="558">
+    <row r="558" spans="1:6">
       <c r="A558" s="1" t="n">
         <v>556</v>
       </c>
@@ -11533,7 +11543,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="559">
+    <row r="559" spans="1:6">
       <c r="A559" s="1" t="n">
         <v>557</v>
       </c>
@@ -11553,7 +11563,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="560">
+    <row r="560" spans="1:6">
       <c r="A560" s="1" t="n">
         <v>558</v>
       </c>
@@ -11573,7 +11583,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="561">
+    <row r="561" spans="1:6">
       <c r="A561" s="1" t="n">
         <v>559</v>
       </c>
@@ -11593,7 +11603,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="562">
+    <row r="562" spans="1:6">
       <c r="A562" s="1" t="n">
         <v>560</v>
       </c>
@@ -11613,7 +11623,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="563">
+    <row r="563" spans="1:6">
       <c r="A563" s="1" t="n">
         <v>561</v>
       </c>
@@ -11633,7 +11643,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="564">
+    <row r="564" spans="1:6">
       <c r="A564" s="1" t="n">
         <v>562</v>
       </c>
@@ -11653,7 +11663,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="565">
+    <row r="565" spans="1:6">
       <c r="A565" s="1" t="n">
         <v>563</v>
       </c>
@@ -11673,7 +11683,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="566">
+    <row r="566" spans="1:6">
       <c r="A566" s="1" t="n">
         <v>564</v>
       </c>
@@ -11693,7 +11703,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="567">
+    <row r="567" spans="1:6">
       <c r="A567" s="1" t="n">
         <v>565</v>
       </c>
@@ -11713,7 +11723,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="568">
+    <row r="568" spans="1:6">
       <c r="A568" s="1" t="n">
         <v>566</v>
       </c>
@@ -11733,7 +11743,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="569">
+    <row r="569" spans="1:6">
       <c r="A569" s="1" t="n">
         <v>567</v>
       </c>
@@ -11753,7 +11763,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="570">
+    <row r="570" spans="1:6">
       <c r="A570" s="1" t="n">
         <v>568</v>
       </c>
@@ -11773,7 +11783,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="571">
+    <row r="571" spans="1:6">
       <c r="A571" s="1" t="n">
         <v>569</v>
       </c>
@@ -11793,7 +11803,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="572">
+    <row r="572" spans="1:6">
       <c r="A572" s="1" t="n">
         <v>570</v>
       </c>
@@ -11813,7 +11823,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="573">
+    <row r="573" spans="1:6">
       <c r="A573" s="1" t="n">
         <v>571</v>
       </c>
@@ -11833,7 +11843,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="574">
+    <row r="574" spans="1:6">
       <c r="A574" s="1" t="n">
         <v>572</v>
       </c>
@@ -11853,7 +11863,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="575">
+    <row r="575" spans="1:6">
       <c r="A575" s="1" t="n">
         <v>573</v>
       </c>
@@ -11873,7 +11883,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="576">
+    <row r="576" spans="1:6">
       <c r="A576" s="1" t="n">
         <v>574</v>
       </c>
@@ -11893,7 +11903,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="577">
+    <row r="577" spans="1:6">
       <c r="A577" s="1" t="n">
         <v>575</v>
       </c>
@@ -11913,7 +11923,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="578">
+    <row r="578" spans="1:6">
       <c r="A578" s="1" t="n">
         <v>576</v>
       </c>
@@ -11933,7 +11943,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="579">
+    <row r="579" spans="1:6">
       <c r="A579" s="1" t="n">
         <v>577</v>
       </c>
@@ -11953,7 +11963,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="580">
+    <row r="580" spans="1:6">
       <c r="A580" s="1" t="n">
         <v>578</v>
       </c>
@@ -11973,7 +11983,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="581">
+    <row r="581" spans="1:6">
       <c r="A581" s="1" t="n">
         <v>579</v>
       </c>
@@ -11993,7 +12003,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="582">
+    <row r="582" spans="1:6">
       <c r="A582" s="1" t="n">
         <v>580</v>
       </c>
@@ -12013,7 +12023,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="583">
+    <row r="583" spans="1:6">
       <c r="A583" s="1" t="n">
         <v>581</v>
       </c>
@@ -12033,7 +12043,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="584">
+    <row r="584" spans="1:6">
       <c r="A584" s="1" t="n">
         <v>582</v>
       </c>
@@ -12053,7 +12063,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="585">
+    <row r="585" spans="1:6">
       <c r="A585" s="1" t="n">
         <v>583</v>
       </c>
@@ -12073,7 +12083,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="586">
+    <row r="586" spans="1:6">
       <c r="A586" s="1" t="n">
         <v>584</v>
       </c>
@@ -12093,7 +12103,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="587">
+    <row r="587" spans="1:6">
       <c r="A587" s="1" t="n">
         <v>585</v>
       </c>
@@ -12113,7 +12123,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="588">
+    <row r="588" spans="1:6">
       <c r="A588" s="1" t="n">
         <v>586</v>
       </c>
@@ -12133,7 +12143,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="589">
+    <row r="589" spans="1:6">
       <c r="A589" s="1" t="n">
         <v>587</v>
       </c>
@@ -12153,7 +12163,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="590">
+    <row r="590" spans="1:6">
       <c r="A590" s="1" t="n">
         <v>588</v>
       </c>
@@ -12173,7 +12183,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="591">
+    <row r="591" spans="1:6">
       <c r="A591" s="1" t="n">
         <v>589</v>
       </c>
@@ -12193,7 +12203,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="592">
+    <row r="592" spans="1:6">
       <c r="A592" s="1" t="n">
         <v>590</v>
       </c>
@@ -12213,7 +12223,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="593">
+    <row r="593" spans="1:6">
       <c r="A593" s="1" t="n">
         <v>591</v>
       </c>
@@ -12233,7 +12243,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="594">
+    <row r="594" spans="1:6">
       <c r="A594" s="1" t="n">
         <v>592</v>
       </c>
@@ -12253,7 +12263,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="595">
+    <row r="595" spans="1:6">
       <c r="A595" s="1" t="n">
         <v>593</v>
       </c>
@@ -12273,7 +12283,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="596">
+    <row r="596" spans="1:6">
       <c r="A596" s="1" t="n">
         <v>594</v>
       </c>
@@ -12293,7 +12303,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="597">
+    <row r="597" spans="1:6">
       <c r="A597" s="1" t="n">
         <v>595</v>
       </c>
@@ -12313,7 +12323,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="598">
+    <row r="598" spans="1:6">
       <c r="A598" s="1" t="n">
         <v>596</v>
       </c>
@@ -12333,7 +12343,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="599">
+    <row r="599" spans="1:6">
       <c r="A599" s="1" t="n">
         <v>597</v>
       </c>
@@ -12353,7 +12363,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="600">
+    <row r="600" spans="1:6">
       <c r="A600" s="1" t="n">
         <v>598</v>
       </c>
@@ -12373,7 +12383,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="601">
+    <row r="601" spans="1:6">
       <c r="A601" s="1" t="n">
         <v>599</v>
       </c>
@@ -12393,7 +12403,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="602">
+    <row r="602" spans="1:6">
       <c r="A602" s="1" t="n">
         <v>600</v>
       </c>
@@ -12413,7 +12423,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="603">
+    <row r="603" spans="1:6">
       <c r="A603" s="1" t="n">
         <v>601</v>
       </c>
@@ -12433,7 +12443,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="604">
+    <row r="604" spans="1:6">
       <c r="A604" s="1" t="n">
         <v>602</v>
       </c>
@@ -12453,7 +12463,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="605">
+    <row r="605" spans="1:6">
       <c r="A605" s="1" t="n">
         <v>603</v>
       </c>
@@ -12473,7 +12483,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="606">
+    <row r="606" spans="1:6">
       <c r="A606" s="1" t="n">
         <v>604</v>
       </c>
@@ -12493,7 +12503,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="607">
+    <row r="607" spans="1:6">
       <c r="A607" s="1" t="n">
         <v>605</v>
       </c>
@@ -12513,7 +12523,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="608">
+    <row r="608" spans="1:6">
       <c r="A608" s="1" t="n">
         <v>606</v>
       </c>
@@ -12533,7 +12543,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="609">
+    <row r="609" spans="1:6">
       <c r="A609" s="1" t="n">
         <v>607</v>
       </c>
@@ -12553,7 +12563,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="610">
+    <row r="610" spans="1:6">
       <c r="A610" s="1" t="n">
         <v>608</v>
       </c>
@@ -12573,7 +12583,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="611">
+    <row r="611" spans="1:6">
       <c r="A611" s="1" t="n">
         <v>609</v>
       </c>
@@ -12593,7 +12603,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="612">
+    <row r="612" spans="1:6">
       <c r="A612" s="1" t="n">
         <v>610</v>
       </c>
@@ -12613,7 +12623,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="613">
+    <row r="613" spans="1:6">
       <c r="A613" s="1" t="n">
         <v>611</v>
       </c>
@@ -12633,7 +12643,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="614">
+    <row r="614" spans="1:6">
       <c r="A614" s="1" t="n">
         <v>612</v>
       </c>
@@ -12653,7 +12663,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="615">
+    <row r="615" spans="1:6">
       <c r="A615" s="1" t="n">
         <v>613</v>
       </c>
@@ -12673,7 +12683,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="616">
+    <row r="616" spans="1:6">
       <c r="A616" s="1" t="n">
         <v>614</v>
       </c>
@@ -12693,7 +12703,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="617">
+    <row r="617" spans="1:6">
       <c r="A617" s="1" t="n">
         <v>615</v>
       </c>
@@ -12713,7 +12723,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="618">
+    <row r="618" spans="1:6">
       <c r="A618" s="1" t="n">
         <v>616</v>
       </c>
@@ -12733,7 +12743,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="619">
+    <row r="619" spans="1:6">
       <c r="A619" s="1" t="n">
         <v>617</v>
       </c>
@@ -12753,7 +12763,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="620">
+    <row r="620" spans="1:6">
       <c r="A620" s="1" t="n">
         <v>618</v>
       </c>
@@ -12773,7 +12783,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="621">
+    <row r="621" spans="1:6">
       <c r="A621" s="1" t="n">
         <v>619</v>
       </c>
@@ -12793,7 +12803,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="622">
+    <row r="622" spans="1:6">
       <c r="A622" s="1" t="n">
         <v>620</v>
       </c>
@@ -12813,7 +12823,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="623">
+    <row r="623" spans="1:6">
       <c r="A623" s="1" t="n">
         <v>621</v>
       </c>
@@ -12833,7 +12843,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="624">
+    <row r="624" spans="1:6">
       <c r="A624" s="1" t="n">
         <v>622</v>
       </c>
@@ -12853,7 +12863,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="625">
+    <row r="625" spans="1:6">
       <c r="A625" s="1" t="n">
         <v>623</v>
       </c>
@@ -12873,7 +12883,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="626">
+    <row r="626" spans="1:6">
       <c r="A626" s="1" t="n">
         <v>624</v>
       </c>
@@ -12893,7 +12903,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="627">
+    <row r="627" spans="1:6">
       <c r="A627" s="1" t="n">
         <v>625</v>
       </c>
@@ -12913,7 +12923,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="628">
+    <row r="628" spans="1:6">
       <c r="A628" s="1" t="n">
         <v>626</v>
       </c>
@@ -12933,7 +12943,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="629">
+    <row r="629" spans="1:6">
       <c r="A629" s="1" t="n">
         <v>627</v>
       </c>
@@ -12953,7 +12963,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="630">
+    <row r="630" spans="1:6">
       <c r="A630" s="1" t="n">
         <v>628</v>
       </c>
@@ -12973,7 +12983,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="631">
+    <row r="631" spans="1:6">
       <c r="A631" s="1" t="n">
         <v>629</v>
       </c>
@@ -12993,7 +13003,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="632">
+    <row r="632" spans="1:6">
       <c r="A632" s="1" t="n">
         <v>630</v>
       </c>
@@ -13013,7 +13023,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="633">
+    <row r="633" spans="1:6">
       <c r="A633" s="1" t="n">
         <v>631</v>
       </c>
@@ -13033,7 +13043,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="634">
+    <row r="634" spans="1:6">
       <c r="A634" s="1" t="n">
         <v>632</v>
       </c>
@@ -13053,7 +13063,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="635">
+    <row r="635" spans="1:6">
       <c r="A635" s="1" t="n">
         <v>633</v>
       </c>
@@ -13073,7 +13083,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="636">
+    <row r="636" spans="1:6">
       <c r="A636" s="1" t="n">
         <v>634</v>
       </c>
@@ -13093,7 +13103,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="637">
+    <row r="637" spans="1:6">
       <c r="A637" s="1" t="n">
         <v>635</v>
       </c>
@@ -13113,7 +13123,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="638">
+    <row r="638" spans="1:6">
       <c r="A638" s="1" t="n">
         <v>636</v>
       </c>
@@ -13133,7 +13143,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="639">
+    <row r="639" spans="1:6">
       <c r="A639" s="1" t="n">
         <v>637</v>
       </c>
@@ -13153,7 +13163,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="640">
+    <row r="640" spans="1:6">
       <c r="A640" s="1" t="n">
         <v>638</v>
       </c>
@@ -13173,7 +13183,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="641">
+    <row r="641" spans="1:6">
       <c r="A641" s="1" t="n">
         <v>639</v>
       </c>
@@ -13193,7 +13203,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="642">
+    <row r="642" spans="1:6">
       <c r="A642" s="1" t="n">
         <v>640</v>
       </c>
@@ -13213,7 +13223,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="643">
+    <row r="643" spans="1:6">
       <c r="A643" s="1" t="n">
         <v>641</v>
       </c>
@@ -13233,7 +13243,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="644">
+    <row r="644" spans="1:6">
       <c r="A644" s="1" t="n">
         <v>642</v>
       </c>
@@ -13253,7 +13263,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="645">
+    <row r="645" spans="1:6">
       <c r="A645" s="1" t="n">
         <v>643</v>
       </c>
@@ -13273,7 +13283,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="646">
+    <row r="646" spans="1:6">
       <c r="A646" s="1" t="n">
         <v>644</v>
       </c>
@@ -13293,7 +13303,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="647">
+    <row r="647" spans="1:6">
       <c r="A647" s="1" t="n">
         <v>645</v>
       </c>
@@ -13313,7 +13323,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="648">
+    <row r="648" spans="1:6">
       <c r="A648" s="1" t="n">
         <v>646</v>
       </c>
@@ -13333,7 +13343,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="649">
+    <row r="649" spans="1:6">
       <c r="A649" s="1" t="n">
         <v>647</v>
       </c>
@@ -13353,7 +13363,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="650">
+    <row r="650" spans="1:6">
       <c r="A650" s="1" t="n">
         <v>648</v>
       </c>
@@ -13373,7 +13383,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="651">
+    <row r="651" spans="1:6">
       <c r="A651" s="1" t="n">
         <v>649</v>
       </c>
@@ -13393,7 +13403,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="652">
+    <row r="652" spans="1:6">
       <c r="A652" s="1" t="n">
         <v>650</v>
       </c>
@@ -13413,7 +13423,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="653">
+    <row r="653" spans="1:6">
       <c r="A653" s="1" t="n">
         <v>651</v>
       </c>
@@ -13433,7 +13443,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="654">
+    <row r="654" spans="1:6">
       <c r="A654" s="1" t="n">
         <v>652</v>
       </c>
@@ -13453,7 +13463,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="655">
+    <row r="655" spans="1:6">
       <c r="A655" s="1" t="n">
         <v>653</v>
       </c>
@@ -13473,7 +13483,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="656">
+    <row r="656" spans="1:6">
       <c r="A656" s="1" t="n">
         <v>654</v>
       </c>
@@ -13493,7 +13503,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="657">
+    <row r="657" spans="1:6">
       <c r="A657" s="1" t="n">
         <v>655</v>
       </c>
@@ -13513,7 +13523,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="658">
+    <row r="658" spans="1:6">
       <c r="A658" s="1" t="n">
         <v>656</v>
       </c>
@@ -13533,7 +13543,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="659">
+    <row r="659" spans="1:6">
       <c r="A659" s="1" t="n">
         <v>657</v>
       </c>
@@ -13553,7 +13563,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="660">
+    <row r="660" spans="1:6">
       <c r="A660" s="1" t="n">
         <v>658</v>
       </c>
@@ -13573,7 +13583,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="661">
+    <row r="661" spans="1:6">
       <c r="A661" s="1" t="n">
         <v>659</v>
       </c>
@@ -13593,7 +13603,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="662">
+    <row r="662" spans="1:6">
       <c r="A662" s="1" t="n">
         <v>660</v>
       </c>
@@ -13613,7 +13623,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="663">
+    <row r="663" spans="1:6">
       <c r="A663" s="1" t="n">
         <v>661</v>
       </c>
@@ -13633,7 +13643,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="664">
+    <row r="664" spans="1:6">
       <c r="A664" s="1" t="n">
         <v>662</v>
       </c>
@@ -13653,7 +13663,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="665">
+    <row r="665" spans="1:6">
       <c r="A665" s="1" t="n">
         <v>663</v>
       </c>
@@ -13673,7 +13683,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="666">
+    <row r="666" spans="1:6">
       <c r="A666" s="1" t="n">
         <v>664</v>
       </c>
@@ -13693,7 +13703,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="667">
+    <row r="667" spans="1:6">
       <c r="A667" s="1" t="n">
         <v>665</v>
       </c>
@@ -13713,7 +13723,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="668">
+    <row r="668" spans="1:6">
       <c r="A668" s="1" t="n">
         <v>666</v>
       </c>
@@ -13733,7 +13743,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="669">
+    <row r="669" spans="1:6">
       <c r="A669" s="1" t="n">
         <v>667</v>
       </c>
@@ -13753,7 +13763,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="670">
+    <row r="670" spans="1:6">
       <c r="A670" s="1" t="n">
         <v>668</v>
       </c>
@@ -13773,7 +13783,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="671">
+    <row r="671" spans="1:6">
       <c r="A671" s="1" t="n">
         <v>669</v>
       </c>
@@ -13793,7 +13803,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="672">
+    <row r="672" spans="1:6">
       <c r="A672" s="1" t="n">
         <v>670</v>
       </c>
@@ -13813,7 +13823,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="673">
+    <row r="673" spans="1:6">
       <c r="A673" s="1" t="n">
         <v>671</v>
       </c>
@@ -13833,7 +13843,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="674">
+    <row r="674" spans="1:6">
       <c r="A674" s="1" t="n">
         <v>672</v>
       </c>
@@ -13853,7 +13863,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="675">
+    <row r="675" spans="1:6">
       <c r="A675" s="1" t="n">
         <v>673</v>
       </c>
@@ -13873,7 +13883,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="676">
+    <row r="676" spans="1:6">
       <c r="A676" s="1" t="n">
         <v>674</v>
       </c>
@@ -13893,7 +13903,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="677">
+    <row r="677" spans="1:6">
       <c r="A677" s="1" t="n">
         <v>675</v>
       </c>
@@ -13913,7 +13923,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="678">
+    <row r="678" spans="1:6">
       <c r="A678" s="1" t="n">
         <v>676</v>
       </c>
@@ -13933,7 +13943,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="679">
+    <row r="679" spans="1:6">
       <c r="A679" s="1" t="n">
         <v>677</v>
       </c>
@@ -13953,7 +13963,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="680">
+    <row r="680" spans="1:6">
       <c r="A680" s="1" t="n">
         <v>678</v>
       </c>
@@ -13973,7 +13983,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="681">
+    <row r="681" spans="1:6">
       <c r="A681" s="1" t="n">
         <v>679</v>
       </c>
@@ -13993,7 +14003,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="682">
+    <row r="682" spans="1:6">
       <c r="A682" s="1" t="n">
         <v>680</v>
       </c>
@@ -14013,7 +14023,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="683">
+    <row r="683" spans="1:6">
       <c r="A683" s="1" t="n">
         <v>681</v>
       </c>
@@ -14033,7 +14043,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="684">
+    <row r="684" spans="1:6">
       <c r="A684" s="1" t="n">
         <v>682</v>
       </c>
@@ -14053,7 +14063,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="685">
+    <row r="685" spans="1:6">
       <c r="A685" s="1" t="n">
         <v>683</v>
       </c>
@@ -14073,7 +14083,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="686">
+    <row r="686" spans="1:6">
       <c r="A686" s="1" t="n">
         <v>684</v>
       </c>
@@ -14093,7 +14103,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="687">
+    <row r="687" spans="1:6">
       <c r="A687" s="1" t="n">
         <v>685</v>
       </c>
@@ -14113,7 +14123,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="688">
+    <row r="688" spans="1:6">
       <c r="A688" s="1" t="n">
         <v>686</v>
       </c>
@@ -14133,7 +14143,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="689">
+    <row r="689" spans="1:6">
       <c r="A689" s="1" t="n">
         <v>687</v>
       </c>
@@ -14153,7 +14163,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="690">
+    <row r="690" spans="1:6">
       <c r="A690" s="1" t="n">
         <v>688</v>
       </c>
@@ -14173,7 +14183,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="691">
+    <row r="691" spans="1:6">
       <c r="A691" s="1" t="n">
         <v>689</v>
       </c>
@@ -14193,7 +14203,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="692">
+    <row r="692" spans="1:6">
       <c r="A692" s="1" t="n">
         <v>690</v>
       </c>
@@ -14213,7 +14223,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="693">
+    <row r="693" spans="1:6">
       <c r="A693" s="1" t="n">
         <v>691</v>
       </c>
@@ -14233,7 +14243,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="694">
+    <row r="694" spans="1:6">
       <c r="A694" s="1" t="n">
         <v>692</v>
       </c>
@@ -14253,7 +14263,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="695">
+    <row r="695" spans="1:6">
       <c r="A695" s="1" t="n">
         <v>693</v>
       </c>
@@ -14273,7 +14283,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="696">
+    <row r="696" spans="1:6">
       <c r="A696" s="1" t="n">
         <v>694</v>
       </c>
@@ -14293,7 +14303,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="697">
+    <row r="697" spans="1:6">
       <c r="A697" s="1" t="n">
         <v>695</v>
       </c>
@@ -14313,7 +14323,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="698">
+    <row r="698" spans="1:6">
       <c r="A698" s="1" t="n">
         <v>696</v>
       </c>
@@ -14333,7 +14343,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="699">
+    <row r="699" spans="1:6">
       <c r="A699" s="1" t="n">
         <v>697</v>
       </c>
@@ -14353,7 +14363,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="700">
+    <row r="700" spans="1:6">
       <c r="A700" s="1" t="n">
         <v>698</v>
       </c>
@@ -14373,7 +14383,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="701">
+    <row r="701" spans="1:6">
       <c r="A701" s="1" t="n">
         <v>699</v>
       </c>
@@ -14393,7 +14403,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="702">
+    <row r="702" spans="1:6">
       <c r="A702" s="1" t="n">
         <v>700</v>
       </c>
@@ -14413,7 +14423,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="703">
+    <row r="703" spans="1:6">
       <c r="A703" s="1" t="n">
         <v>701</v>
       </c>
@@ -14433,7 +14443,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="704">
+    <row r="704" spans="1:6">
       <c r="A704" s="1" t="n">
         <v>702</v>
       </c>
@@ -14453,7 +14463,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="705">
+    <row r="705" spans="1:6">
       <c r="A705" s="1" t="n">
         <v>703</v>
       </c>
@@ -14473,7 +14483,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="706">
+    <row r="706" spans="1:6">
       <c r="A706" s="1" t="n">
         <v>704</v>
       </c>
@@ -14493,7 +14503,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="707">
+    <row r="707" spans="1:6">
       <c r="A707" s="1" t="n">
         <v>705</v>
       </c>
@@ -14513,7 +14523,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="708">
+    <row r="708" spans="1:6">
       <c r="A708" s="1" t="n">
         <v>706</v>
       </c>
@@ -14533,7 +14543,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="709">
+    <row r="709" spans="1:6">
       <c r="A709" s="1" t="n">
         <v>707</v>
       </c>
@@ -14553,7 +14563,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="710">
+    <row r="710" spans="1:6">
       <c r="A710" s="1" t="n">
         <v>708</v>
       </c>
@@ -14573,7 +14583,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="711">
+    <row r="711" spans="1:6">
       <c r="A711" s="1" t="n">
         <v>709</v>
       </c>
@@ -14593,7 +14603,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="712">
+    <row r="712" spans="1:6">
       <c r="A712" s="1" t="n">
         <v>710</v>
       </c>
@@ -14613,7 +14623,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="713">
+    <row r="713" spans="1:6">
       <c r="A713" s="1" t="n">
         <v>711</v>
       </c>
@@ -14633,7 +14643,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="714">
+    <row r="714" spans="1:6">
       <c r="A714" s="1" t="n">
         <v>712</v>
       </c>
@@ -14653,7 +14663,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="715">
+    <row r="715" spans="1:6">
       <c r="A715" s="1" t="n">
         <v>713</v>
       </c>
@@ -14673,7 +14683,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="716">
+    <row r="716" spans="1:6">
       <c r="A716" s="1" t="n">
         <v>714</v>
       </c>
@@ -14693,7 +14703,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="717">
+    <row r="717" spans="1:6">
       <c r="A717" s="1" t="n">
         <v>715</v>
       </c>
@@ -14713,7 +14723,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="718">
+    <row r="718" spans="1:6">
       <c r="A718" s="1" t="n">
         <v>716</v>
       </c>
@@ -14733,7 +14743,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="719">
+    <row r="719" spans="1:6">
       <c r="A719" s="1" t="n">
         <v>717</v>
       </c>
@@ -14753,7 +14763,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="720">
+    <row r="720" spans="1:6">
       <c r="A720" s="1" t="n">
         <v>718</v>
       </c>
@@ -14773,7 +14783,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="721">
+    <row r="721" spans="1:6">
       <c r="A721" s="1" t="n">
         <v>719</v>
       </c>
@@ -14793,7 +14803,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="722">
+    <row r="722" spans="1:6">
       <c r="A722" s="1" t="n">
         <v>720</v>
       </c>
@@ -14813,7 +14823,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="723">
+    <row r="723" spans="1:6">
       <c r="A723" s="1" t="n">
         <v>721</v>
       </c>
@@ -14833,7 +14843,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="724">
+    <row r="724" spans="1:6">
       <c r="A724" s="1" t="n">
         <v>722</v>
       </c>
@@ -14853,7 +14863,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="725">
+    <row r="725" spans="1:6">
       <c r="A725" s="1" t="n">
         <v>723</v>
       </c>
@@ -14873,7 +14883,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="726">
+    <row r="726" spans="1:6">
       <c r="A726" s="1" t="n">
         <v>724</v>
       </c>
@@ -14893,7 +14903,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="727">
+    <row r="727" spans="1:6">
       <c r="A727" s="1" t="n">
         <v>725</v>
       </c>
@@ -14913,7 +14923,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="728">
+    <row r="728" spans="1:6">
       <c r="A728" s="1" t="n">
         <v>726</v>
       </c>
@@ -14933,7 +14943,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="729">
+    <row r="729" spans="1:6">
       <c r="A729" s="1" t="n">
         <v>727</v>
       </c>
@@ -14953,7 +14963,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="730">
+    <row r="730" spans="1:6">
       <c r="A730" s="1" t="n">
         <v>728</v>
       </c>
@@ -14973,7 +14983,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="731">
+    <row r="731" spans="1:6">
       <c r="A731" s="1" t="n">
         <v>729</v>
       </c>
@@ -14993,7 +15003,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="732">
+    <row r="732" spans="1:6">
       <c r="A732" s="1" t="n">
         <v>730</v>
       </c>
@@ -15013,7 +15023,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="733">
+    <row r="733" spans="1:6">
       <c r="A733" s="1" t="n">
         <v>731</v>
       </c>
@@ -15033,7 +15043,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="734">
+    <row r="734" spans="1:6">
       <c r="A734" s="1" t="n">
         <v>732</v>
       </c>
@@ -15053,7 +15063,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="735">
+    <row r="735" spans="1:6">
       <c r="A735" s="1" t="n">
         <v>733</v>
       </c>
@@ -15073,7 +15083,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="736">
+    <row r="736" spans="1:6">
       <c r="A736" s="1" t="n">
         <v>734</v>
       </c>
@@ -15093,7 +15103,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="737">
+    <row r="737" spans="1:6">
       <c r="A737" s="1" t="n">
         <v>735</v>
       </c>
@@ -15113,7 +15123,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="738">
+    <row r="738" spans="1:6">
       <c r="A738" s="1" t="n">
         <v>736</v>
       </c>
@@ -15133,7 +15143,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="739">
+    <row r="739" spans="1:6">
       <c r="A739" s="1" t="n">
         <v>737</v>
       </c>
@@ -15153,7 +15163,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="740">
+    <row r="740" spans="1:6">
       <c r="A740" s="1" t="n">
         <v>738</v>
       </c>
@@ -15173,7 +15183,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="741">
+    <row r="741" spans="1:6">
       <c r="A741" s="1" t="n">
         <v>739</v>
       </c>
@@ -15193,7 +15203,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="742">
+    <row r="742" spans="1:6">
       <c r="A742" s="1" t="n">
         <v>740</v>
       </c>
@@ -15213,7 +15223,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="743">
+    <row r="743" spans="1:6">
       <c r="A743" s="1" t="n">
         <v>741</v>
       </c>
@@ -15233,7 +15243,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="744">
+    <row r="744" spans="1:6">
       <c r="A744" s="1" t="n">
         <v>742</v>
       </c>
@@ -15253,7 +15263,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="745">
+    <row r="745" spans="1:6">
       <c r="A745" s="1" t="n">
         <v>743</v>
       </c>
@@ -15273,7 +15283,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="746">
+    <row r="746" spans="1:6">
       <c r="A746" s="1" t="n">
         <v>744</v>
       </c>
@@ -15293,7 +15303,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="747">
+    <row r="747" spans="1:6">
       <c r="A747" s="1" t="n">
         <v>745</v>
       </c>
@@ -15313,7 +15323,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="748">
+    <row r="748" spans="1:6">
       <c r="A748" s="1" t="n">
         <v>746</v>
       </c>
@@ -15333,7 +15343,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="749">
+    <row r="749" spans="1:6">
       <c r="A749" s="1" t="n">
         <v>747</v>
       </c>
@@ -15353,7 +15363,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="750">
+    <row r="750" spans="1:6">
       <c r="A750" s="1" t="n">
         <v>748</v>
       </c>
@@ -15373,7 +15383,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="751">
+    <row r="751" spans="1:6">
       <c r="A751" s="1" t="n">
         <v>749</v>
       </c>
@@ -15393,7 +15403,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="752">
+    <row r="752" spans="1:6">
       <c r="A752" s="1" t="n">
         <v>750</v>
       </c>
@@ -15413,7 +15423,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="753">
+    <row r="753" spans="1:6">
       <c r="A753" s="1" t="n">
         <v>751</v>
       </c>
@@ -15433,7 +15443,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="754">
+    <row r="754" spans="1:6">
       <c r="A754" s="1" t="n">
         <v>752</v>
       </c>
@@ -15453,7 +15463,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="755">
+    <row r="755" spans="1:6">
       <c r="A755" s="1" t="n">
         <v>753</v>
       </c>
@@ -15473,7 +15483,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="756">
+    <row r="756" spans="1:6">
       <c r="A756" s="1" t="n">
         <v>754</v>
       </c>
@@ -15493,7 +15503,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="757">
+    <row r="757" spans="1:6">
       <c r="A757" s="1" t="n">
         <v>755</v>
       </c>
@@ -15513,7 +15523,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="758">
+    <row r="758" spans="1:6">
       <c r="A758" s="1" t="n">
         <v>756</v>
       </c>
@@ -15533,7 +15543,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="759">
+    <row r="759" spans="1:6">
       <c r="A759" s="1" t="n">
         <v>757</v>
       </c>
@@ -15553,7 +15563,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="760">
+    <row r="760" spans="1:6">
       <c r="A760" s="1" t="n">
         <v>758</v>
       </c>
@@ -15573,7 +15583,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="761">
+    <row r="761" spans="1:6">
       <c r="A761" s="1" t="n">
         <v>759</v>
       </c>
@@ -15593,7 +15603,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="762">
+    <row r="762" spans="1:6">
       <c r="A762" s="1" t="n">
         <v>760</v>
       </c>
@@ -15613,7 +15623,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="763">
+    <row r="763" spans="1:6">
       <c r="A763" s="1" t="n">
         <v>761</v>
       </c>
@@ -15633,7 +15643,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="764">
+    <row r="764" spans="1:6">
       <c r="A764" s="1" t="n">
         <v>762</v>
       </c>
@@ -15653,7 +15663,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="765">
+    <row r="765" spans="1:6">
       <c r="A765" s="1" t="n">
         <v>763</v>
       </c>
@@ -15673,7 +15683,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="766">
+    <row r="766" spans="1:6">
       <c r="A766" s="1" t="n">
         <v>764</v>
       </c>
@@ -15693,7 +15703,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="767">
+    <row r="767" spans="1:6">
       <c r="A767" s="1" t="n">
         <v>765</v>
       </c>
@@ -15713,7 +15723,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="768">
+    <row r="768" spans="1:6">
       <c r="A768" s="1" t="n">
         <v>766</v>
       </c>
@@ -15733,7 +15743,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="769">
+    <row r="769" spans="1:6">
       <c r="A769" s="1" t="n">
         <v>767</v>
       </c>
@@ -15753,7 +15763,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="770">
+    <row r="770" spans="1:6">
       <c r="A770" s="1" t="n">
         <v>768</v>
       </c>
@@ -15773,7 +15783,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="771">
+    <row r="771" spans="1:6">
       <c r="A771" s="1" t="n">
         <v>769</v>
       </c>
@@ -15793,7 +15803,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="772">
+    <row r="772" spans="1:6">
       <c r="A772" s="1" t="n">
         <v>770</v>
       </c>
@@ -15813,7 +15823,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="773">
+    <row r="773" spans="1:6">
       <c r="A773" s="1" t="n">
         <v>771</v>
       </c>
@@ -15833,7 +15843,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="774">
+    <row r="774" spans="1:6">
       <c r="A774" s="1" t="n">
         <v>772</v>
       </c>
@@ -15853,7 +15863,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="775">
+    <row r="775" spans="1:6">
       <c r="A775" s="1" t="n">
         <v>773</v>
       </c>
@@ -15873,7 +15883,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="776">
+    <row r="776" spans="1:6">
       <c r="A776" s="1" t="n">
         <v>774</v>
       </c>
@@ -15893,7 +15903,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="777">
+    <row r="777" spans="1:6">
       <c r="A777" s="1" t="n">
         <v>775</v>
       </c>
@@ -15913,7 +15923,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="778">
+    <row r="778" spans="1:6">
       <c r="A778" s="1" t="n">
         <v>776</v>
       </c>
@@ -15933,7 +15943,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="779">
+    <row r="779" spans="1:6">
       <c r="A779" s="1" t="n">
         <v>777</v>
       </c>
@@ -15953,7 +15963,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="780">
+    <row r="780" spans="1:6">
       <c r="A780" s="1" t="n">
         <v>778</v>
       </c>
@@ -15973,7 +15983,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="781">
+    <row r="781" spans="1:6">
       <c r="A781" s="1" t="n">
         <v>779</v>
       </c>
@@ -15993,7 +16003,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="782">
+    <row r="782" spans="1:6">
       <c r="A782" s="1" t="n">
         <v>780</v>
       </c>
@@ -16013,7 +16023,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="783">
+    <row r="783" spans="1:6">
       <c r="A783" s="1" t="n">
         <v>781</v>
       </c>
@@ -16033,7 +16043,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="784">
+    <row r="784" spans="1:6">
       <c r="A784" s="1" t="n">
         <v>782</v>
       </c>
@@ -16053,7 +16063,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="785">
+    <row r="785" spans="1:6">
       <c r="A785" s="1" t="n">
         <v>783</v>
       </c>
@@ -16073,7 +16083,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="786">
+    <row r="786" spans="1:6">
       <c r="A786" s="1" t="n">
         <v>784</v>
       </c>
@@ -16093,7 +16103,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="787">
+    <row r="787" spans="1:6">
       <c r="A787" s="1" t="n">
         <v>785</v>
       </c>
@@ -16113,7 +16123,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="788">
+    <row r="788" spans="1:6">
       <c r="A788" s="1" t="n">
         <v>786</v>
       </c>
@@ -16133,7 +16143,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="789">
+    <row r="789" spans="1:6">
       <c r="A789" s="1" t="n">
         <v>787</v>
       </c>
@@ -16153,7 +16163,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="790">
+    <row r="790" spans="1:6">
       <c r="A790" s="1" t="n">
         <v>788</v>
       </c>
@@ -16173,7 +16183,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="791">
+    <row r="791" spans="1:6">
       <c r="A791" s="1" t="n">
         <v>789</v>
       </c>
@@ -16193,7 +16203,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="792">
+    <row r="792" spans="1:6">
       <c r="A792" s="1" t="n">
         <v>790</v>
       </c>
@@ -16213,7 +16223,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="793">
+    <row r="793" spans="1:6">
       <c r="A793" s="1" t="n">
         <v>791</v>
       </c>
@@ -16233,7 +16243,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="794">
+    <row r="794" spans="1:6">
       <c r="A794" s="1" t="n">
         <v>792</v>
       </c>
@@ -16253,7 +16263,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="795">
+    <row r="795" spans="1:6">
       <c r="A795" s="1" t="n">
         <v>793</v>
       </c>
@@ -16273,7 +16283,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="796">
+    <row r="796" spans="1:6">
       <c r="A796" s="1" t="n">
         <v>794</v>
       </c>
@@ -16293,7 +16303,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="797">
+    <row r="797" spans="1:6">
       <c r="A797" s="1" t="n">
         <v>795</v>
       </c>
@@ -16313,7 +16323,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="798">
+    <row r="798" spans="1:6">
       <c r="A798" s="1" t="n">
         <v>796</v>
       </c>
@@ -16333,7 +16343,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="799">
+    <row r="799" spans="1:6">
       <c r="A799" s="1" t="n">
         <v>797</v>
       </c>
@@ -16353,7 +16363,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="800">
+    <row r="800" spans="1:6">
       <c r="A800" s="1" t="n">
         <v>798</v>
       </c>
@@ -16373,7 +16383,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="801">
+    <row r="801" spans="1:6">
       <c r="A801" s="1" t="n">
         <v>799</v>
       </c>
@@ -16393,7 +16403,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="802">
+    <row r="802" spans="1:6">
       <c r="A802" s="1" t="n">
         <v>800</v>
       </c>
@@ -16413,7 +16423,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="803">
+    <row r="803" spans="1:6">
       <c r="A803" s="1" t="n">
         <v>801</v>
       </c>
@@ -16433,7 +16443,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="804">
+    <row r="804" spans="1:6">
       <c r="A804" s="1" t="n">
         <v>802</v>
       </c>
@@ -16453,7 +16463,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="805">
+    <row r="805" spans="1:6">
       <c r="A805" s="1" t="n">
         <v>803</v>
       </c>
@@ -16473,7 +16483,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="806">
+    <row r="806" spans="1:6">
       <c r="A806" s="1" t="n">
         <v>804</v>
       </c>
@@ -16493,7 +16503,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="807">
+    <row r="807" spans="1:6">
       <c r="A807" s="1" t="n">
         <v>805</v>
       </c>
@@ -16513,7 +16523,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="808">
+    <row r="808" spans="1:6">
       <c r="A808" s="1" t="n">
         <v>806</v>
       </c>
@@ -16533,7 +16543,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="809">
+    <row r="809" spans="1:6">
       <c r="A809" s="1" t="n">
         <v>807</v>
       </c>
@@ -16553,7 +16563,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="810">
+    <row r="810" spans="1:6">
       <c r="A810" s="1" t="n">
         <v>808</v>
       </c>
@@ -16573,7 +16583,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="811">
+    <row r="811" spans="1:6">
       <c r="A811" s="1" t="n">
         <v>809</v>
       </c>
@@ -16593,7 +16603,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="812">
+    <row r="812" spans="1:6">
       <c r="A812" s="1" t="n">
         <v>810</v>
       </c>
@@ -16613,7 +16623,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="813">
+    <row r="813" spans="1:6">
       <c r="A813" s="1" t="n">
         <v>811</v>
       </c>
@@ -16633,7 +16643,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="814">
+    <row r="814" spans="1:6">
       <c r="A814" s="1" t="n">
         <v>812</v>
       </c>
@@ -16653,7 +16663,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="815">
+    <row r="815" spans="1:6">
       <c r="A815" s="1" t="n">
         <v>813</v>
       </c>
@@ -16673,7 +16683,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="816">
+    <row r="816" spans="1:6">
       <c r="A816" s="1" t="n">
         <v>814</v>
       </c>
@@ -16693,7 +16703,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="817">
+    <row r="817" spans="1:6">
       <c r="A817" s="1" t="n">
         <v>815</v>
       </c>
@@ -16713,7 +16723,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="818">
+    <row r="818" spans="1:6">
       <c r="A818" s="1" t="n">
         <v>816</v>
       </c>
@@ -16733,7 +16743,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="819">
+    <row r="819" spans="1:6">
       <c r="A819" s="1" t="n">
         <v>817</v>
       </c>
@@ -16753,7 +16763,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="820">
+    <row r="820" spans="1:6">
       <c r="A820" s="1" t="n">
         <v>818</v>
       </c>
@@ -16773,7 +16783,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="821">
+    <row r="821" spans="1:6">
       <c r="A821" s="1" t="n">
         <v>819</v>
       </c>
@@ -16793,7 +16803,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="822">
+    <row r="822" spans="1:6">
       <c r="A822" s="1" t="n">
         <v>820</v>
       </c>
@@ -16813,7 +16823,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="823">
+    <row r="823" spans="1:6">
       <c r="A823" s="1" t="n">
         <v>821</v>
       </c>
@@ -16833,7 +16843,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="824">
+    <row r="824" spans="1:6">
       <c r="A824" s="1" t="n">
         <v>822</v>
       </c>
@@ -16853,7 +16863,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="825">
+    <row r="825" spans="1:6">
       <c r="A825" s="1" t="n">
         <v>823</v>
       </c>
@@ -16873,7 +16883,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="826">
+    <row r="826" spans="1:6">
       <c r="A826" s="1" t="n">
         <v>824</v>
       </c>
@@ -16893,7 +16903,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="827">
+    <row r="827" spans="1:6">
       <c r="A827" s="1" t="n">
         <v>825</v>
       </c>
@@ -16913,7 +16923,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="828">
+    <row r="828" spans="1:6">
       <c r="A828" s="1" t="n">
         <v>826</v>
       </c>
@@ -16933,7 +16943,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="829">
+    <row r="829" spans="1:6">
       <c r="A829" s="1" t="n">
         <v>827</v>
       </c>
@@ -16953,7 +16963,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="830">
+    <row r="830" spans="1:6">
       <c r="A830" s="1" t="n">
         <v>828</v>
       </c>
@@ -16973,7 +16983,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="831">
+    <row r="831" spans="1:6">
       <c r="A831" s="1" t="n">
         <v>829</v>
       </c>
@@ -16993,7 +17003,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="832">
+    <row r="832" spans="1:6">
       <c r="A832" s="1" t="n">
         <v>830</v>
       </c>
@@ -17013,7 +17023,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="833">
+    <row r="833" spans="1:6">
       <c r="A833" s="1" t="n">
         <v>831</v>
       </c>
@@ -17033,7 +17043,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="834">
+    <row r="834" spans="1:6">
       <c r="A834" s="1" t="n">
         <v>832</v>
       </c>
@@ -17053,7 +17063,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="835">
+    <row r="835" spans="1:6">
       <c r="A835" s="1" t="n">
         <v>833</v>
       </c>
@@ -17073,7 +17083,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="836">
+    <row r="836" spans="1:6">
       <c r="A836" s="1" t="n">
         <v>834</v>
       </c>
@@ -17093,7 +17103,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="837">
+    <row r="837" spans="1:6">
       <c r="A837" s="1" t="n">
         <v>835</v>
       </c>
@@ -17113,7 +17123,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="838">
+    <row r="838" spans="1:6">
       <c r="A838" s="1" t="n">
         <v>836</v>
       </c>
@@ -17133,7 +17143,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="839">
+    <row r="839" spans="1:6">
       <c r="A839" s="1" t="n">
         <v>837</v>
       </c>
@@ -17153,7 +17163,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="840">
+    <row r="840" spans="1:6">
       <c r="A840" s="1" t="n">
         <v>838</v>
       </c>
@@ -17173,7 +17183,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="841">
+    <row r="841" spans="1:6">
       <c r="A841" s="1" t="n">
         <v>839</v>
       </c>
@@ -17193,7 +17203,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="842">
+    <row r="842" spans="1:6">
       <c r="A842" s="1" t="n">
         <v>840</v>
       </c>
@@ -17213,7 +17223,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="843">
+    <row r="843" spans="1:6">
       <c r="A843" s="1" t="n">
         <v>841</v>
       </c>
@@ -17233,7 +17243,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="844">
+    <row r="844" spans="1:6">
       <c r="A844" s="1" t="n">
         <v>842</v>
       </c>
@@ -17253,7 +17263,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="845">
+    <row r="845" spans="1:6">
       <c r="A845" s="1" t="n">
         <v>843</v>
       </c>
@@ -17273,7 +17283,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="846">
+    <row r="846" spans="1:6">
       <c r="A846" s="1" t="n">
         <v>844</v>
       </c>
@@ -17293,7 +17303,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="847">
+    <row r="847" spans="1:6">
       <c r="A847" s="1" t="n">
         <v>845</v>
       </c>
@@ -17313,7 +17323,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="848">
+    <row r="848" spans="1:6">
       <c r="A848" s="1" t="n">
         <v>846</v>
       </c>
@@ -17333,7 +17343,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="849">
+    <row r="849" spans="1:6">
       <c r="A849" s="1" t="n">
         <v>847</v>
       </c>
@@ -17353,7 +17363,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="850">
+    <row r="850" spans="1:6">
       <c r="A850" s="1" t="n">
         <v>848</v>
       </c>
@@ -17373,7 +17383,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="851">
+    <row r="851" spans="1:6">
       <c r="A851" s="1" t="n">
         <v>849</v>
       </c>
@@ -17393,7 +17403,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="852">
+    <row r="852" spans="1:6">
       <c r="A852" s="1" t="n">
         <v>850</v>
       </c>
@@ -17413,7 +17423,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="853">
+    <row r="853" spans="1:6">
       <c r="A853" s="1" t="n">
         <v>851</v>
       </c>
@@ -17433,7 +17443,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="854">
+    <row r="854" spans="1:6">
       <c r="A854" s="1" t="n">
         <v>852</v>
       </c>
@@ -17453,7 +17463,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="855">
+    <row r="855" spans="1:6">
       <c r="A855" s="1" t="n">
         <v>853</v>
       </c>
@@ -17473,7 +17483,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="856">
+    <row r="856" spans="1:6">
       <c r="A856" s="1" t="n">
         <v>854</v>
       </c>
@@ -17493,7 +17503,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="857">
+    <row r="857" spans="1:6">
       <c r="A857" s="1" t="n">
         <v>855</v>
       </c>
@@ -17513,7 +17523,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="858">
+    <row r="858" spans="1:6">
       <c r="A858" s="1" t="n">
         <v>856</v>
       </c>
@@ -17533,7 +17543,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="859">
+    <row r="859" spans="1:6">
       <c r="A859" s="1" t="n">
         <v>857</v>
       </c>
@@ -17553,7 +17563,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="860">
+    <row r="860" spans="1:6">
       <c r="A860" s="1" t="n">
         <v>858</v>
       </c>
@@ -17573,7 +17583,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="861">
+    <row r="861" spans="1:6">
       <c r="A861" s="1" t="n">
         <v>859</v>
       </c>
@@ -17593,7 +17603,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="862">
+    <row r="862" spans="1:6">
       <c r="A862" s="1" t="n">
         <v>860</v>
       </c>
@@ -17613,7 +17623,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="863">
+    <row r="863" spans="1:6">
       <c r="A863" s="1" t="n">
         <v>861</v>
       </c>
@@ -17633,7 +17643,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="864">
+    <row r="864" spans="1:6">
       <c r="A864" s="1" t="n">
         <v>862</v>
       </c>
@@ -17653,7 +17663,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="865">
+    <row r="865" spans="1:6">
       <c r="A865" s="1" t="n">
         <v>863</v>
       </c>
@@ -17673,7 +17683,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="866">
+    <row r="866" spans="1:6">
       <c r="A866" s="1" t="n">
         <v>864</v>
       </c>
@@ -17693,7 +17703,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="867">
+    <row r="867" spans="1:6">
       <c r="A867" s="1" t="n">
         <v>865</v>
       </c>
@@ -17713,7 +17723,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="868">
+    <row r="868" spans="1:6">
       <c r="A868" s="1" t="n">
         <v>866</v>
       </c>
@@ -17733,7 +17743,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="869">
+    <row r="869" spans="1:6">
       <c r="A869" s="1" t="n">
         <v>867</v>
       </c>
@@ -17753,7 +17763,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="870">
+    <row r="870" spans="1:6">
       <c r="A870" s="1" t="n">
         <v>868</v>
       </c>
@@ -17773,7 +17783,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="871">
+    <row r="871" spans="1:6">
       <c r="A871" s="1" t="n">
         <v>869</v>
       </c>
@@ -17793,7 +17803,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="872">
+    <row r="872" spans="1:6">
       <c r="A872" s="1" t="n">
         <v>870</v>
       </c>
@@ -17813,7 +17823,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="873">
+    <row r="873" spans="1:6">
       <c r="A873" s="1" t="n">
         <v>871</v>
       </c>
@@ -17833,7 +17843,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="874">
+    <row r="874" spans="1:6">
       <c r="A874" s="1" t="n">
         <v>872</v>
       </c>
@@ -17853,7 +17863,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="875">
+    <row r="875" spans="1:6">
       <c r="A875" s="1" t="n">
         <v>873</v>
       </c>
@@ -17873,7 +17883,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="876">
+    <row r="876" spans="1:6">
       <c r="A876" s="1" t="n">
         <v>874</v>
       </c>
@@ -17893,7 +17903,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="877">
+    <row r="877" spans="1:6">
       <c r="A877" s="1" t="n">
         <v>875</v>
       </c>
@@ -17913,7 +17923,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="878">
+    <row r="878" spans="1:6">
       <c r="A878" s="1" t="n">
         <v>876</v>
       </c>
@@ -17933,7 +17943,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="879">
+    <row r="879" spans="1:6">
       <c r="A879" s="1" t="n">
         <v>877</v>
       </c>
@@ -17953,7 +17963,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="880">
+    <row r="880" spans="1:6">
       <c r="A880" s="1" t="n">
         <v>878</v>
       </c>
@@ -17973,7 +17983,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="881">
+    <row r="881" spans="1:6">
       <c r="A881" s="1" t="n">
         <v>879</v>
       </c>
@@ -17993,7 +18003,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="882">
+    <row r="882" spans="1:6">
       <c r="A882" s="1" t="n">
         <v>880</v>
       </c>
@@ -18013,7 +18023,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="883">
+    <row r="883" spans="1:6">
       <c r="A883" s="1" t="n">
         <v>881</v>
       </c>
@@ -18033,7 +18043,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="884">
+    <row r="884" spans="1:6">
       <c r="A884" s="1" t="n">
         <v>882</v>
       </c>
@@ -18053,7 +18063,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="885">
+    <row r="885" spans="1:6">
       <c r="A885" s="1" t="n">
         <v>883</v>
       </c>
@@ -18073,7 +18083,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="886">
+    <row r="886" spans="1:6">
       <c r="A886" s="1" t="n">
         <v>884</v>
       </c>
@@ -18093,7 +18103,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="887">
+    <row r="887" spans="1:6">
       <c r="A887" s="1" t="n">
         <v>885</v>
       </c>
@@ -18113,7 +18123,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="888">
+    <row r="888" spans="1:6">
       <c r="A888" s="1" t="n">
         <v>886</v>
       </c>
@@ -18133,7 +18143,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="889">
+    <row r="889" spans="1:6">
       <c r="A889" s="1" t="n">
         <v>887</v>
       </c>
@@ -18153,7 +18163,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="890">
+    <row r="890" spans="1:6">
       <c r="A890" s="1" t="n">
         <v>888</v>
       </c>
@@ -18173,7 +18183,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="891">
+    <row r="891" spans="1:6">
       <c r="A891" s="1" t="n">
         <v>889</v>
       </c>
@@ -18193,7 +18203,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="892">
+    <row r="892" spans="1:6">
       <c r="A892" s="1" t="n">
         <v>890</v>
       </c>
@@ -18213,7 +18223,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="893">
+    <row r="893" spans="1:6">
       <c r="A893" s="1" t="n">
         <v>891</v>
       </c>
@@ -18233,7 +18243,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="894">
+    <row r="894" spans="1:6">
       <c r="A894" s="1" t="n">
         <v>892</v>
       </c>
@@ -18253,7 +18263,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="895">
+    <row r="895" spans="1:6">
       <c r="A895" s="1" t="n">
         <v>893</v>
       </c>
@@ -18273,7 +18283,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="896">
+    <row r="896" spans="1:6">
       <c r="A896" s="1" t="n">
         <v>894</v>
       </c>
@@ -18293,7 +18303,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="897">
+    <row r="897" spans="1:6">
       <c r="A897" s="1" t="n">
         <v>895</v>
       </c>
@@ -18313,7 +18323,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="898">
+    <row r="898" spans="1:6">
       <c r="A898" s="1" t="n">
         <v>896</v>
       </c>
@@ -18333,7 +18343,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="899">
+    <row r="899" spans="1:6">
       <c r="A899" s="1" t="n">
         <v>897</v>
       </c>
@@ -18353,7 +18363,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="900">
+    <row r="900" spans="1:6">
       <c r="A900" s="1" t="n">
         <v>898</v>
       </c>
@@ -18373,7 +18383,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="901">
+    <row r="901" spans="1:6">
       <c r="A901" s="1" t="n">
         <v>899</v>
       </c>
@@ -18393,7 +18403,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="902">
+    <row r="902" spans="1:6">
       <c r="A902" s="1" t="n">
         <v>900</v>
       </c>
@@ -18413,7 +18423,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="903">
+    <row r="903" spans="1:6">
       <c r="A903" s="1" t="n">
         <v>901</v>
       </c>
@@ -18433,7 +18443,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="904">
+    <row r="904" spans="1:6">
       <c r="A904" s="1" t="n">
         <v>902</v>
       </c>
@@ -18453,7 +18463,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="905">
+    <row r="905" spans="1:6">
       <c r="A905" s="1" t="n">
         <v>903</v>
       </c>
@@ -18473,7 +18483,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="906">
+    <row r="906" spans="1:6">
       <c r="A906" s="1" t="n">
         <v>904</v>
       </c>
@@ -18493,7 +18503,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="907">
+    <row r="907" spans="1:6">
       <c r="A907" s="1" t="n">
         <v>905</v>
       </c>
@@ -18513,7 +18523,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="908">
+    <row r="908" spans="1:6">
       <c r="A908" s="1" t="n">
         <v>906</v>
       </c>
@@ -18533,7 +18543,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="909">
+    <row r="909" spans="1:6">
       <c r="A909" s="1" t="n">
         <v>907</v>
       </c>
@@ -18553,7 +18563,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="910">
+    <row r="910" spans="1:6">
       <c r="A910" s="1" t="n">
         <v>908</v>
       </c>
@@ -18573,7 +18583,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="911">
+    <row r="911" spans="1:6">
       <c r="A911" s="1" t="n">
         <v>909</v>
       </c>
@@ -18593,7 +18603,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="912">
+    <row r="912" spans="1:6">
       <c r="A912" s="1" t="n">
         <v>910</v>
       </c>
@@ -18613,7 +18623,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="913">
+    <row r="913" spans="1:6">
       <c r="A913" s="1" t="n">
         <v>911</v>
       </c>
@@ -18633,7 +18643,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="914">
+    <row r="914" spans="1:6">
       <c r="A914" s="1" t="n">
         <v>912</v>
       </c>
@@ -18653,7 +18663,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="915">
+    <row r="915" spans="1:6">
       <c r="A915" s="1" t="n">
         <v>913</v>
       </c>
@@ -18673,7 +18683,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="916">
+    <row r="916" spans="1:6">
       <c r="A916" s="1" t="n">
         <v>914</v>
       </c>
@@ -18693,7 +18703,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="917">
+    <row r="917" spans="1:6">
       <c r="A917" s="1" t="n">
         <v>915</v>
       </c>
@@ -18713,7 +18723,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="918">
+    <row r="918" spans="1:6">
       <c r="A918" s="1" t="n">
         <v>916</v>
       </c>
@@ -18733,7 +18743,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="919">
+    <row r="919" spans="1:6">
       <c r="A919" s="1" t="n">
         <v>917</v>
       </c>
@@ -18753,7 +18763,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="920">
+    <row r="920" spans="1:6">
       <c r="A920" s="1" t="n">
         <v>918</v>
       </c>
@@ -18773,7 +18783,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="921">
+    <row r="921" spans="1:6">
       <c r="A921" s="1" t="n">
         <v>919</v>
       </c>
@@ -18793,7 +18803,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="922">
+    <row r="922" spans="1:6">
       <c r="A922" s="1" t="n">
         <v>920</v>
       </c>
@@ -18813,7 +18823,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="923">
+    <row r="923" spans="1:6">
       <c r="A923" s="1" t="n">
         <v>921</v>
       </c>
@@ -18833,7 +18843,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="924">
+    <row r="924" spans="1:6">
       <c r="A924" s="1" t="n">
         <v>922</v>
       </c>
@@ -18853,7 +18863,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="925">
+    <row r="925" spans="1:6">
       <c r="A925" s="1" t="n">
         <v>923</v>
       </c>
@@ -18873,7 +18883,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="926">
+    <row r="926" spans="1:6">
       <c r="A926" s="1" t="n">
         <v>924</v>
       </c>
@@ -18893,7 +18903,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="927">
+    <row r="927" spans="1:6">
       <c r="A927" s="1" t="n">
         <v>925</v>
       </c>
@@ -18913,7 +18923,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="928">
+    <row r="928" spans="1:6">
       <c r="A928" s="1" t="n">
         <v>926</v>
       </c>
@@ -18933,7 +18943,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="929">
+    <row r="929" spans="1:6">
       <c r="A929" s="1" t="n">
         <v>927</v>
       </c>
@@ -18953,7 +18963,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="930">
+    <row r="930" spans="1:6">
       <c r="A930" s="1" t="n">
         <v>928</v>
       </c>
@@ -18973,7 +18983,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="931">
+    <row r="931" spans="1:6">
       <c r="A931" s="1" t="n">
         <v>929</v>
       </c>
@@ -18993,7 +19003,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="932">
+    <row r="932" spans="1:6">
       <c r="A932" s="1" t="n">
         <v>930</v>
       </c>
@@ -19013,7 +19023,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="933">
+    <row r="933" spans="1:6">
       <c r="A933" s="1" t="n">
         <v>931</v>
       </c>
@@ -19033,7 +19043,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="934">
+    <row r="934" spans="1:6">
       <c r="A934" s="1" t="n">
         <v>932</v>
       </c>
@@ -19053,7 +19063,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="935">
+    <row r="935" spans="1:6">
       <c r="A935" s="1" t="n">
         <v>933</v>
       </c>
@@ -19073,7 +19083,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="936">
+    <row r="936" spans="1:6">
       <c r="A936" s="1" t="n">
         <v>934</v>
       </c>
@@ -19093,7 +19103,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="937">
+    <row r="937" spans="1:6">
       <c r="A937" s="1" t="n">
         <v>935</v>
       </c>
@@ -19113,7 +19123,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="938">
+    <row r="938" spans="1:6">
       <c r="A938" s="1" t="n">
         <v>936</v>
       </c>
@@ -19133,7 +19143,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="939">
+    <row r="939" spans="1:6">
       <c r="A939" s="1" t="n">
         <v>937</v>
       </c>
@@ -19153,7 +19163,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="940">
+    <row r="940" spans="1:6">
       <c r="A940" s="1" t="n">
         <v>938</v>
       </c>
@@ -19173,7 +19183,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="941">
+    <row r="941" spans="1:6">
       <c r="A941" s="1" t="n">
         <v>939</v>
       </c>
@@ -19193,7 +19203,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="942">
+    <row r="942" spans="1:6">
       <c r="A942" s="1" t="n">
         <v>940</v>
       </c>
@@ -19213,7 +19223,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="943">
+    <row r="943" spans="1:6">
       <c r="A943" s="1" t="n">
         <v>941</v>
       </c>
@@ -19233,7 +19243,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="944">
+    <row r="944" spans="1:6">
       <c r="A944" s="1" t="n">
         <v>942</v>
       </c>
@@ -19253,7 +19263,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="945">
+    <row r="945" spans="1:6">
       <c r="A945" s="1" t="n">
         <v>943</v>
       </c>
@@ -19273,7 +19283,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="946">
+    <row r="946" spans="1:6">
       <c r="A946" s="1" t="n">
         <v>944</v>
       </c>
@@ -19293,7 +19303,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="947">
+    <row r="947" spans="1:6">
       <c r="A947" s="1" t="n">
         <v>945</v>
       </c>
@@ -19313,7 +19323,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="948">
+    <row r="948" spans="1:6">
       <c r="A948" s="1" t="n">
         <v>946</v>
       </c>
@@ -19333,7 +19343,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="949">
+    <row r="949" spans="1:6">
       <c r="A949" s="1" t="n">
         <v>947</v>
       </c>
@@ -19353,7 +19363,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="950">
+    <row r="950" spans="1:6">
       <c r="A950" s="1" t="n">
         <v>948</v>
       </c>
@@ -19373,7 +19383,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="951">
+    <row r="951" spans="1:6">
       <c r="A951" s="1" t="n">
         <v>949</v>
       </c>
@@ -19393,7 +19403,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="952">
+    <row r="952" spans="1:6">
       <c r="A952" s="1" t="n">
         <v>950</v>
       </c>
@@ -19413,7 +19423,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="953">
+    <row r="953" spans="1:6">
       <c r="A953" s="1" t="n">
         <v>951</v>
       </c>
@@ -19433,7 +19443,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="954">
+    <row r="954" spans="1:6">
       <c r="A954" s="1" t="n">
         <v>952</v>
       </c>
@@ -19453,7 +19463,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="955">
+    <row r="955" spans="1:6">
       <c r="A955" s="1" t="n">
         <v>953</v>
       </c>
@@ -19473,7 +19483,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="956">
+    <row r="956" spans="1:6">
       <c r="A956" s="1" t="n">
         <v>954</v>
       </c>
@@ -19493,7 +19503,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="957">
+    <row r="957" spans="1:6">
       <c r="A957" s="1" t="n">
         <v>955</v>
       </c>
@@ -19513,7 +19523,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="958">
+    <row r="958" spans="1:6">
       <c r="A958" s="1" t="n">
         <v>956</v>
       </c>
@@ -19533,7 +19543,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="959">
+    <row r="959" spans="1:6">
       <c r="A959" s="1" t="n">
         <v>957</v>
       </c>
@@ -19553,7 +19563,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="960">
+    <row r="960" spans="1:6">
       <c r="A960" s="1" t="n">
         <v>958</v>
       </c>
@@ -19573,7 +19583,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="961">
+    <row r="961" spans="1:6">
       <c r="A961" s="1" t="n">
         <v>959</v>
       </c>
@@ -19593,7 +19603,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="962">
+    <row r="962" spans="1:6">
       <c r="A962" s="1" t="n">
         <v>960</v>
       </c>
@@ -19613,7 +19623,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="963">
+    <row r="963" spans="1:6">
       <c r="A963" s="1" t="n">
         <v>961</v>
       </c>
@@ -19633,7 +19643,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="964">
+    <row r="964" spans="1:6">
       <c r="A964" s="1" t="n">
         <v>962</v>
       </c>
@@ -19653,7 +19663,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="965">
+    <row r="965" spans="1:6">
       <c r="A965" s="1" t="n">
         <v>963</v>
       </c>
@@ -19673,7 +19683,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="966">
+    <row r="966" spans="1:6">
       <c r="A966" s="1" t="n">
         <v>964</v>
       </c>
@@ -19693,7 +19703,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="967">
+    <row r="967" spans="1:6">
       <c r="A967" s="1" t="n">
         <v>965</v>
       </c>
@@ -19713,7 +19723,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="968">
+    <row r="968" spans="1:6">
       <c r="A968" s="1" t="n">
         <v>966</v>
       </c>
@@ -19733,7 +19743,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="969">
+    <row r="969" spans="1:6">
       <c r="A969" s="1" t="n">
         <v>967</v>
       </c>
@@ -19753,7 +19763,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="970">
+    <row r="970" spans="1:6">
       <c r="A970" s="1" t="n">
         <v>968</v>
       </c>
@@ -19773,7 +19783,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="971">
+    <row r="971" spans="1:6">
       <c r="A971" s="1" t="n">
         <v>969</v>
       </c>
@@ -19793,7 +19803,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="972">
+    <row r="972" spans="1:6">
       <c r="A972" s="1" t="n">
         <v>970</v>
       </c>
@@ -19813,7 +19823,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="973">
+    <row r="973" spans="1:6">
       <c r="A973" s="1" t="n">
         <v>971</v>
       </c>
@@ -19833,7 +19843,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="974">
+    <row r="974" spans="1:6">
       <c r="A974" s="1" t="n">
         <v>972</v>
       </c>
@@ -19853,7 +19863,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="975">
+    <row r="975" spans="1:6">
       <c r="A975" s="1" t="n">
         <v>973</v>
       </c>
@@ -19873,7 +19883,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="976">
+    <row r="976" spans="1:6">
       <c r="A976" s="1" t="n">
         <v>974</v>
       </c>
@@ -19893,7 +19903,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="977">
+    <row r="977" spans="1:6">
       <c r="A977" s="1" t="n">
         <v>975</v>
       </c>
@@ -19913,7 +19923,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="978">
+    <row r="978" spans="1:6">
       <c r="A978" s="1" t="n">
         <v>976</v>
       </c>
@@ -19933,7 +19943,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="979">
+    <row r="979" spans="1:6">
       <c r="A979" s="1" t="n">
         <v>977</v>
       </c>
@@ -19953,7 +19963,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="980">
+    <row r="980" spans="1:6">
       <c r="A980" s="1" t="n">
         <v>978</v>
       </c>
@@ -19973,7 +19983,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="981">
+    <row r="981" spans="1:6">
       <c r="A981" s="1" t="n">
         <v>979</v>
       </c>
@@ -19993,7 +20003,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="982">
+    <row r="982" spans="1:6">
       <c r="A982" s="1" t="n">
         <v>980</v>
       </c>
@@ -20013,7 +20023,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="983">
+    <row r="983" spans="1:6">
       <c r="A983" s="1" t="n">
         <v>981</v>
       </c>
@@ -20033,7 +20043,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="984">
+    <row r="984" spans="1:6">
       <c r="A984" s="1" t="n">
         <v>982</v>
       </c>
@@ -20053,7 +20063,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="985">
+    <row r="985" spans="1:6">
       <c r="A985" s="1" t="n">
         <v>983</v>
       </c>
@@ -20073,7 +20083,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="986">
+    <row r="986" spans="1:6">
       <c r="A986" s="1" t="n">
         <v>984</v>
       </c>
@@ -20093,7 +20103,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="987">
+    <row r="987" spans="1:6">
       <c r="A987" s="1" t="n">
         <v>985</v>
       </c>
@@ -20113,7 +20123,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="988">
+    <row r="988" spans="1:6">
       <c r="A988" s="1" t="n">
         <v>986</v>
       </c>
@@ -20133,7 +20143,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="989">
+    <row r="989" spans="1:6">
       <c r="A989" s="1" t="n">
         <v>987</v>
       </c>
@@ -20153,7 +20163,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="990">
+    <row r="990" spans="1:6">
       <c r="A990" s="1" t="n">
         <v>988</v>
       </c>
@@ -20173,7 +20183,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="991">
+    <row r="991" spans="1:6">
       <c r="A991" s="1" t="n">
         <v>989</v>
       </c>
@@ -20193,7 +20203,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="992">
+    <row r="992" spans="1:6">
       <c r="A992" s="1" t="n">
         <v>990</v>
       </c>
@@ -20213,7 +20223,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="993">
+    <row r="993" spans="1:6">
       <c r="A993" s="1" t="n">
         <v>991</v>
       </c>
@@ -20233,7 +20243,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="994">
+    <row r="994" spans="1:6">
       <c r="A994" s="1" t="n">
         <v>992</v>
       </c>
@@ -20253,7 +20263,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="995">
+    <row r="995" spans="1:6">
       <c r="A995" s="1" t="n">
         <v>993</v>
       </c>
@@ -20273,7 +20283,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="996">
+    <row r="996" spans="1:6">
       <c r="A996" s="1" t="n">
         <v>994</v>
       </c>
@@ -20293,7 +20303,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="997">
+    <row r="997" spans="1:6">
       <c r="A997" s="1" t="n">
         <v>995</v>
       </c>
@@ -20313,7 +20323,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="998">
+    <row r="998" spans="1:6">
       <c r="A998" s="1" t="n">
         <v>996</v>
       </c>
@@ -20333,7 +20343,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="999">
+    <row r="999" spans="1:6">
       <c r="A999" s="1" t="n">
         <v>997</v>
       </c>
@@ -20353,7 +20363,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1000">
+    <row r="1000" spans="1:6">
       <c r="A1000" s="1" t="n">
         <v>998</v>
       </c>
@@ -20373,7 +20383,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1001">
+    <row r="1001" spans="1:6">
       <c r="A1001" s="1" t="n">
         <v>999</v>
       </c>
@@ -20393,7 +20403,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1002">
+    <row r="1002" spans="1:6">
       <c r="A1002" s="1" t="n">
         <v>1000</v>
       </c>
@@ -20413,7 +20423,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1003">
+    <row r="1003" spans="1:6">
       <c r="A1003" s="1" t="n">
         <v>1001</v>
       </c>
@@ -20433,7 +20443,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1004">
+    <row r="1004" spans="1:6">
       <c r="A1004" s="1" t="n">
         <v>1002</v>
       </c>
@@ -20453,7 +20463,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1005">
+    <row r="1005" spans="1:6">
       <c r="A1005" s="1" t="n">
         <v>1003</v>
       </c>
@@ -20473,7 +20483,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1006">
+    <row r="1006" spans="1:6">
       <c r="A1006" s="1" t="n">
         <v>1004</v>
       </c>
@@ -20493,7 +20503,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1007">
+    <row r="1007" spans="1:6">
       <c r="A1007" s="1" t="n">
         <v>1005</v>
       </c>
@@ -20513,7 +20523,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1008">
+    <row r="1008" spans="1:6">
       <c r="A1008" s="1" t="n">
         <v>1006</v>
       </c>
@@ -20533,7 +20543,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1009">
+    <row r="1009" spans="1:6">
       <c r="A1009" s="1" t="n">
         <v>1007</v>
       </c>
@@ -20553,7 +20563,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1010">
+    <row r="1010" spans="1:6">
       <c r="A1010" s="1" t="n">
         <v>1008</v>
       </c>
@@ -20573,7 +20583,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1011">
+    <row r="1011" spans="1:6">
       <c r="A1011" s="1" t="n">
         <v>1009</v>
       </c>
@@ -20593,7 +20603,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1012">
+    <row r="1012" spans="1:6">
       <c r="A1012" s="1" t="n">
         <v>1010</v>
       </c>
@@ -20613,7 +20623,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1013">
+    <row r="1013" spans="1:6">
       <c r="A1013" s="1" t="n">
         <v>1011</v>
       </c>
@@ -20633,7 +20643,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1014">
+    <row r="1014" spans="1:6">
       <c r="A1014" s="1" t="n">
         <v>1012</v>
       </c>
@@ -20653,7 +20663,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1015">
+    <row r="1015" spans="1:6">
       <c r="A1015" s="1" t="n">
         <v>1013</v>
       </c>
@@ -20673,7 +20683,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1016">
+    <row r="1016" spans="1:6">
       <c r="A1016" s="1" t="n">
         <v>1014</v>
       </c>
@@ -20693,7 +20703,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1017">
+    <row r="1017" spans="1:6">
       <c r="A1017" s="1" t="n">
         <v>1015</v>
       </c>
@@ -20713,7 +20723,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1018">
+    <row r="1018" spans="1:6">
       <c r="A1018" s="1" t="n">
         <v>1016</v>
       </c>
@@ -20733,7 +20743,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1019">
+    <row r="1019" spans="1:6">
       <c r="A1019" s="1" t="n">
         <v>1017</v>
       </c>
@@ -20753,7 +20763,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1020">
+    <row r="1020" spans="1:6">
       <c r="A1020" s="1" t="n">
         <v>1018</v>
       </c>
@@ -20773,7 +20783,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1021">
+    <row r="1021" spans="1:6">
       <c r="A1021" s="1" t="n">
         <v>1019</v>
       </c>
@@ -20793,7 +20803,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1022">
+    <row r="1022" spans="1:6">
       <c r="A1022" s="1" t="n">
         <v>1020</v>
       </c>
@@ -20813,7 +20823,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1023">
+    <row r="1023" spans="1:6">
       <c r="A1023" s="1" t="n">
         <v>1021</v>
       </c>
@@ -20833,7 +20843,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1024">
+    <row r="1024" spans="1:6">
       <c r="A1024" s="1" t="n">
         <v>1022</v>
       </c>
@@ -20853,7 +20863,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1025">
+    <row r="1025" spans="1:6">
       <c r="A1025" s="1" t="n">
         <v>1023</v>
       </c>
@@ -20873,7 +20883,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1026">
+    <row r="1026" spans="1:6">
       <c r="A1026" s="1" t="n">
         <v>1024</v>
       </c>
@@ -20893,7 +20903,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1027">
+    <row r="1027" spans="1:6">
       <c r="A1027" s="1" t="n">
         <v>1025</v>
       </c>
@@ -20913,7 +20923,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1028">
+    <row r="1028" spans="1:6">
       <c r="A1028" s="1" t="n">
         <v>1026</v>
       </c>
@@ -20933,7 +20943,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1029">
+    <row r="1029" spans="1:6">
       <c r="A1029" s="1" t="n">
         <v>1027</v>
       </c>
@@ -20953,7 +20963,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1030">
+    <row r="1030" spans="1:6">
       <c r="A1030" s="1" t="n">
         <v>1028</v>
       </c>
@@ -20973,7 +20983,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1031">
+    <row r="1031" spans="1:6">
       <c r="A1031" s="1" t="n">
         <v>1029</v>
       </c>
@@ -20993,7 +21003,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1032">
+    <row r="1032" spans="1:6">
       <c r="A1032" s="1" t="n">
         <v>1030</v>
       </c>
@@ -21013,7 +21023,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1033">
+    <row r="1033" spans="1:6">
       <c r="A1033" s="1" t="n">
         <v>1031</v>
       </c>
@@ -21033,7 +21043,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1034">
+    <row r="1034" spans="1:6">
       <c r="A1034" s="1" t="n">
         <v>1032</v>
       </c>
@@ -21053,7 +21063,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1035">
+    <row r="1035" spans="1:6">
       <c r="A1035" s="1" t="n">
         <v>1033</v>
       </c>
@@ -21073,7 +21083,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1036">
+    <row r="1036" spans="1:6">
       <c r="A1036" s="1" t="n">
         <v>1034</v>
       </c>
@@ -21093,7 +21103,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1037">
+    <row r="1037" spans="1:6">
       <c r="A1037" s="1" t="n">
         <v>1035</v>
       </c>
@@ -21113,7 +21123,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1038">
+    <row r="1038" spans="1:6">
       <c r="A1038" s="1" t="n">
         <v>1036</v>
       </c>
@@ -21133,7 +21143,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1039">
+    <row r="1039" spans="1:6">
       <c r="A1039" s="1" t="n">
         <v>1037</v>
       </c>
@@ -21153,7 +21163,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1040">
+    <row r="1040" spans="1:6">
       <c r="A1040" s="1" t="n">
         <v>1038</v>
       </c>
@@ -21173,7 +21183,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1041">
+    <row r="1041" spans="1:6">
       <c r="A1041" s="1" t="n">
         <v>1039</v>
       </c>
@@ -21193,7 +21203,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1042">
+    <row r="1042" spans="1:6">
       <c r="A1042" s="1" t="n">
         <v>1040</v>
       </c>
@@ -21213,7 +21223,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1043">
+    <row r="1043" spans="1:6">
       <c r="A1043" s="1" t="n">
         <v>1041</v>
       </c>
@@ -21233,7 +21243,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1044">
+    <row r="1044" spans="1:6">
       <c r="A1044" s="1" t="n">
         <v>1042</v>
       </c>
@@ -21253,7 +21263,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1045">
+    <row r="1045" spans="1:6">
       <c r="A1045" s="1" t="n">
         <v>1043</v>
       </c>
@@ -21273,7 +21283,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1046">
+    <row r="1046" spans="1:6">
       <c r="A1046" s="1" t="n">
         <v>1044</v>
       </c>
@@ -21293,7 +21303,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1047">
+    <row r="1047" spans="1:6">
       <c r="A1047" s="1" t="n">
         <v>1045</v>
       </c>
@@ -21313,7 +21323,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1048">
+    <row r="1048" spans="1:6">
       <c r="A1048" s="1" t="n">
         <v>1046</v>
       </c>
@@ -21333,7 +21343,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1049">
+    <row r="1049" spans="1:6">
       <c r="A1049" s="1" t="n">
         <v>1047</v>
       </c>
@@ -21353,7 +21363,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1050">
+    <row r="1050" spans="1:6">
       <c r="A1050" s="1" t="n">
         <v>1048</v>
       </c>
@@ -21373,7 +21383,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1051">
+    <row r="1051" spans="1:6">
       <c r="A1051" s="1" t="n">
         <v>1049</v>
       </c>
@@ -21393,7 +21403,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1052">
+    <row r="1052" spans="1:6">
       <c r="A1052" s="1" t="n">
         <v>1050</v>
       </c>
@@ -21413,7 +21423,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1053">
+    <row r="1053" spans="1:6">
       <c r="A1053" s="1" t="n">
         <v>1051</v>
       </c>
@@ -21433,7 +21443,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1054">
+    <row r="1054" spans="1:6">
       <c r="A1054" s="1" t="n">
         <v>1052</v>
       </c>
@@ -21453,7 +21463,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1055">
+    <row r="1055" spans="1:6">
       <c r="A1055" s="1" t="n">
         <v>1053</v>
       </c>
@@ -21473,7 +21483,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1056">
+    <row r="1056" spans="1:6">
       <c r="A1056" s="1" t="n">
         <v>1054</v>
       </c>
@@ -21493,7 +21503,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1057">
+    <row r="1057" spans="1:6">
       <c r="A1057" s="1" t="n">
         <v>1055</v>
       </c>
@@ -21513,7 +21523,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1058">
+    <row r="1058" spans="1:6">
       <c r="A1058" s="1" t="n">
         <v>1056</v>
       </c>
@@ -21533,7 +21543,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1059">
+    <row r="1059" spans="1:6">
       <c r="A1059" s="1" t="n">
         <v>1057</v>
       </c>
@@ -21553,7 +21563,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1060">
+    <row r="1060" spans="1:6">
       <c r="A1060" s="1" t="n">
         <v>1058</v>
       </c>
@@ -21573,7 +21583,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1061">
+    <row r="1061" spans="1:6">
       <c r="A1061" s="1" t="n">
         <v>1059</v>
       </c>
@@ -21593,7 +21603,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1062">
+    <row r="1062" spans="1:6">
       <c r="A1062" s="1" t="n">
         <v>1060</v>
       </c>
@@ -21613,7 +21623,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1063">
+    <row r="1063" spans="1:6">
       <c r="A1063" s="1" t="n">
         <v>1061</v>
       </c>
@@ -21633,7 +21643,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1064">
+    <row r="1064" spans="1:6">
       <c r="A1064" s="1" t="n">
         <v>1062</v>
       </c>
@@ -21653,7 +21663,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1065">
+    <row r="1065" spans="1:6">
       <c r="A1065" s="1" t="n">
         <v>1063</v>
       </c>
@@ -21673,7 +21683,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1066">
+    <row r="1066" spans="1:6">
       <c r="A1066" s="1" t="n">
         <v>1064</v>
       </c>
@@ -21693,7 +21703,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1067">
+    <row r="1067" spans="1:6">
       <c r="A1067" s="1" t="n">
         <v>1065</v>
       </c>
@@ -21713,7 +21723,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1068">
+    <row r="1068" spans="1:6">
       <c r="A1068" s="1" t="n">
         <v>1066</v>
       </c>
@@ -21733,7 +21743,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1069">
+    <row r="1069" spans="1:6">
       <c r="A1069" s="1" t="n">
         <v>1067</v>
       </c>
@@ -21753,7 +21763,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1070">
+    <row r="1070" spans="1:6">
       <c r="A1070" s="1" t="n">
         <v>1068</v>
       </c>
@@ -21773,7 +21783,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1071">
+    <row r="1071" spans="1:6">
       <c r="A1071" s="1" t="n">
         <v>1069</v>
       </c>
@@ -21793,7 +21803,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1072">
+    <row r="1072" spans="1:6">
       <c r="A1072" s="1" t="n">
         <v>1070</v>
       </c>
@@ -21813,7 +21823,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1073">
+    <row r="1073" spans="1:6">
       <c r="A1073" s="1" t="n">
         <v>1071</v>
       </c>
@@ -21833,7 +21843,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1074">
+    <row r="1074" spans="1:6">
       <c r="A1074" s="1" t="n">
         <v>1072</v>
       </c>
@@ -21853,7 +21863,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1075">
+    <row r="1075" spans="1:6">
       <c r="A1075" s="1" t="n">
         <v>1073</v>
       </c>
@@ -21873,7 +21883,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1076">
+    <row r="1076" spans="1:6">
       <c r="A1076" s="1" t="n">
         <v>1074</v>
       </c>
@@ -21893,7 +21903,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1077">
+    <row r="1077" spans="1:6">
       <c r="A1077" s="1" t="n">
         <v>1075</v>
       </c>
@@ -21913,7 +21923,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1078">
+    <row r="1078" spans="1:6">
       <c r="A1078" s="1" t="n">
         <v>1076</v>
       </c>
@@ -21933,7 +21943,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1079">
+    <row r="1079" spans="1:6">
       <c r="A1079" s="1" t="n">
         <v>1077</v>
       </c>
@@ -21953,7 +21963,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1080">
+    <row r="1080" spans="1:6">
       <c r="A1080" s="1" t="n">
         <v>1078</v>
       </c>
@@ -21973,7 +21983,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1081">
+    <row r="1081" spans="1:6">
       <c r="A1081" s="1" t="n">
         <v>1079</v>
       </c>
@@ -21993,7 +22003,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1082">
+    <row r="1082" spans="1:6">
       <c r="A1082" s="1" t="n">
         <v>1080</v>
       </c>
@@ -22013,7 +22023,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1083">
+    <row r="1083" spans="1:6">
       <c r="A1083" s="1" t="n">
         <v>1081</v>
       </c>
@@ -22033,7 +22043,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1084">
+    <row r="1084" spans="1:6">
       <c r="A1084" s="1" t="n">
         <v>1082</v>
       </c>
@@ -22053,7 +22063,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1085">
+    <row r="1085" spans="1:6">
       <c r="A1085" s="1" t="n">
         <v>1083</v>
       </c>
@@ -22073,7 +22083,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1086">
+    <row r="1086" spans="1:6">
       <c r="A1086" s="1" t="n">
         <v>1084</v>
       </c>
@@ -22093,7 +22103,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1087">
+    <row r="1087" spans="1:6">
       <c r="A1087" s="1" t="n">
         <v>1085</v>
       </c>
@@ -22113,7 +22123,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1088">
+    <row r="1088" spans="1:6">
       <c r="A1088" s="1" t="n">
         <v>1086</v>
       </c>
@@ -22133,7 +22143,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1089">
+    <row r="1089" spans="1:6">
       <c r="A1089" s="1" t="n">
         <v>1087</v>
       </c>
@@ -22153,7 +22163,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1090">
+    <row r="1090" spans="1:6">
       <c r="A1090" s="1" t="n">
         <v>1088</v>
       </c>
@@ -22173,7 +22183,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1091">
+    <row r="1091" spans="1:6">
       <c r="A1091" s="1" t="n">
         <v>1089</v>
       </c>
@@ -22193,7 +22203,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1092">
+    <row r="1092" spans="1:6">
       <c r="A1092" s="1" t="n">
         <v>1090</v>
       </c>
@@ -22213,7 +22223,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1093">
+    <row r="1093" spans="1:6">
       <c r="A1093" s="1" t="n">
         <v>1091</v>
       </c>
@@ -22233,7 +22243,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1094">
+    <row r="1094" spans="1:6">
       <c r="A1094" s="1" t="n">
         <v>1092</v>
       </c>
@@ -22253,7 +22263,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1095">
+    <row r="1095" spans="1:6">
       <c r="A1095" s="1" t="n">
         <v>1093</v>
       </c>
@@ -22273,7 +22283,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="1096">
+    <row r="1096" spans="1:6">
       <c r="A1096" s="1" t="n">
         <v>1094</v>
       </c>
